--- a/NoteBooks/datos/datostld100.xlsx
+++ b/NoteBooks/datos/datostld100.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Alvaro Romero\FOM\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -562,12 +567,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="#,##0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
+    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,13 +610,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -637,10 +663,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="2" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -672,15 +702,42 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="11" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="4"/>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="2" xfId="4" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Buena" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal_Hoja1" xfId="4"/>
+    <cellStyle name="Porcentaje 2" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -974,28 +1031,30 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:P1000"/>
+  <dimension ref="A1:P999"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="13" customWidth="1"/>
-    <col min="3" max="5" width="10.7109375" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.28515625" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.85546875" style="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="13.5703125" style="13" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="13.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.7265625" style="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.54296875" style="13" customWidth="1"/>
+    <col min="3" max="3" width="10.7265625" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.26953125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13.54296875" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="27.81640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="13.54296875" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1045,20 +1104,20 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
-        <v>0.95</v>
+    <row r="2" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="19">
+        <v>1.7081326693079166</v>
       </c>
-      <c r="B2" s="5">
-        <v>1000000000000000</v>
+      <c r="B2" s="20">
+        <v>5.2983853113225262E+20</v>
       </c>
       <c r="C2" s="5">
         <v>0</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="15">
         <v>10000000000</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="15">
         <v>1E-8</v>
       </c>
       <c r="F2" s="5">
@@ -1086,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="N2" s="5">
-        <v>1000000</v>
+        <v>10000000</v>
       </c>
       <c r="O2" s="6">
         <v>0</v>
@@ -1095,20 +1154,20 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
-        <v>1.28</v>
+    <row r="3" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="19">
+        <v>1.5659263275418021</v>
       </c>
-      <c r="B3" s="5">
-        <v>4E+16</v>
+      <c r="B3" s="20">
+        <v>3.200997233486128E+17</v>
       </c>
       <c r="C3" s="5">
         <v>0</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="15">
         <v>10000000000</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="15">
         <v>1E-8</v>
       </c>
       <c r="F3" s="7"/>
@@ -1123,20 +1182,20 @@
       <c r="O3" s="8"/>
       <c r="P3" s="8"/>
     </row>
-    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4">
-        <v>1.42</v>
+    <row r="4" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="19">
+        <v>1.6421025188618272</v>
       </c>
-      <c r="B4" s="5">
-        <v>1.6E+16</v>
+      <c r="B4" s="20">
+        <v>2.7098831140946109E+17</v>
       </c>
       <c r="C4" s="5">
         <v>0</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="15">
         <v>10000000000</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="15">
         <v>1E-8</v>
       </c>
       <c r="F4" s="7"/>
@@ -1151,20 +1210,20 @@
       <c r="O4" s="8"/>
       <c r="P4" s="8"/>
     </row>
-    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4">
-        <v>1.52</v>
+    <row r="5" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="24">
+        <v>2.1293568458618481</v>
       </c>
-      <c r="B5" s="5">
-        <v>2.1E+16</v>
+      <c r="B5" s="25">
+        <v>4.5372040499427095E+21</v>
       </c>
       <c r="C5" s="5">
         <v>0</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="15">
         <v>10000000000</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="15">
         <v>1E-8</v>
       </c>
       <c r="F5" s="7"/>
@@ -1179,54 +1238,44 @@
       <c r="O5" s="8"/>
       <c r="P5" s="8"/>
     </row>
-    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="4">
-        <v>1.9990000000000001</v>
+        <v>2.5</v>
       </c>
-      <c r="B6" s="5">
-        <v>4.1E+20</v>
+      <c r="B6" s="15">
+        <v>1000000000000</v>
       </c>
       <c r="C6" s="5">
         <v>0</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="15">
         <v>10000000000</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="15">
         <v>1E-8</v>
       </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
       <c r="L6" s="8"/>
       <c r="M6" s="8"/>
       <c r="N6" s="7"/>
       <c r="O6" s="8"/>
       <c r="P6" s="8"/>
     </row>
-    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
-        <v>1.998</v>
-      </c>
-      <c r="B7" s="5">
-        <v>1000000000000</v>
-      </c>
-      <c r="C7" s="5">
-        <v>0</v>
-      </c>
-      <c r="D7" s="5">
-        <v>10000000000</v>
-      </c>
-      <c r="E7" s="5">
-        <v>1E-8</v>
-      </c>
-      <c r="F7" s="5"/>
+    <row r="7" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9"/>
       <c r="G7" s="9"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
       <c r="J7" s="10"/>
       <c r="K7" s="10"/>
       <c r="L7" s="8"/>
@@ -1235,7 +1284,7 @@
       <c r="O7" s="8"/>
       <c r="P7" s="8"/>
     </row>
-    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -1253,196 +1302,120 @@
       <c r="O8" s="8"/>
       <c r="P8" s="8"/>
     </row>
-    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
+    <row r="9" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="11"/>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="27"/>
+      <c r="M9" s="28"/>
       <c r="N9" s="7"/>
       <c r="O9" s="8"/>
       <c r="P9" s="8"/>
     </row>
-    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11"/>
       <c r="B10" s="7"/>
       <c r="C10" s="7"/>
       <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="22"/>
       <c r="N10" s="7"/>
       <c r="O10" s="8"/>
       <c r="P10" s="8"/>
     </row>
-    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11"/>
       <c r="B11" s="7"/>
       <c r="C11" s="7"/>
       <c r="D11" s="7"/>
       <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="8"/>
-      <c r="M11" s="8"/>
-      <c r="N11" s="7"/>
       <c r="O11" s="8"/>
       <c r="P11" s="8"/>
     </row>
-    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11"/>
       <c r="B12" s="7"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7"/>
       <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="8"/>
-      <c r="M12" s="8"/>
-      <c r="N12" s="7"/>
       <c r="O12" s="8"/>
       <c r="P12" s="8"/>
     </row>
-    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11"/>
       <c r="B13" s="7"/>
       <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="8"/>
-      <c r="M13" s="8"/>
-      <c r="N13" s="7"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
       <c r="O13" s="8"/>
       <c r="P13" s="8"/>
     </row>
-    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11"/>
       <c r="B14" s="7"/>
       <c r="C14" s="7"/>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="8"/>
-      <c r="M14" s="8"/>
-      <c r="N14" s="7"/>
-      <c r="O14" s="8"/>
+      <c r="O14" s="12"/>
       <c r="P14" s="8"/>
     </row>
-    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11"/>
       <c r="B15" s="7"/>
       <c r="C15" s="7"/>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="8"/>
-      <c r="M15" s="8"/>
-      <c r="N15" s="7"/>
       <c r="O15" s="8"/>
       <c r="P15" s="8"/>
     </row>
-    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11"/>
       <c r="B16" s="7"/>
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="7"/>
-      <c r="L16" s="8"/>
-      <c r="M16" s="8"/>
-      <c r="N16" s="7"/>
       <c r="O16" s="8"/>
       <c r="P16" s="8"/>
     </row>
-    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11"/>
       <c r="B17" s="7"/>
       <c r="C17" s="7"/>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
-      <c r="I17" s="7"/>
-      <c r="J17" s="7"/>
-      <c r="K17" s="7"/>
-      <c r="L17" s="8"/>
-      <c r="M17" s="8"/>
-      <c r="N17" s="7"/>
       <c r="O17" s="8"/>
       <c r="P17" s="8"/>
     </row>
-    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11"/>
       <c r="B18" s="7"/>
       <c r="C18" s="7"/>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7"/>
-      <c r="J18" s="7"/>
-      <c r="K18" s="7"/>
-      <c r="L18" s="8"/>
-      <c r="M18" s="8"/>
-      <c r="N18" s="7"/>
       <c r="O18" s="8"/>
       <c r="P18" s="8"/>
     </row>
-    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11"/>
       <c r="B19" s="7"/>
       <c r="C19" s="7"/>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7"/>
       <c r="J19" s="7"/>
       <c r="K19" s="7"/>
       <c r="L19" s="8"/>
@@ -1451,16 +1424,12 @@
       <c r="O19" s="8"/>
       <c r="P19" s="8"/>
     </row>
-    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11"/>
       <c r="B20" s="7"/>
       <c r="C20" s="7"/>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
       <c r="J20" s="7"/>
       <c r="K20" s="7"/>
       <c r="L20" s="8"/>
@@ -1469,14 +1438,14 @@
       <c r="O20" s="8"/>
       <c r="P20" s="8"/>
     </row>
-    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11"/>
       <c r="B21" s="7"/>
       <c r="C21" s="7"/>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
+      <c r="F21" s="18"/>
+      <c r="G21" s="18"/>
       <c r="H21" s="7"/>
       <c r="I21" s="7"/>
       <c r="J21" s="7"/>
@@ -1487,14 +1456,14 @@
       <c r="O21" s="8"/>
       <c r="P21" s="8"/>
     </row>
-    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11"/>
       <c r="B22" s="7"/>
       <c r="C22" s="7"/>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="7"/>
@@ -1505,14 +1474,14 @@
       <c r="O22" s="8"/>
       <c r="P22" s="8"/>
     </row>
-    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="11"/>
       <c r="B23" s="7"/>
       <c r="C23" s="7"/>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
       <c r="H23" s="7"/>
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
@@ -1523,14 +1492,14 @@
       <c r="O23" s="8"/>
       <c r="P23" s="8"/>
     </row>
-    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="11"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
       <c r="H24" s="7"/>
       <c r="I24" s="7"/>
       <c r="J24" s="7"/>
@@ -1541,7 +1510,7 @@
       <c r="O24" s="8"/>
       <c r="P24" s="8"/>
     </row>
-    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="11"/>
       <c r="B25" s="7"/>
       <c r="C25" s="7"/>
@@ -1559,7 +1528,7 @@
       <c r="O25" s="8"/>
       <c r="P25" s="8"/>
     </row>
-    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="11"/>
       <c r="B26" s="7"/>
       <c r="C26" s="7"/>
@@ -1577,7 +1546,7 @@
       <c r="O26" s="8"/>
       <c r="P26" s="8"/>
     </row>
-    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="11"/>
       <c r="B27" s="7"/>
       <c r="C27" s="7"/>
@@ -1595,7 +1564,7 @@
       <c r="O27" s="8"/>
       <c r="P27" s="8"/>
     </row>
-    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="11"/>
       <c r="B28" s="7"/>
       <c r="C28" s="7"/>
@@ -1613,7 +1582,7 @@
       <c r="O28" s="8"/>
       <c r="P28" s="8"/>
     </row>
-    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="11"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>
@@ -1631,7 +1600,7 @@
       <c r="O29" s="8"/>
       <c r="P29" s="8"/>
     </row>
-    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="11"/>
       <c r="B30" s="7"/>
       <c r="C30" s="7"/>
@@ -1649,7 +1618,7 @@
       <c r="O30" s="8"/>
       <c r="P30" s="8"/>
     </row>
-    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="11"/>
       <c r="B31" s="7"/>
       <c r="C31" s="7"/>
@@ -1667,7 +1636,7 @@
       <c r="O31" s="8"/>
       <c r="P31" s="8"/>
     </row>
-    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="11"/>
       <c r="B32" s="7"/>
       <c r="C32" s="7"/>
@@ -1685,7 +1654,7 @@
       <c r="O32" s="8"/>
       <c r="P32" s="8"/>
     </row>
-    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="11"/>
       <c r="B33" s="7"/>
       <c r="C33" s="7"/>
@@ -1703,7 +1672,7 @@
       <c r="O33" s="8"/>
       <c r="P33" s="8"/>
     </row>
-    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="11"/>
       <c r="B34" s="7"/>
       <c r="C34" s="7"/>
@@ -1721,7 +1690,7 @@
       <c r="O34" s="8"/>
       <c r="P34" s="8"/>
     </row>
-    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="11"/>
       <c r="B35" s="7"/>
       <c r="C35" s="7"/>
@@ -1739,7 +1708,7 @@
       <c r="O35" s="8"/>
       <c r="P35" s="8"/>
     </row>
-    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="11"/>
       <c r="B36" s="7"/>
       <c r="C36" s="7"/>
@@ -1757,7 +1726,7 @@
       <c r="O36" s="8"/>
       <c r="P36" s="8"/>
     </row>
-    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="11"/>
       <c r="B37" s="7"/>
       <c r="C37" s="7"/>
@@ -1775,7 +1744,7 @@
       <c r="O37" s="8"/>
       <c r="P37" s="8"/>
     </row>
-    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="11"/>
       <c r="B38" s="7"/>
       <c r="C38" s="7"/>
@@ -1793,7 +1762,7 @@
       <c r="O38" s="8"/>
       <c r="P38" s="8"/>
     </row>
-    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="11"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
@@ -1811,7 +1780,7 @@
       <c r="O39" s="8"/>
       <c r="P39" s="8"/>
     </row>
-    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="11"/>
       <c r="B40" s="7"/>
       <c r="C40" s="7"/>
@@ -1829,7 +1798,7 @@
       <c r="O40" s="8"/>
       <c r="P40" s="8"/>
     </row>
-    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="11"/>
       <c r="B41" s="7"/>
       <c r="C41" s="7"/>
@@ -1847,7 +1816,7 @@
       <c r="O41" s="8"/>
       <c r="P41" s="8"/>
     </row>
-    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="11"/>
       <c r="B42" s="7"/>
       <c r="C42" s="7"/>
@@ -1865,7 +1834,7 @@
       <c r="O42" s="8"/>
       <c r="P42" s="8"/>
     </row>
-    <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="11"/>
       <c r="B43" s="7"/>
       <c r="C43" s="7"/>
@@ -1883,7 +1852,7 @@
       <c r="O43" s="8"/>
       <c r="P43" s="8"/>
     </row>
-    <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="11"/>
       <c r="B44" s="7"/>
       <c r="C44" s="7"/>
@@ -1901,7 +1870,7 @@
       <c r="O44" s="8"/>
       <c r="P44" s="8"/>
     </row>
-    <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="11"/>
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
@@ -1919,7 +1888,7 @@
       <c r="O45" s="8"/>
       <c r="P45" s="8"/>
     </row>
-    <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="11"/>
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
@@ -1937,7 +1906,7 @@
       <c r="O46" s="8"/>
       <c r="P46" s="8"/>
     </row>
-    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="11"/>
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
@@ -1955,7 +1924,7 @@
       <c r="O47" s="8"/>
       <c r="P47" s="8"/>
     </row>
-    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="11"/>
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
@@ -1973,7 +1942,7 @@
       <c r="O48" s="8"/>
       <c r="P48" s="8"/>
     </row>
-    <row r="49" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="11"/>
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
@@ -1991,7 +1960,7 @@
       <c r="O49" s="8"/>
       <c r="P49" s="8"/>
     </row>
-    <row r="50" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="11"/>
       <c r="B50" s="7"/>
       <c r="C50" s="7"/>
@@ -2009,7 +1978,7 @@
       <c r="O50" s="8"/>
       <c r="P50" s="8"/>
     </row>
-    <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="11"/>
       <c r="B51" s="7"/>
       <c r="C51" s="7"/>
@@ -2027,7 +1996,7 @@
       <c r="O51" s="8"/>
       <c r="P51" s="8"/>
     </row>
-    <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="11"/>
       <c r="B52" s="7"/>
       <c r="C52" s="7"/>
@@ -2045,7 +2014,7 @@
       <c r="O52" s="8"/>
       <c r="P52" s="8"/>
     </row>
-    <row r="53" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="11"/>
       <c r="B53" s="7"/>
       <c r="C53" s="7"/>
@@ -2063,7 +2032,7 @@
       <c r="O53" s="8"/>
       <c r="P53" s="8"/>
     </row>
-    <row r="54" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="11"/>
       <c r="B54" s="7"/>
       <c r="C54" s="7"/>
@@ -2081,7 +2050,7 @@
       <c r="O54" s="8"/>
       <c r="P54" s="8"/>
     </row>
-    <row r="55" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="11"/>
       <c r="B55" s="7"/>
       <c r="C55" s="7"/>
@@ -2099,7 +2068,7 @@
       <c r="O55" s="8"/>
       <c r="P55" s="8"/>
     </row>
-    <row r="56" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="11"/>
       <c r="B56" s="7"/>
       <c r="C56" s="7"/>
@@ -2117,7 +2086,7 @@
       <c r="O56" s="8"/>
       <c r="P56" s="8"/>
     </row>
-    <row r="57" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="11"/>
       <c r="B57" s="7"/>
       <c r="C57" s="7"/>
@@ -2135,7 +2104,7 @@
       <c r="O57" s="8"/>
       <c r="P57" s="8"/>
     </row>
-    <row r="58" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="11"/>
       <c r="B58" s="7"/>
       <c r="C58" s="7"/>
@@ -2153,7 +2122,7 @@
       <c r="O58" s="8"/>
       <c r="P58" s="8"/>
     </row>
-    <row r="59" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="11"/>
       <c r="B59" s="7"/>
       <c r="C59" s="7"/>
@@ -2171,7 +2140,7 @@
       <c r="O59" s="8"/>
       <c r="P59" s="8"/>
     </row>
-    <row r="60" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="11"/>
       <c r="B60" s="7"/>
       <c r="C60" s="7"/>
@@ -2189,7 +2158,7 @@
       <c r="O60" s="8"/>
       <c r="P60" s="8"/>
     </row>
-    <row r="61" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="11"/>
       <c r="B61" s="7"/>
       <c r="C61" s="7"/>
@@ -2207,7 +2176,7 @@
       <c r="O61" s="8"/>
       <c r="P61" s="8"/>
     </row>
-    <row r="62" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="11"/>
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
@@ -2225,7 +2194,7 @@
       <c r="O62" s="8"/>
       <c r="P62" s="8"/>
     </row>
-    <row r="63" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="11"/>
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
@@ -2243,7 +2212,7 @@
       <c r="O63" s="8"/>
       <c r="P63" s="8"/>
     </row>
-    <row r="64" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="11"/>
       <c r="B64" s="7"/>
       <c r="C64" s="7"/>
@@ -2261,7 +2230,7 @@
       <c r="O64" s="8"/>
       <c r="P64" s="8"/>
     </row>
-    <row r="65" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="11"/>
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
@@ -2279,7 +2248,7 @@
       <c r="O65" s="8"/>
       <c r="P65" s="8"/>
     </row>
-    <row r="66" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="11"/>
       <c r="B66" s="7"/>
       <c r="C66" s="7"/>
@@ -2297,7 +2266,7 @@
       <c r="O66" s="8"/>
       <c r="P66" s="8"/>
     </row>
-    <row r="67" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="11"/>
       <c r="B67" s="7"/>
       <c r="C67" s="7"/>
@@ -2315,7 +2284,7 @@
       <c r="O67" s="8"/>
       <c r="P67" s="8"/>
     </row>
-    <row r="68" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="11"/>
       <c r="B68" s="7"/>
       <c r="C68" s="7"/>
@@ -2333,7 +2302,7 @@
       <c r="O68" s="8"/>
       <c r="P68" s="8"/>
     </row>
-    <row r="69" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="11"/>
       <c r="B69" s="7"/>
       <c r="C69" s="7"/>
@@ -2351,7 +2320,7 @@
       <c r="O69" s="8"/>
       <c r="P69" s="8"/>
     </row>
-    <row r="70" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="11"/>
       <c r="B70" s="7"/>
       <c r="C70" s="7"/>
@@ -2369,7 +2338,7 @@
       <c r="O70" s="8"/>
       <c r="P70" s="8"/>
     </row>
-    <row r="71" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="11"/>
       <c r="B71" s="7"/>
       <c r="C71" s="7"/>
@@ -2387,7 +2356,7 @@
       <c r="O71" s="8"/>
       <c r="P71" s="8"/>
     </row>
-    <row r="72" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="11"/>
       <c r="B72" s="7"/>
       <c r="C72" s="7"/>
@@ -2405,7 +2374,7 @@
       <c r="O72" s="8"/>
       <c r="P72" s="8"/>
     </row>
-    <row r="73" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="11"/>
       <c r="B73" s="7"/>
       <c r="C73" s="7"/>
@@ -2423,7 +2392,7 @@
       <c r="O73" s="8"/>
       <c r="P73" s="8"/>
     </row>
-    <row r="74" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="11"/>
       <c r="B74" s="7"/>
       <c r="C74" s="7"/>
@@ -2441,7 +2410,7 @@
       <c r="O74" s="8"/>
       <c r="P74" s="8"/>
     </row>
-    <row r="75" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="11"/>
       <c r="B75" s="7"/>
       <c r="C75" s="7"/>
@@ -2459,7 +2428,7 @@
       <c r="O75" s="8"/>
       <c r="P75" s="8"/>
     </row>
-    <row r="76" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="11"/>
       <c r="B76" s="7"/>
       <c r="C76" s="7"/>
@@ -2477,7 +2446,7 @@
       <c r="O76" s="8"/>
       <c r="P76" s="8"/>
     </row>
-    <row r="77" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="11"/>
       <c r="B77" s="7"/>
       <c r="C77" s="7"/>
@@ -2495,7 +2464,7 @@
       <c r="O77" s="8"/>
       <c r="P77" s="8"/>
     </row>
-    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="11"/>
       <c r="B78" s="7"/>
       <c r="C78" s="7"/>
@@ -2513,7 +2482,7 @@
       <c r="O78" s="8"/>
       <c r="P78" s="8"/>
     </row>
-    <row r="79" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="11"/>
       <c r="B79" s="7"/>
       <c r="C79" s="7"/>
@@ -2531,7 +2500,7 @@
       <c r="O79" s="8"/>
       <c r="P79" s="8"/>
     </row>
-    <row r="80" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="11"/>
       <c r="B80" s="7"/>
       <c r="C80" s="7"/>
@@ -2549,7 +2518,7 @@
       <c r="O80" s="8"/>
       <c r="P80" s="8"/>
     </row>
-    <row r="81" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="11"/>
       <c r="B81" s="7"/>
       <c r="C81" s="7"/>
@@ -2567,7 +2536,7 @@
       <c r="O81" s="8"/>
       <c r="P81" s="8"/>
     </row>
-    <row r="82" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="11"/>
       <c r="B82" s="7"/>
       <c r="C82" s="7"/>
@@ -2585,7 +2554,7 @@
       <c r="O82" s="8"/>
       <c r="P82" s="8"/>
     </row>
-    <row r="83" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="11"/>
       <c r="B83" s="7"/>
       <c r="C83" s="7"/>
@@ -2603,7 +2572,7 @@
       <c r="O83" s="8"/>
       <c r="P83" s="8"/>
     </row>
-    <row r="84" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="11"/>
       <c r="B84" s="7"/>
       <c r="C84" s="7"/>
@@ -2621,7 +2590,7 @@
       <c r="O84" s="8"/>
       <c r="P84" s="8"/>
     </row>
-    <row r="85" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="11"/>
       <c r="B85" s="7"/>
       <c r="C85" s="7"/>
@@ -2639,7 +2608,7 @@
       <c r="O85" s="8"/>
       <c r="P85" s="8"/>
     </row>
-    <row r="86" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="11"/>
       <c r="B86" s="7"/>
       <c r="C86" s="7"/>
@@ -2657,7 +2626,7 @@
       <c r="O86" s="8"/>
       <c r="P86" s="8"/>
     </row>
-    <row r="87" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="11"/>
       <c r="B87" s="7"/>
       <c r="C87" s="7"/>
@@ -2675,7 +2644,7 @@
       <c r="O87" s="8"/>
       <c r="P87" s="8"/>
     </row>
-    <row r="88" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="11"/>
       <c r="B88" s="7"/>
       <c r="C88" s="7"/>
@@ -2693,7 +2662,7 @@
       <c r="O88" s="8"/>
       <c r="P88" s="8"/>
     </row>
-    <row r="89" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="11"/>
       <c r="B89" s="7"/>
       <c r="C89" s="7"/>
@@ -2711,7 +2680,7 @@
       <c r="O89" s="8"/>
       <c r="P89" s="8"/>
     </row>
-    <row r="90" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="11"/>
       <c r="B90" s="7"/>
       <c r="C90" s="7"/>
@@ -2729,7 +2698,7 @@
       <c r="O90" s="8"/>
       <c r="P90" s="8"/>
     </row>
-    <row r="91" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="11"/>
       <c r="B91" s="7"/>
       <c r="C91" s="7"/>
@@ -2747,7 +2716,7 @@
       <c r="O91" s="8"/>
       <c r="P91" s="8"/>
     </row>
-    <row r="92" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="11"/>
       <c r="B92" s="7"/>
       <c r="C92" s="7"/>
@@ -2765,7 +2734,7 @@
       <c r="O92" s="8"/>
       <c r="P92" s="8"/>
     </row>
-    <row r="93" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="11"/>
       <c r="B93" s="7"/>
       <c r="C93" s="7"/>
@@ -2783,7 +2752,7 @@
       <c r="O93" s="8"/>
       <c r="P93" s="8"/>
     </row>
-    <row r="94" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="11"/>
       <c r="B94" s="7"/>
       <c r="C94" s="7"/>
@@ -2801,7 +2770,7 @@
       <c r="O94" s="8"/>
       <c r="P94" s="8"/>
     </row>
-    <row r="95" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="11"/>
       <c r="B95" s="7"/>
       <c r="C95" s="7"/>
@@ -2819,7 +2788,7 @@
       <c r="O95" s="8"/>
       <c r="P95" s="8"/>
     </row>
-    <row r="96" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="11"/>
       <c r="B96" s="7"/>
       <c r="C96" s="7"/>
@@ -2837,7 +2806,7 @@
       <c r="O96" s="8"/>
       <c r="P96" s="8"/>
     </row>
-    <row r="97" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="11"/>
       <c r="B97" s="7"/>
       <c r="C97" s="7"/>
@@ -2855,7 +2824,7 @@
       <c r="O97" s="8"/>
       <c r="P97" s="8"/>
     </row>
-    <row r="98" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="11"/>
       <c r="B98" s="7"/>
       <c r="C98" s="7"/>
@@ -2873,7 +2842,7 @@
       <c r="O98" s="8"/>
       <c r="P98" s="8"/>
     </row>
-    <row r="99" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="11"/>
       <c r="B99" s="7"/>
       <c r="C99" s="7"/>
@@ -2891,7 +2860,7 @@
       <c r="O99" s="8"/>
       <c r="P99" s="8"/>
     </row>
-    <row r="100" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="11"/>
       <c r="B100" s="7"/>
       <c r="C100" s="7"/>
@@ -2909,7 +2878,7 @@
       <c r="O100" s="8"/>
       <c r="P100" s="8"/>
     </row>
-    <row r="101" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="11"/>
       <c r="B101" s="7"/>
       <c r="C101" s="7"/>
@@ -2927,7 +2896,7 @@
       <c r="O101" s="8"/>
       <c r="P101" s="8"/>
     </row>
-    <row r="102" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="11"/>
       <c r="B102" s="7"/>
       <c r="C102" s="7"/>
@@ -2945,7 +2914,7 @@
       <c r="O102" s="8"/>
       <c r="P102" s="8"/>
     </row>
-    <row r="103" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="11"/>
       <c r="B103" s="7"/>
       <c r="C103" s="7"/>
@@ -2963,7 +2932,7 @@
       <c r="O103" s="8"/>
       <c r="P103" s="8"/>
     </row>
-    <row r="104" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="11"/>
       <c r="B104" s="7"/>
       <c r="C104" s="7"/>
@@ -2981,7 +2950,7 @@
       <c r="O104" s="8"/>
       <c r="P104" s="8"/>
     </row>
-    <row r="105" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="11"/>
       <c r="B105" s="7"/>
       <c r="C105" s="7"/>
@@ -2999,7 +2968,7 @@
       <c r="O105" s="8"/>
       <c r="P105" s="8"/>
     </row>
-    <row r="106" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="11"/>
       <c r="B106" s="7"/>
       <c r="C106" s="7"/>
@@ -3017,7 +2986,7 @@
       <c r="O106" s="8"/>
       <c r="P106" s="8"/>
     </row>
-    <row r="107" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="11"/>
       <c r="B107" s="7"/>
       <c r="C107" s="7"/>
@@ -3035,7 +3004,7 @@
       <c r="O107" s="8"/>
       <c r="P107" s="8"/>
     </row>
-    <row r="108" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="11"/>
       <c r="B108" s="7"/>
       <c r="C108" s="7"/>
@@ -3053,7 +3022,7 @@
       <c r="O108" s="8"/>
       <c r="P108" s="8"/>
     </row>
-    <row r="109" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="11"/>
       <c r="B109" s="7"/>
       <c r="C109" s="7"/>
@@ -3071,7 +3040,7 @@
       <c r="O109" s="8"/>
       <c r="P109" s="8"/>
     </row>
-    <row r="110" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="11"/>
       <c r="B110" s="7"/>
       <c r="C110" s="7"/>
@@ -3089,7 +3058,7 @@
       <c r="O110" s="8"/>
       <c r="P110" s="8"/>
     </row>
-    <row r="111" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="11"/>
       <c r="B111" s="7"/>
       <c r="C111" s="7"/>
@@ -3107,7 +3076,7 @@
       <c r="O111" s="8"/>
       <c r="P111" s="8"/>
     </row>
-    <row r="112" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="11"/>
       <c r="B112" s="7"/>
       <c r="C112" s="7"/>
@@ -3125,7 +3094,7 @@
       <c r="O112" s="8"/>
       <c r="P112" s="8"/>
     </row>
-    <row r="113" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="11"/>
       <c r="B113" s="7"/>
       <c r="C113" s="7"/>
@@ -3143,7 +3112,7 @@
       <c r="O113" s="8"/>
       <c r="P113" s="8"/>
     </row>
-    <row r="114" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="11"/>
       <c r="B114" s="7"/>
       <c r="C114" s="7"/>
@@ -3161,7 +3130,7 @@
       <c r="O114" s="8"/>
       <c r="P114" s="8"/>
     </row>
-    <row r="115" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="11"/>
       <c r="B115" s="7"/>
       <c r="C115" s="7"/>
@@ -3179,7 +3148,7 @@
       <c r="O115" s="8"/>
       <c r="P115" s="8"/>
     </row>
-    <row r="116" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="11"/>
       <c r="B116" s="7"/>
       <c r="C116" s="7"/>
@@ -3197,7 +3166,7 @@
       <c r="O116" s="8"/>
       <c r="P116" s="8"/>
     </row>
-    <row r="117" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A117" s="11"/>
       <c r="B117" s="7"/>
       <c r="C117" s="7"/>
@@ -3215,7 +3184,7 @@
       <c r="O117" s="8"/>
       <c r="P117" s="8"/>
     </row>
-    <row r="118" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="11"/>
       <c r="B118" s="7"/>
       <c r="C118" s="7"/>
@@ -3233,7 +3202,7 @@
       <c r="O118" s="8"/>
       <c r="P118" s="8"/>
     </row>
-    <row r="119" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="11"/>
       <c r="B119" s="7"/>
       <c r="C119" s="7"/>
@@ -3251,7 +3220,7 @@
       <c r="O119" s="8"/>
       <c r="P119" s="8"/>
     </row>
-    <row r="120" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A120" s="11"/>
       <c r="B120" s="7"/>
       <c r="C120" s="7"/>
@@ -3269,7 +3238,7 @@
       <c r="O120" s="8"/>
       <c r="P120" s="8"/>
     </row>
-    <row r="121" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A121" s="11"/>
       <c r="B121" s="7"/>
       <c r="C121" s="7"/>
@@ -3287,7 +3256,7 @@
       <c r="O121" s="8"/>
       <c r="P121" s="8"/>
     </row>
-    <row r="122" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A122" s="11"/>
       <c r="B122" s="7"/>
       <c r="C122" s="7"/>
@@ -3305,7 +3274,7 @@
       <c r="O122" s="8"/>
       <c r="P122" s="8"/>
     </row>
-    <row r="123" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A123" s="11"/>
       <c r="B123" s="7"/>
       <c r="C123" s="7"/>
@@ -3323,7 +3292,7 @@
       <c r="O123" s="8"/>
       <c r="P123" s="8"/>
     </row>
-    <row r="124" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="11"/>
       <c r="B124" s="7"/>
       <c r="C124" s="7"/>
@@ -3341,7 +3310,7 @@
       <c r="O124" s="8"/>
       <c r="P124" s="8"/>
     </row>
-    <row r="125" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="11"/>
       <c r="B125" s="7"/>
       <c r="C125" s="7"/>
@@ -3359,7 +3328,7 @@
       <c r="O125" s="8"/>
       <c r="P125" s="8"/>
     </row>
-    <row r="126" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="11"/>
       <c r="B126" s="7"/>
       <c r="C126" s="7"/>
@@ -3377,7 +3346,7 @@
       <c r="O126" s="8"/>
       <c r="P126" s="8"/>
     </row>
-    <row r="127" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="11"/>
       <c r="B127" s="7"/>
       <c r="C127" s="7"/>
@@ -3395,7 +3364,7 @@
       <c r="O127" s="8"/>
       <c r="P127" s="8"/>
     </row>
-    <row r="128" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A128" s="11"/>
       <c r="B128" s="7"/>
       <c r="C128" s="7"/>
@@ -3413,7 +3382,7 @@
       <c r="O128" s="8"/>
       <c r="P128" s="8"/>
     </row>
-    <row r="129" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A129" s="11"/>
       <c r="B129" s="7"/>
       <c r="C129" s="7"/>
@@ -3431,7 +3400,7 @@
       <c r="O129" s="8"/>
       <c r="P129" s="8"/>
     </row>
-    <row r="130" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A130" s="11"/>
       <c r="B130" s="7"/>
       <c r="C130" s="7"/>
@@ -3449,7 +3418,7 @@
       <c r="O130" s="8"/>
       <c r="P130" s="8"/>
     </row>
-    <row r="131" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A131" s="11"/>
       <c r="B131" s="7"/>
       <c r="C131" s="7"/>
@@ -3467,7 +3436,7 @@
       <c r="O131" s="8"/>
       <c r="P131" s="8"/>
     </row>
-    <row r="132" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="11"/>
       <c r="B132" s="7"/>
       <c r="C132" s="7"/>
@@ -3485,7 +3454,7 @@
       <c r="O132" s="8"/>
       <c r="P132" s="8"/>
     </row>
-    <row r="133" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="11"/>
       <c r="B133" s="7"/>
       <c r="C133" s="7"/>
@@ -3503,7 +3472,7 @@
       <c r="O133" s="8"/>
       <c r="P133" s="8"/>
     </row>
-    <row r="134" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="11"/>
       <c r="B134" s="7"/>
       <c r="C134" s="7"/>
@@ -3521,7 +3490,7 @@
       <c r="O134" s="8"/>
       <c r="P134" s="8"/>
     </row>
-    <row r="135" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="11"/>
       <c r="B135" s="7"/>
       <c r="C135" s="7"/>
@@ -3539,7 +3508,7 @@
       <c r="O135" s="8"/>
       <c r="P135" s="8"/>
     </row>
-    <row r="136" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A136" s="11"/>
       <c r="B136" s="7"/>
       <c r="C136" s="7"/>
@@ -3557,7 +3526,7 @@
       <c r="O136" s="8"/>
       <c r="P136" s="8"/>
     </row>
-    <row r="137" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A137" s="11"/>
       <c r="B137" s="7"/>
       <c r="C137" s="7"/>
@@ -3575,7 +3544,7 @@
       <c r="O137" s="8"/>
       <c r="P137" s="8"/>
     </row>
-    <row r="138" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A138" s="11"/>
       <c r="B138" s="7"/>
       <c r="C138" s="7"/>
@@ -3593,7 +3562,7 @@
       <c r="O138" s="8"/>
       <c r="P138" s="8"/>
     </row>
-    <row r="139" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A139" s="11"/>
       <c r="B139" s="7"/>
       <c r="C139" s="7"/>
@@ -3611,7 +3580,7 @@
       <c r="O139" s="8"/>
       <c r="P139" s="8"/>
     </row>
-    <row r="140" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A140" s="11"/>
       <c r="B140" s="7"/>
       <c r="C140" s="7"/>
@@ -3629,7 +3598,7 @@
       <c r="O140" s="8"/>
       <c r="P140" s="8"/>
     </row>
-    <row r="141" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A141" s="11"/>
       <c r="B141" s="7"/>
       <c r="C141" s="7"/>
@@ -3647,7 +3616,7 @@
       <c r="O141" s="8"/>
       <c r="P141" s="8"/>
     </row>
-    <row r="142" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A142" s="11"/>
       <c r="B142" s="7"/>
       <c r="C142" s="7"/>
@@ -3665,7 +3634,7 @@
       <c r="O142" s="8"/>
       <c r="P142" s="8"/>
     </row>
-    <row r="143" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A143" s="11"/>
       <c r="B143" s="7"/>
       <c r="C143" s="7"/>
@@ -3683,7 +3652,7 @@
       <c r="O143" s="8"/>
       <c r="P143" s="8"/>
     </row>
-    <row r="144" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A144" s="11"/>
       <c r="B144" s="7"/>
       <c r="C144" s="7"/>
@@ -3701,7 +3670,7 @@
       <c r="O144" s="8"/>
       <c r="P144" s="8"/>
     </row>
-    <row r="145" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A145" s="11"/>
       <c r="B145" s="7"/>
       <c r="C145" s="7"/>
@@ -3719,7 +3688,7 @@
       <c r="O145" s="8"/>
       <c r="P145" s="8"/>
     </row>
-    <row r="146" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A146" s="11"/>
       <c r="B146" s="7"/>
       <c r="C146" s="7"/>
@@ -3737,7 +3706,7 @@
       <c r="O146" s="8"/>
       <c r="P146" s="8"/>
     </row>
-    <row r="147" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A147" s="11"/>
       <c r="B147" s="7"/>
       <c r="C147" s="7"/>
@@ -3755,7 +3724,7 @@
       <c r="O147" s="8"/>
       <c r="P147" s="8"/>
     </row>
-    <row r="148" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A148" s="11"/>
       <c r="B148" s="7"/>
       <c r="C148" s="7"/>
@@ -3773,7 +3742,7 @@
       <c r="O148" s="8"/>
       <c r="P148" s="8"/>
     </row>
-    <row r="149" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A149" s="11"/>
       <c r="B149" s="7"/>
       <c r="C149" s="7"/>
@@ -3791,7 +3760,7 @@
       <c r="O149" s="8"/>
       <c r="P149" s="8"/>
     </row>
-    <row r="150" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="11"/>
       <c r="B150" s="7"/>
       <c r="C150" s="7"/>
@@ -3809,7 +3778,7 @@
       <c r="O150" s="8"/>
       <c r="P150" s="8"/>
     </row>
-    <row r="151" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="11"/>
       <c r="B151" s="7"/>
       <c r="C151" s="7"/>
@@ -3827,7 +3796,7 @@
       <c r="O151" s="8"/>
       <c r="P151" s="8"/>
     </row>
-    <row r="152" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="11"/>
       <c r="B152" s="7"/>
       <c r="C152" s="7"/>
@@ -3845,7 +3814,7 @@
       <c r="O152" s="8"/>
       <c r="P152" s="8"/>
     </row>
-    <row r="153" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="11"/>
       <c r="B153" s="7"/>
       <c r="C153" s="7"/>
@@ -3863,7 +3832,7 @@
       <c r="O153" s="8"/>
       <c r="P153" s="8"/>
     </row>
-    <row r="154" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A154" s="11"/>
       <c r="B154" s="7"/>
       <c r="C154" s="7"/>
@@ -3881,7 +3850,7 @@
       <c r="O154" s="8"/>
       <c r="P154" s="8"/>
     </row>
-    <row r="155" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A155" s="11"/>
       <c r="B155" s="7"/>
       <c r="C155" s="7"/>
@@ -3899,7 +3868,7 @@
       <c r="O155" s="8"/>
       <c r="P155" s="8"/>
     </row>
-    <row r="156" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A156" s="11"/>
       <c r="B156" s="7"/>
       <c r="C156" s="7"/>
@@ -3917,7 +3886,7 @@
       <c r="O156" s="8"/>
       <c r="P156" s="8"/>
     </row>
-    <row r="157" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="11"/>
       <c r="B157" s="7"/>
       <c r="C157" s="7"/>
@@ -3935,7 +3904,7 @@
       <c r="O157" s="8"/>
       <c r="P157" s="8"/>
     </row>
-    <row r="158" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="11"/>
       <c r="B158" s="7"/>
       <c r="C158" s="7"/>
@@ -3953,7 +3922,7 @@
       <c r="O158" s="8"/>
       <c r="P158" s="8"/>
     </row>
-    <row r="159" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="11"/>
       <c r="B159" s="7"/>
       <c r="C159" s="7"/>
@@ -3971,7 +3940,7 @@
       <c r="O159" s="8"/>
       <c r="P159" s="8"/>
     </row>
-    <row r="160" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="11"/>
       <c r="B160" s="7"/>
       <c r="C160" s="7"/>
@@ -3989,7 +3958,7 @@
       <c r="O160" s="8"/>
       <c r="P160" s="8"/>
     </row>
-    <row r="161" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A161" s="11"/>
       <c r="B161" s="7"/>
       <c r="C161" s="7"/>
@@ -4007,7 +3976,7 @@
       <c r="O161" s="8"/>
       <c r="P161" s="8"/>
     </row>
-    <row r="162" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A162" s="11"/>
       <c r="B162" s="7"/>
       <c r="C162" s="7"/>
@@ -4025,7 +3994,7 @@
       <c r="O162" s="8"/>
       <c r="P162" s="8"/>
     </row>
-    <row r="163" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A163" s="11"/>
       <c r="B163" s="7"/>
       <c r="C163" s="7"/>
@@ -4043,7 +4012,7 @@
       <c r="O163" s="8"/>
       <c r="P163" s="8"/>
     </row>
-    <row r="164" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A164" s="11"/>
       <c r="B164" s="7"/>
       <c r="C164" s="7"/>
@@ -4061,7 +4030,7 @@
       <c r="O164" s="8"/>
       <c r="P164" s="8"/>
     </row>
-    <row r="165" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A165" s="11"/>
       <c r="B165" s="7"/>
       <c r="C165" s="7"/>
@@ -4079,7 +4048,7 @@
       <c r="O165" s="8"/>
       <c r="P165" s="8"/>
     </row>
-    <row r="166" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A166" s="11"/>
       <c r="B166" s="7"/>
       <c r="C166" s="7"/>
@@ -4097,7 +4066,7 @@
       <c r="O166" s="8"/>
       <c r="P166" s="8"/>
     </row>
-    <row r="167" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A167" s="11"/>
       <c r="B167" s="7"/>
       <c r="C167" s="7"/>
@@ -4115,7 +4084,7 @@
       <c r="O167" s="8"/>
       <c r="P167" s="8"/>
     </row>
-    <row r="168" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A168" s="11"/>
       <c r="B168" s="7"/>
       <c r="C168" s="7"/>
@@ -4133,7 +4102,7 @@
       <c r="O168" s="8"/>
       <c r="P168" s="8"/>
     </row>
-    <row r="169" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A169" s="11"/>
       <c r="B169" s="7"/>
       <c r="C169" s="7"/>
@@ -4151,7 +4120,7 @@
       <c r="O169" s="8"/>
       <c r="P169" s="8"/>
     </row>
-    <row r="170" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A170" s="11"/>
       <c r="B170" s="7"/>
       <c r="C170" s="7"/>
@@ -4169,7 +4138,7 @@
       <c r="O170" s="8"/>
       <c r="P170" s="8"/>
     </row>
-    <row r="171" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A171" s="11"/>
       <c r="B171" s="7"/>
       <c r="C171" s="7"/>
@@ -4187,7 +4156,7 @@
       <c r="O171" s="8"/>
       <c r="P171" s="8"/>
     </row>
-    <row r="172" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A172" s="11"/>
       <c r="B172" s="7"/>
       <c r="C172" s="7"/>
@@ -4205,7 +4174,7 @@
       <c r="O172" s="8"/>
       <c r="P172" s="8"/>
     </row>
-    <row r="173" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A173" s="11"/>
       <c r="B173" s="7"/>
       <c r="C173" s="7"/>
@@ -4223,7 +4192,7 @@
       <c r="O173" s="8"/>
       <c r="P173" s="8"/>
     </row>
-    <row r="174" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A174" s="11"/>
       <c r="B174" s="7"/>
       <c r="C174" s="7"/>
@@ -4241,7 +4210,7 @@
       <c r="O174" s="8"/>
       <c r="P174" s="8"/>
     </row>
-    <row r="175" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="11"/>
       <c r="B175" s="7"/>
       <c r="C175" s="7"/>
@@ -4259,7 +4228,7 @@
       <c r="O175" s="8"/>
       <c r="P175" s="8"/>
     </row>
-    <row r="176" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="11"/>
       <c r="B176" s="7"/>
       <c r="C176" s="7"/>
@@ -4277,7 +4246,7 @@
       <c r="O176" s="8"/>
       <c r="P176" s="8"/>
     </row>
-    <row r="177" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A177" s="11"/>
       <c r="B177" s="7"/>
       <c r="C177" s="7"/>
@@ -4295,7 +4264,7 @@
       <c r="O177" s="8"/>
       <c r="P177" s="8"/>
     </row>
-    <row r="178" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A178" s="11"/>
       <c r="B178" s="7"/>
       <c r="C178" s="7"/>
@@ -4313,7 +4282,7 @@
       <c r="O178" s="8"/>
       <c r="P178" s="8"/>
     </row>
-    <row r="179" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="11"/>
       <c r="B179" s="7"/>
       <c r="C179" s="7"/>
@@ -4331,7 +4300,7 @@
       <c r="O179" s="8"/>
       <c r="P179" s="8"/>
     </row>
-    <row r="180" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="11"/>
       <c r="B180" s="7"/>
       <c r="C180" s="7"/>
@@ -4349,7 +4318,7 @@
       <c r="O180" s="8"/>
       <c r="P180" s="8"/>
     </row>
-    <row r="181" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A181" s="11"/>
       <c r="B181" s="7"/>
       <c r="C181" s="7"/>
@@ -4367,7 +4336,7 @@
       <c r="O181" s="8"/>
       <c r="P181" s="8"/>
     </row>
-    <row r="182" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A182" s="11"/>
       <c r="B182" s="7"/>
       <c r="C182" s="7"/>
@@ -4385,7 +4354,7 @@
       <c r="O182" s="8"/>
       <c r="P182" s="8"/>
     </row>
-    <row r="183" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A183" s="11"/>
       <c r="B183" s="7"/>
       <c r="C183" s="7"/>
@@ -4403,7 +4372,7 @@
       <c r="O183" s="8"/>
       <c r="P183" s="8"/>
     </row>
-    <row r="184" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A184" s="11"/>
       <c r="B184" s="7"/>
       <c r="C184" s="7"/>
@@ -4421,7 +4390,7 @@
       <c r="O184" s="8"/>
       <c r="P184" s="8"/>
     </row>
-    <row r="185" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A185" s="11"/>
       <c r="B185" s="7"/>
       <c r="C185" s="7"/>
@@ -4439,7 +4408,7 @@
       <c r="O185" s="8"/>
       <c r="P185" s="8"/>
     </row>
-    <row r="186" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A186" s="11"/>
       <c r="B186" s="7"/>
       <c r="C186" s="7"/>
@@ -4457,7 +4426,7 @@
       <c r="O186" s="8"/>
       <c r="P186" s="8"/>
     </row>
-    <row r="187" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="11"/>
       <c r="B187" s="7"/>
       <c r="C187" s="7"/>
@@ -4475,7 +4444,7 @@
       <c r="O187" s="8"/>
       <c r="P187" s="8"/>
     </row>
-    <row r="188" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="11"/>
       <c r="B188" s="7"/>
       <c r="C188" s="7"/>
@@ -4493,7 +4462,7 @@
       <c r="O188" s="8"/>
       <c r="P188" s="8"/>
     </row>
-    <row r="189" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A189" s="11"/>
       <c r="B189" s="7"/>
       <c r="C189" s="7"/>
@@ -4511,7 +4480,7 @@
       <c r="O189" s="8"/>
       <c r="P189" s="8"/>
     </row>
-    <row r="190" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A190" s="11"/>
       <c r="B190" s="7"/>
       <c r="C190" s="7"/>
@@ -4529,7 +4498,7 @@
       <c r="O190" s="8"/>
       <c r="P190" s="8"/>
     </row>
-    <row r="191" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A191" s="11"/>
       <c r="B191" s="7"/>
       <c r="C191" s="7"/>
@@ -4547,7 +4516,7 @@
       <c r="O191" s="8"/>
       <c r="P191" s="8"/>
     </row>
-    <row r="192" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A192" s="11"/>
       <c r="B192" s="7"/>
       <c r="C192" s="7"/>
@@ -4565,7 +4534,7 @@
       <c r="O192" s="8"/>
       <c r="P192" s="8"/>
     </row>
-    <row r="193" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A193" s="11"/>
       <c r="B193" s="7"/>
       <c r="C193" s="7"/>
@@ -4583,7 +4552,7 @@
       <c r="O193" s="8"/>
       <c r="P193" s="8"/>
     </row>
-    <row r="194" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A194" s="11"/>
       <c r="B194" s="7"/>
       <c r="C194" s="7"/>
@@ -4601,7 +4570,7 @@
       <c r="O194" s="8"/>
       <c r="P194" s="8"/>
     </row>
-    <row r="195" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A195" s="11"/>
       <c r="B195" s="7"/>
       <c r="C195" s="7"/>
@@ -4619,7 +4588,7 @@
       <c r="O195" s="8"/>
       <c r="P195" s="8"/>
     </row>
-    <row r="196" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A196" s="11"/>
       <c r="B196" s="7"/>
       <c r="C196" s="7"/>
@@ -4637,7 +4606,7 @@
       <c r="O196" s="8"/>
       <c r="P196" s="8"/>
     </row>
-    <row r="197" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A197" s="11"/>
       <c r="B197" s="7"/>
       <c r="C197" s="7"/>
@@ -4655,7 +4624,7 @@
       <c r="O197" s="8"/>
       <c r="P197" s="8"/>
     </row>
-    <row r="198" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A198" s="11"/>
       <c r="B198" s="7"/>
       <c r="C198" s="7"/>
@@ -4673,7 +4642,7 @@
       <c r="O198" s="8"/>
       <c r="P198" s="8"/>
     </row>
-    <row r="199" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A199" s="11"/>
       <c r="B199" s="7"/>
       <c r="C199" s="7"/>
@@ -4691,7 +4660,7 @@
       <c r="O199" s="8"/>
       <c r="P199" s="8"/>
     </row>
-    <row r="200" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="11"/>
       <c r="B200" s="7"/>
       <c r="C200" s="7"/>
@@ -4709,7 +4678,7 @@
       <c r="O200" s="8"/>
       <c r="P200" s="8"/>
     </row>
-    <row r="201" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="11"/>
       <c r="B201" s="7"/>
       <c r="C201" s="7"/>
@@ -4727,7 +4696,7 @@
       <c r="O201" s="8"/>
       <c r="P201" s="8"/>
     </row>
-    <row r="202" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A202" s="11"/>
       <c r="B202" s="7"/>
       <c r="C202" s="7"/>
@@ -4745,7 +4714,7 @@
       <c r="O202" s="8"/>
       <c r="P202" s="8"/>
     </row>
-    <row r="203" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A203" s="11"/>
       <c r="B203" s="7"/>
       <c r="C203" s="7"/>
@@ -4763,7 +4732,7 @@
       <c r="O203" s="8"/>
       <c r="P203" s="8"/>
     </row>
-    <row r="204" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A204" s="11"/>
       <c r="B204" s="7"/>
       <c r="C204" s="7"/>
@@ -4781,7 +4750,7 @@
       <c r="O204" s="8"/>
       <c r="P204" s="8"/>
     </row>
-    <row r="205" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A205" s="11"/>
       <c r="B205" s="7"/>
       <c r="C205" s="7"/>
@@ -4799,7 +4768,7 @@
       <c r="O205" s="8"/>
       <c r="P205" s="8"/>
     </row>
-    <row r="206" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A206" s="11"/>
       <c r="B206" s="7"/>
       <c r="C206" s="7"/>
@@ -4817,7 +4786,7 @@
       <c r="O206" s="8"/>
       <c r="P206" s="8"/>
     </row>
-    <row r="207" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A207" s="11"/>
       <c r="B207" s="7"/>
       <c r="C207" s="7"/>
@@ -4835,7 +4804,7 @@
       <c r="O207" s="8"/>
       <c r="P207" s="8"/>
     </row>
-    <row r="208" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A208" s="11"/>
       <c r="B208" s="7"/>
       <c r="C208" s="7"/>
@@ -4853,7 +4822,7 @@
       <c r="O208" s="8"/>
       <c r="P208" s="8"/>
     </row>
-    <row r="209" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A209" s="11"/>
       <c r="B209" s="7"/>
       <c r="C209" s="7"/>
@@ -4871,7 +4840,7 @@
       <c r="O209" s="8"/>
       <c r="P209" s="8"/>
     </row>
-    <row r="210" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A210" s="11"/>
       <c r="B210" s="7"/>
       <c r="C210" s="7"/>
@@ -4889,7 +4858,7 @@
       <c r="O210" s="8"/>
       <c r="P210" s="8"/>
     </row>
-    <row r="211" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A211" s="11"/>
       <c r="B211" s="7"/>
       <c r="C211" s="7"/>
@@ -4907,7 +4876,7 @@
       <c r="O211" s="8"/>
       <c r="P211" s="8"/>
     </row>
-    <row r="212" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A212" s="11"/>
       <c r="B212" s="7"/>
       <c r="C212" s="7"/>
@@ -4925,7 +4894,7 @@
       <c r="O212" s="8"/>
       <c r="P212" s="8"/>
     </row>
-    <row r="213" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A213" s="11"/>
       <c r="B213" s="7"/>
       <c r="C213" s="7"/>
@@ -4943,7 +4912,7 @@
       <c r="O213" s="8"/>
       <c r="P213" s="8"/>
     </row>
-    <row r="214" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A214" s="11"/>
       <c r="B214" s="7"/>
       <c r="C214" s="7"/>
@@ -4961,7 +4930,7 @@
       <c r="O214" s="8"/>
       <c r="P214" s="8"/>
     </row>
-    <row r="215" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="11"/>
       <c r="B215" s="7"/>
       <c r="C215" s="7"/>
@@ -4979,7 +4948,7 @@
       <c r="O215" s="8"/>
       <c r="P215" s="8"/>
     </row>
-    <row r="216" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="11"/>
       <c r="B216" s="7"/>
       <c r="C216" s="7"/>
@@ -4997,7 +4966,7 @@
       <c r="O216" s="8"/>
       <c r="P216" s="8"/>
     </row>
-    <row r="217" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A217" s="11"/>
       <c r="B217" s="7"/>
       <c r="C217" s="7"/>
@@ -5015,7 +4984,7 @@
       <c r="O217" s="8"/>
       <c r="P217" s="8"/>
     </row>
-    <row r="218" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="11"/>
       <c r="B218" s="7"/>
       <c r="C218" s="7"/>
@@ -5033,7 +5002,7 @@
       <c r="O218" s="8"/>
       <c r="P218" s="8"/>
     </row>
-    <row r="219" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="11"/>
       <c r="B219" s="7"/>
       <c r="C219" s="7"/>
@@ -5051,7 +5020,7 @@
       <c r="O219" s="8"/>
       <c r="P219" s="8"/>
     </row>
-    <row r="220" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A220" s="11"/>
       <c r="B220" s="7"/>
       <c r="C220" s="7"/>
@@ -5069,7 +5038,7 @@
       <c r="O220" s="8"/>
       <c r="P220" s="8"/>
     </row>
-    <row r="221" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A221" s="11"/>
       <c r="B221" s="7"/>
       <c r="C221" s="7"/>
@@ -5087,7 +5056,7 @@
       <c r="O221" s="8"/>
       <c r="P221" s="8"/>
     </row>
-    <row r="222" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A222" s="11"/>
       <c r="B222" s="7"/>
       <c r="C222" s="7"/>
@@ -5105,7 +5074,7 @@
       <c r="O222" s="8"/>
       <c r="P222" s="8"/>
     </row>
-    <row r="223" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A223" s="11"/>
       <c r="B223" s="7"/>
       <c r="C223" s="7"/>
@@ -5123,7 +5092,7 @@
       <c r="O223" s="8"/>
       <c r="P223" s="8"/>
     </row>
-    <row r="224" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A224" s="11"/>
       <c r="B224" s="7"/>
       <c r="C224" s="7"/>
@@ -5141,7 +5110,7 @@
       <c r="O224" s="8"/>
       <c r="P224" s="8"/>
     </row>
-    <row r="225" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="11"/>
       <c r="B225" s="7"/>
       <c r="C225" s="7"/>
@@ -5159,7 +5128,7 @@
       <c r="O225" s="8"/>
       <c r="P225" s="8"/>
     </row>
-    <row r="226" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="11"/>
       <c r="B226" s="7"/>
       <c r="C226" s="7"/>
@@ -5177,7 +5146,7 @@
       <c r="O226" s="8"/>
       <c r="P226" s="8"/>
     </row>
-    <row r="227" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="11"/>
       <c r="B227" s="7"/>
       <c r="C227" s="7"/>
@@ -5195,7 +5164,7 @@
       <c r="O227" s="8"/>
       <c r="P227" s="8"/>
     </row>
-    <row r="228" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="11"/>
       <c r="B228" s="7"/>
       <c r="C228" s="7"/>
@@ -5213,7 +5182,7 @@
       <c r="O228" s="8"/>
       <c r="P228" s="8"/>
     </row>
-    <row r="229" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A229" s="11"/>
       <c r="B229" s="7"/>
       <c r="C229" s="7"/>
@@ -5231,7 +5200,7 @@
       <c r="O229" s="8"/>
       <c r="P229" s="8"/>
     </row>
-    <row r="230" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A230" s="11"/>
       <c r="B230" s="7"/>
       <c r="C230" s="7"/>
@@ -5249,7 +5218,7 @@
       <c r="O230" s="8"/>
       <c r="P230" s="8"/>
     </row>
-    <row r="231" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A231" s="11"/>
       <c r="B231" s="7"/>
       <c r="C231" s="7"/>
@@ -5267,7 +5236,7 @@
       <c r="O231" s="8"/>
       <c r="P231" s="8"/>
     </row>
-    <row r="232" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A232" s="11"/>
       <c r="B232" s="7"/>
       <c r="C232" s="7"/>
@@ -5285,7 +5254,7 @@
       <c r="O232" s="8"/>
       <c r="P232" s="8"/>
     </row>
-    <row r="233" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A233" s="11"/>
       <c r="B233" s="7"/>
       <c r="C233" s="7"/>
@@ -5303,7 +5272,7 @@
       <c r="O233" s="8"/>
       <c r="P233" s="8"/>
     </row>
-    <row r="234" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A234" s="11"/>
       <c r="B234" s="7"/>
       <c r="C234" s="7"/>
@@ -5321,7 +5290,7 @@
       <c r="O234" s="8"/>
       <c r="P234" s="8"/>
     </row>
-    <row r="235" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="11"/>
       <c r="B235" s="7"/>
       <c r="C235" s="7"/>
@@ -5339,7 +5308,7 @@
       <c r="O235" s="8"/>
       <c r="P235" s="8"/>
     </row>
-    <row r="236" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="11"/>
       <c r="B236" s="7"/>
       <c r="C236" s="7"/>
@@ -5357,7 +5326,7 @@
       <c r="O236" s="8"/>
       <c r="P236" s="8"/>
     </row>
-    <row r="237" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A237" s="11"/>
       <c r="B237" s="7"/>
       <c r="C237" s="7"/>
@@ -5375,7 +5344,7 @@
       <c r="O237" s="8"/>
       <c r="P237" s="8"/>
     </row>
-    <row r="238" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A238" s="11"/>
       <c r="B238" s="7"/>
       <c r="C238" s="7"/>
@@ -5393,7 +5362,7 @@
       <c r="O238" s="8"/>
       <c r="P238" s="8"/>
     </row>
-    <row r="239" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A239" s="11"/>
       <c r="B239" s="7"/>
       <c r="C239" s="7"/>
@@ -5411,7 +5380,7 @@
       <c r="O239" s="8"/>
       <c r="P239" s="8"/>
     </row>
-    <row r="240" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="11"/>
       <c r="B240" s="7"/>
       <c r="C240" s="7"/>
@@ -5429,7 +5398,7 @@
       <c r="O240" s="8"/>
       <c r="P240" s="8"/>
     </row>
-    <row r="241" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="11"/>
       <c r="B241" s="7"/>
       <c r="C241" s="7"/>
@@ -5447,7 +5416,7 @@
       <c r="O241" s="8"/>
       <c r="P241" s="8"/>
     </row>
-    <row r="242" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="11"/>
       <c r="B242" s="7"/>
       <c r="C242" s="7"/>
@@ -5465,7 +5434,7 @@
       <c r="O242" s="8"/>
       <c r="P242" s="8"/>
     </row>
-    <row r="243" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="11"/>
       <c r="B243" s="7"/>
       <c r="C243" s="7"/>
@@ -5483,7 +5452,7 @@
       <c r="O243" s="8"/>
       <c r="P243" s="8"/>
     </row>
-    <row r="244" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="11"/>
       <c r="B244" s="7"/>
       <c r="C244" s="7"/>
@@ -5501,7 +5470,7 @@
       <c r="O244" s="8"/>
       <c r="P244" s="8"/>
     </row>
-    <row r="245" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A245" s="11"/>
       <c r="B245" s="7"/>
       <c r="C245" s="7"/>
@@ -5519,7 +5488,7 @@
       <c r="O245" s="8"/>
       <c r="P245" s="8"/>
     </row>
-    <row r="246" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A246" s="11"/>
       <c r="B246" s="7"/>
       <c r="C246" s="7"/>
@@ -5537,7 +5506,7 @@
       <c r="O246" s="8"/>
       <c r="P246" s="8"/>
     </row>
-    <row r="247" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A247" s="11"/>
       <c r="B247" s="7"/>
       <c r="C247" s="7"/>
@@ -5555,7 +5524,7 @@
       <c r="O247" s="8"/>
       <c r="P247" s="8"/>
     </row>
-    <row r="248" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A248" s="11"/>
       <c r="B248" s="7"/>
       <c r="C248" s="7"/>
@@ -5573,7 +5542,7 @@
       <c r="O248" s="8"/>
       <c r="P248" s="8"/>
     </row>
-    <row r="249" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="11"/>
       <c r="B249" s="7"/>
       <c r="C249" s="7"/>
@@ -5591,7 +5560,7 @@
       <c r="O249" s="8"/>
       <c r="P249" s="8"/>
     </row>
-    <row r="250" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="11"/>
       <c r="B250" s="7"/>
       <c r="C250" s="7"/>
@@ -5609,7 +5578,7 @@
       <c r="O250" s="8"/>
       <c r="P250" s="8"/>
     </row>
-    <row r="251" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="11"/>
       <c r="B251" s="7"/>
       <c r="C251" s="7"/>
@@ -5627,7 +5596,7 @@
       <c r="O251" s="8"/>
       <c r="P251" s="8"/>
     </row>
-    <row r="252" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="11"/>
       <c r="B252" s="7"/>
       <c r="C252" s="7"/>
@@ -5645,7 +5614,7 @@
       <c r="O252" s="8"/>
       <c r="P252" s="8"/>
     </row>
-    <row r="253" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A253" s="11"/>
       <c r="B253" s="7"/>
       <c r="C253" s="7"/>
@@ -5663,7 +5632,7 @@
       <c r="O253" s="8"/>
       <c r="P253" s="8"/>
     </row>
-    <row r="254" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A254" s="11"/>
       <c r="B254" s="7"/>
       <c r="C254" s="7"/>
@@ -5681,7 +5650,7 @@
       <c r="O254" s="8"/>
       <c r="P254" s="8"/>
     </row>
-    <row r="255" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A255" s="11"/>
       <c r="B255" s="7"/>
       <c r="C255" s="7"/>
@@ -5699,7 +5668,7 @@
       <c r="O255" s="8"/>
       <c r="P255" s="8"/>
     </row>
-    <row r="256" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A256" s="11"/>
       <c r="B256" s="7"/>
       <c r="C256" s="7"/>
@@ -5717,7 +5686,7 @@
       <c r="O256" s="8"/>
       <c r="P256" s="8"/>
     </row>
-    <row r="257" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A257" s="11"/>
       <c r="B257" s="7"/>
       <c r="C257" s="7"/>
@@ -5735,7 +5704,7 @@
       <c r="O257" s="8"/>
       <c r="P257" s="8"/>
     </row>
-    <row r="258" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A258" s="11"/>
       <c r="B258" s="7"/>
       <c r="C258" s="7"/>
@@ -5753,7 +5722,7 @@
       <c r="O258" s="8"/>
       <c r="P258" s="8"/>
     </row>
-    <row r="259" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A259" s="11"/>
       <c r="B259" s="7"/>
       <c r="C259" s="7"/>
@@ -5771,7 +5740,7 @@
       <c r="O259" s="8"/>
       <c r="P259" s="8"/>
     </row>
-    <row r="260" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A260" s="11"/>
       <c r="B260" s="7"/>
       <c r="C260" s="7"/>
@@ -5789,7 +5758,7 @@
       <c r="O260" s="8"/>
       <c r="P260" s="8"/>
     </row>
-    <row r="261" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A261" s="11"/>
       <c r="B261" s="7"/>
       <c r="C261" s="7"/>
@@ -5807,7 +5776,7 @@
       <c r="O261" s="8"/>
       <c r="P261" s="8"/>
     </row>
-    <row r="262" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="11"/>
       <c r="B262" s="7"/>
       <c r="C262" s="7"/>
@@ -5825,7 +5794,7 @@
       <c r="O262" s="8"/>
       <c r="P262" s="8"/>
     </row>
-    <row r="263" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="11"/>
       <c r="B263" s="7"/>
       <c r="C263" s="7"/>
@@ -5843,7 +5812,7 @@
       <c r="O263" s="8"/>
       <c r="P263" s="8"/>
     </row>
-    <row r="264" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A264" s="11"/>
       <c r="B264" s="7"/>
       <c r="C264" s="7"/>
@@ -5861,7 +5830,7 @@
       <c r="O264" s="8"/>
       <c r="P264" s="8"/>
     </row>
-    <row r="265" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A265" s="11"/>
       <c r="B265" s="7"/>
       <c r="C265" s="7"/>
@@ -5879,7 +5848,7 @@
       <c r="O265" s="8"/>
       <c r="P265" s="8"/>
     </row>
-    <row r="266" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A266" s="11"/>
       <c r="B266" s="7"/>
       <c r="C266" s="7"/>
@@ -5897,7 +5866,7 @@
       <c r="O266" s="8"/>
       <c r="P266" s="8"/>
     </row>
-    <row r="267" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A267" s="11"/>
       <c r="B267" s="7"/>
       <c r="C267" s="7"/>
@@ -5915,7 +5884,7 @@
       <c r="O267" s="8"/>
       <c r="P267" s="8"/>
     </row>
-    <row r="268" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="11"/>
       <c r="B268" s="7"/>
       <c r="C268" s="7"/>
@@ -5933,7 +5902,7 @@
       <c r="O268" s="8"/>
       <c r="P268" s="8"/>
     </row>
-    <row r="269" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="11"/>
       <c r="B269" s="7"/>
       <c r="C269" s="7"/>
@@ -5951,7 +5920,7 @@
       <c r="O269" s="8"/>
       <c r="P269" s="8"/>
     </row>
-    <row r="270" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="11"/>
       <c r="B270" s="7"/>
       <c r="C270" s="7"/>
@@ -5969,7 +5938,7 @@
       <c r="O270" s="8"/>
       <c r="P270" s="8"/>
     </row>
-    <row r="271" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="11"/>
       <c r="B271" s="7"/>
       <c r="C271" s="7"/>
@@ -5987,7 +5956,7 @@
       <c r="O271" s="8"/>
       <c r="P271" s="8"/>
     </row>
-    <row r="272" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="11"/>
       <c r="B272" s="7"/>
       <c r="C272" s="7"/>
@@ -6005,7 +5974,7 @@
       <c r="O272" s="8"/>
       <c r="P272" s="8"/>
     </row>
-    <row r="273" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="11"/>
       <c r="B273" s="7"/>
       <c r="C273" s="7"/>
@@ -6023,7 +5992,7 @@
       <c r="O273" s="8"/>
       <c r="P273" s="8"/>
     </row>
-    <row r="274" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="11"/>
       <c r="B274" s="7"/>
       <c r="C274" s="7"/>
@@ -6041,7 +6010,7 @@
       <c r="O274" s="8"/>
       <c r="P274" s="8"/>
     </row>
-    <row r="275" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="11"/>
       <c r="B275" s="7"/>
       <c r="C275" s="7"/>
@@ -6059,7 +6028,7 @@
       <c r="O275" s="8"/>
       <c r="P275" s="8"/>
     </row>
-    <row r="276" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="11"/>
       <c r="B276" s="7"/>
       <c r="C276" s="7"/>
@@ -6077,7 +6046,7 @@
       <c r="O276" s="8"/>
       <c r="P276" s="8"/>
     </row>
-    <row r="277" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="11"/>
       <c r="B277" s="7"/>
       <c r="C277" s="7"/>
@@ -6095,7 +6064,7 @@
       <c r="O277" s="8"/>
       <c r="P277" s="8"/>
     </row>
-    <row r="278" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="11"/>
       <c r="B278" s="7"/>
       <c r="C278" s="7"/>
@@ -6113,7 +6082,7 @@
       <c r="O278" s="8"/>
       <c r="P278" s="8"/>
     </row>
-    <row r="279" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="11"/>
       <c r="B279" s="7"/>
       <c r="C279" s="7"/>
@@ -6131,7 +6100,7 @@
       <c r="O279" s="8"/>
       <c r="P279" s="8"/>
     </row>
-    <row r="280" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A280" s="11"/>
       <c r="B280" s="7"/>
       <c r="C280" s="7"/>
@@ -6149,7 +6118,7 @@
       <c r="O280" s="8"/>
       <c r="P280" s="8"/>
     </row>
-    <row r="281" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="11"/>
       <c r="B281" s="7"/>
       <c r="C281" s="7"/>
@@ -6167,7 +6136,7 @@
       <c r="O281" s="8"/>
       <c r="P281" s="8"/>
     </row>
-    <row r="282" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="11"/>
       <c r="B282" s="7"/>
       <c r="C282" s="7"/>
@@ -6185,7 +6154,7 @@
       <c r="O282" s="8"/>
       <c r="P282" s="8"/>
     </row>
-    <row r="283" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A283" s="11"/>
       <c r="B283" s="7"/>
       <c r="C283" s="7"/>
@@ -6203,7 +6172,7 @@
       <c r="O283" s="8"/>
       <c r="P283" s="8"/>
     </row>
-    <row r="284" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A284" s="11"/>
       <c r="B284" s="7"/>
       <c r="C284" s="7"/>
@@ -6221,7 +6190,7 @@
       <c r="O284" s="8"/>
       <c r="P284" s="8"/>
     </row>
-    <row r="285" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A285" s="11"/>
       <c r="B285" s="7"/>
       <c r="C285" s="7"/>
@@ -6239,7 +6208,7 @@
       <c r="O285" s="8"/>
       <c r="P285" s="8"/>
     </row>
-    <row r="286" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A286" s="11"/>
       <c r="B286" s="7"/>
       <c r="C286" s="7"/>
@@ -6257,7 +6226,7 @@
       <c r="O286" s="8"/>
       <c r="P286" s="8"/>
     </row>
-    <row r="287" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A287" s="11"/>
       <c r="B287" s="7"/>
       <c r="C287" s="7"/>
@@ -6275,7 +6244,7 @@
       <c r="O287" s="8"/>
       <c r="P287" s="8"/>
     </row>
-    <row r="288" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="11"/>
       <c r="B288" s="7"/>
       <c r="C288" s="7"/>
@@ -6293,7 +6262,7 @@
       <c r="O288" s="8"/>
       <c r="P288" s="8"/>
     </row>
-    <row r="289" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="11"/>
       <c r="B289" s="7"/>
       <c r="C289" s="7"/>
@@ -6311,7 +6280,7 @@
       <c r="O289" s="8"/>
       <c r="P289" s="8"/>
     </row>
-    <row r="290" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="11"/>
       <c r="B290" s="7"/>
       <c r="C290" s="7"/>
@@ -6329,7 +6298,7 @@
       <c r="O290" s="8"/>
       <c r="P290" s="8"/>
     </row>
-    <row r="291" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="11"/>
       <c r="B291" s="7"/>
       <c r="C291" s="7"/>
@@ -6347,7 +6316,7 @@
       <c r="O291" s="8"/>
       <c r="P291" s="8"/>
     </row>
-    <row r="292" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A292" s="11"/>
       <c r="B292" s="7"/>
       <c r="C292" s="7"/>
@@ -6365,7 +6334,7 @@
       <c r="O292" s="8"/>
       <c r="P292" s="8"/>
     </row>
-    <row r="293" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A293" s="11"/>
       <c r="B293" s="7"/>
       <c r="C293" s="7"/>
@@ -6383,7 +6352,7 @@
       <c r="O293" s="8"/>
       <c r="P293" s="8"/>
     </row>
-    <row r="294" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A294" s="11"/>
       <c r="B294" s="7"/>
       <c r="C294" s="7"/>
@@ -6401,7 +6370,7 @@
       <c r="O294" s="8"/>
       <c r="P294" s="8"/>
     </row>
-    <row r="295" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="11"/>
       <c r="B295" s="7"/>
       <c r="C295" s="7"/>
@@ -6419,7 +6388,7 @@
       <c r="O295" s="8"/>
       <c r="P295" s="8"/>
     </row>
-    <row r="296" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="11"/>
       <c r="B296" s="7"/>
       <c r="C296" s="7"/>
@@ -6437,7 +6406,7 @@
       <c r="O296" s="8"/>
       <c r="P296" s="8"/>
     </row>
-    <row r="297" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A297" s="11"/>
       <c r="B297" s="7"/>
       <c r="C297" s="7"/>
@@ -6455,7 +6424,7 @@
       <c r="O297" s="8"/>
       <c r="P297" s="8"/>
     </row>
-    <row r="298" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A298" s="11"/>
       <c r="B298" s="7"/>
       <c r="C298" s="7"/>
@@ -6473,7 +6442,7 @@
       <c r="O298" s="8"/>
       <c r="P298" s="8"/>
     </row>
-    <row r="299" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A299" s="11"/>
       <c r="B299" s="7"/>
       <c r="C299" s="7"/>
@@ -6491,7 +6460,7 @@
       <c r="O299" s="8"/>
       <c r="P299" s="8"/>
     </row>
-    <row r="300" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A300" s="11"/>
       <c r="B300" s="7"/>
       <c r="C300" s="7"/>
@@ -6509,7 +6478,7 @@
       <c r="O300" s="8"/>
       <c r="P300" s="8"/>
     </row>
-    <row r="301" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="11"/>
       <c r="B301" s="7"/>
       <c r="C301" s="7"/>
@@ -6527,7 +6496,7 @@
       <c r="O301" s="8"/>
       <c r="P301" s="8"/>
     </row>
-    <row r="302" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="11"/>
       <c r="B302" s="7"/>
       <c r="C302" s="7"/>
@@ -6545,7 +6514,7 @@
       <c r="O302" s="8"/>
       <c r="P302" s="8"/>
     </row>
-    <row r="303" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="11"/>
       <c r="B303" s="7"/>
       <c r="C303" s="7"/>
@@ -6563,7 +6532,7 @@
       <c r="O303" s="8"/>
       <c r="P303" s="8"/>
     </row>
-    <row r="304" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="11"/>
       <c r="B304" s="7"/>
       <c r="C304" s="7"/>
@@ -6581,7 +6550,7 @@
       <c r="O304" s="8"/>
       <c r="P304" s="8"/>
     </row>
-    <row r="305" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A305" s="11"/>
       <c r="B305" s="7"/>
       <c r="C305" s="7"/>
@@ -6599,7 +6568,7 @@
       <c r="O305" s="8"/>
       <c r="P305" s="8"/>
     </row>
-    <row r="306" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A306" s="11"/>
       <c r="B306" s="7"/>
       <c r="C306" s="7"/>
@@ -6617,7 +6586,7 @@
       <c r="O306" s="8"/>
       <c r="P306" s="8"/>
     </row>
-    <row r="307" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A307" s="11"/>
       <c r="B307" s="7"/>
       <c r="C307" s="7"/>
@@ -6635,7 +6604,7 @@
       <c r="O307" s="8"/>
       <c r="P307" s="8"/>
     </row>
-    <row r="308" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A308" s="11"/>
       <c r="B308" s="7"/>
       <c r="C308" s="7"/>
@@ -6653,7 +6622,7 @@
       <c r="O308" s="8"/>
       <c r="P308" s="8"/>
     </row>
-    <row r="309" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A309" s="11"/>
       <c r="B309" s="7"/>
       <c r="C309" s="7"/>
@@ -6671,7 +6640,7 @@
       <c r="O309" s="8"/>
       <c r="P309" s="8"/>
     </row>
-    <row r="310" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A310" s="11"/>
       <c r="B310" s="7"/>
       <c r="C310" s="7"/>
@@ -6689,7 +6658,7 @@
       <c r="O310" s="8"/>
       <c r="P310" s="8"/>
     </row>
-    <row r="311" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A311" s="11"/>
       <c r="B311" s="7"/>
       <c r="C311" s="7"/>
@@ -6707,7 +6676,7 @@
       <c r="O311" s="8"/>
       <c r="P311" s="8"/>
     </row>
-    <row r="312" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A312" s="11"/>
       <c r="B312" s="7"/>
       <c r="C312" s="7"/>
@@ -6725,7 +6694,7 @@
       <c r="O312" s="8"/>
       <c r="P312" s="8"/>
     </row>
-    <row r="313" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A313" s="11"/>
       <c r="B313" s="7"/>
       <c r="C313" s="7"/>
@@ -6743,7 +6712,7 @@
       <c r="O313" s="8"/>
       <c r="P313" s="8"/>
     </row>
-    <row r="314" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A314" s="11"/>
       <c r="B314" s="7"/>
       <c r="C314" s="7"/>
@@ -6761,7 +6730,7 @@
       <c r="O314" s="8"/>
       <c r="P314" s="8"/>
     </row>
-    <row r="315" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A315" s="11"/>
       <c r="B315" s="7"/>
       <c r="C315" s="7"/>
@@ -6779,7 +6748,7 @@
       <c r="O315" s="8"/>
       <c r="P315" s="8"/>
     </row>
-    <row r="316" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="11"/>
       <c r="B316" s="7"/>
       <c r="C316" s="7"/>
@@ -6797,7 +6766,7 @@
       <c r="O316" s="8"/>
       <c r="P316" s="8"/>
     </row>
-    <row r="317" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="11"/>
       <c r="B317" s="7"/>
       <c r="C317" s="7"/>
@@ -6815,7 +6784,7 @@
       <c r="O317" s="8"/>
       <c r="P317" s="8"/>
     </row>
-    <row r="318" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A318" s="11"/>
       <c r="B318" s="7"/>
       <c r="C318" s="7"/>
@@ -6833,7 +6802,7 @@
       <c r="O318" s="8"/>
       <c r="P318" s="8"/>
     </row>
-    <row r="319" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A319" s="11"/>
       <c r="B319" s="7"/>
       <c r="C319" s="7"/>
@@ -6851,7 +6820,7 @@
       <c r="O319" s="8"/>
       <c r="P319" s="8"/>
     </row>
-    <row r="320" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A320" s="11"/>
       <c r="B320" s="7"/>
       <c r="C320" s="7"/>
@@ -6869,7 +6838,7 @@
       <c r="O320" s="8"/>
       <c r="P320" s="8"/>
     </row>
-    <row r="321" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A321" s="11"/>
       <c r="B321" s="7"/>
       <c r="C321" s="7"/>
@@ -6887,7 +6856,7 @@
       <c r="O321" s="8"/>
       <c r="P321" s="8"/>
     </row>
-    <row r="322" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A322" s="11"/>
       <c r="B322" s="7"/>
       <c r="C322" s="7"/>
@@ -6905,7 +6874,7 @@
       <c r="O322" s="8"/>
       <c r="P322" s="8"/>
     </row>
-    <row r="323" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A323" s="11"/>
       <c r="B323" s="7"/>
       <c r="C323" s="7"/>
@@ -6923,7 +6892,7 @@
       <c r="O323" s="8"/>
       <c r="P323" s="8"/>
     </row>
-    <row r="324" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A324" s="11"/>
       <c r="B324" s="7"/>
       <c r="C324" s="7"/>
@@ -6941,7 +6910,7 @@
       <c r="O324" s="8"/>
       <c r="P324" s="8"/>
     </row>
-    <row r="325" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="11"/>
       <c r="B325" s="7"/>
       <c r="C325" s="7"/>
@@ -6959,7 +6928,7 @@
       <c r="O325" s="8"/>
       <c r="P325" s="8"/>
     </row>
-    <row r="326" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="11"/>
       <c r="B326" s="7"/>
       <c r="C326" s="7"/>
@@ -6977,7 +6946,7 @@
       <c r="O326" s="8"/>
       <c r="P326" s="8"/>
     </row>
-    <row r="327" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="11"/>
       <c r="B327" s="7"/>
       <c r="C327" s="7"/>
@@ -6995,7 +6964,7 @@
       <c r="O327" s="8"/>
       <c r="P327" s="8"/>
     </row>
-    <row r="328" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="11"/>
       <c r="B328" s="7"/>
       <c r="C328" s="7"/>
@@ -7013,7 +6982,7 @@
       <c r="O328" s="8"/>
       <c r="P328" s="8"/>
     </row>
-    <row r="329" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A329" s="11"/>
       <c r="B329" s="7"/>
       <c r="C329" s="7"/>
@@ -7031,7 +7000,7 @@
       <c r="O329" s="8"/>
       <c r="P329" s="8"/>
     </row>
-    <row r="330" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A330" s="11"/>
       <c r="B330" s="7"/>
       <c r="C330" s="7"/>
@@ -7049,7 +7018,7 @@
       <c r="O330" s="8"/>
       <c r="P330" s="8"/>
     </row>
-    <row r="331" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A331" s="11"/>
       <c r="B331" s="7"/>
       <c r="C331" s="7"/>
@@ -7067,7 +7036,7 @@
       <c r="O331" s="8"/>
       <c r="P331" s="8"/>
     </row>
-    <row r="332" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A332" s="11"/>
       <c r="B332" s="7"/>
       <c r="C332" s="7"/>
@@ -7085,7 +7054,7 @@
       <c r="O332" s="8"/>
       <c r="P332" s="8"/>
     </row>
-    <row r="333" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A333" s="11"/>
       <c r="B333" s="7"/>
       <c r="C333" s="7"/>
@@ -7103,7 +7072,7 @@
       <c r="O333" s="8"/>
       <c r="P333" s="8"/>
     </row>
-    <row r="334" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="11"/>
       <c r="B334" s="7"/>
       <c r="C334" s="7"/>
@@ -7121,7 +7090,7 @@
       <c r="O334" s="8"/>
       <c r="P334" s="8"/>
     </row>
-    <row r="335" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="11"/>
       <c r="B335" s="7"/>
       <c r="C335" s="7"/>
@@ -7139,7 +7108,7 @@
       <c r="O335" s="8"/>
       <c r="P335" s="8"/>
     </row>
-    <row r="336" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="11"/>
       <c r="B336" s="7"/>
       <c r="C336" s="7"/>
@@ -7157,7 +7126,7 @@
       <c r="O336" s="8"/>
       <c r="P336" s="8"/>
     </row>
-    <row r="337" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="11"/>
       <c r="B337" s="7"/>
       <c r="C337" s="7"/>
@@ -7175,7 +7144,7 @@
       <c r="O337" s="8"/>
       <c r="P337" s="8"/>
     </row>
-    <row r="338" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="11"/>
       <c r="B338" s="7"/>
       <c r="C338" s="7"/>
@@ -7193,7 +7162,7 @@
       <c r="O338" s="8"/>
       <c r="P338" s="8"/>
     </row>
-    <row r="339" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="11"/>
       <c r="B339" s="7"/>
       <c r="C339" s="7"/>
@@ -7211,7 +7180,7 @@
       <c r="O339" s="8"/>
       <c r="P339" s="8"/>
     </row>
-    <row r="340" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="11"/>
       <c r="B340" s="7"/>
       <c r="C340" s="7"/>
@@ -7229,7 +7198,7 @@
       <c r="O340" s="8"/>
       <c r="P340" s="8"/>
     </row>
-    <row r="341" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="11"/>
       <c r="B341" s="7"/>
       <c r="C341" s="7"/>
@@ -7247,7 +7216,7 @@
       <c r="O341" s="8"/>
       <c r="P341" s="8"/>
     </row>
-    <row r="342" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A342" s="11"/>
       <c r="B342" s="7"/>
       <c r="C342" s="7"/>
@@ -7265,7 +7234,7 @@
       <c r="O342" s="8"/>
       <c r="P342" s="8"/>
     </row>
-    <row r="343" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A343" s="11"/>
       <c r="B343" s="7"/>
       <c r="C343" s="7"/>
@@ -7283,7 +7252,7 @@
       <c r="O343" s="8"/>
       <c r="P343" s="8"/>
     </row>
-    <row r="344" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A344" s="11"/>
       <c r="B344" s="7"/>
       <c r="C344" s="7"/>
@@ -7301,7 +7270,7 @@
       <c r="O344" s="8"/>
       <c r="P344" s="8"/>
     </row>
-    <row r="345" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A345" s="11"/>
       <c r="B345" s="7"/>
       <c r="C345" s="7"/>
@@ -7319,7 +7288,7 @@
       <c r="O345" s="8"/>
       <c r="P345" s="8"/>
     </row>
-    <row r="346" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A346" s="11"/>
       <c r="B346" s="7"/>
       <c r="C346" s="7"/>
@@ -7337,7 +7306,7 @@
       <c r="O346" s="8"/>
       <c r="P346" s="8"/>
     </row>
-    <row r="347" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A347" s="11"/>
       <c r="B347" s="7"/>
       <c r="C347" s="7"/>
@@ -7355,7 +7324,7 @@
       <c r="O347" s="8"/>
       <c r="P347" s="8"/>
     </row>
-    <row r="348" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A348" s="11"/>
       <c r="B348" s="7"/>
       <c r="C348" s="7"/>
@@ -7373,7 +7342,7 @@
       <c r="O348" s="8"/>
       <c r="P348" s="8"/>
     </row>
-    <row r="349" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A349" s="11"/>
       <c r="B349" s="7"/>
       <c r="C349" s="7"/>
@@ -7391,7 +7360,7 @@
       <c r="O349" s="8"/>
       <c r="P349" s="8"/>
     </row>
-    <row r="350" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="11"/>
       <c r="B350" s="7"/>
       <c r="C350" s="7"/>
@@ -7409,7 +7378,7 @@
       <c r="O350" s="8"/>
       <c r="P350" s="8"/>
     </row>
-    <row r="351" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="11"/>
       <c r="B351" s="7"/>
       <c r="C351" s="7"/>
@@ -7427,7 +7396,7 @@
       <c r="O351" s="8"/>
       <c r="P351" s="8"/>
     </row>
-    <row r="352" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="11"/>
       <c r="B352" s="7"/>
       <c r="C352" s="7"/>
@@ -7445,7 +7414,7 @@
       <c r="O352" s="8"/>
       <c r="P352" s="8"/>
     </row>
-    <row r="353" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="11"/>
       <c r="B353" s="7"/>
       <c r="C353" s="7"/>
@@ -7463,7 +7432,7 @@
       <c r="O353" s="8"/>
       <c r="P353" s="8"/>
     </row>
-    <row r="354" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A354" s="11"/>
       <c r="B354" s="7"/>
       <c r="C354" s="7"/>
@@ -7481,7 +7450,7 @@
       <c r="O354" s="8"/>
       <c r="P354" s="8"/>
     </row>
-    <row r="355" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="11"/>
       <c r="B355" s="7"/>
       <c r="C355" s="7"/>
@@ -7499,7 +7468,7 @@
       <c r="O355" s="8"/>
       <c r="P355" s="8"/>
     </row>
-    <row r="356" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="11"/>
       <c r="B356" s="7"/>
       <c r="C356" s="7"/>
@@ -7517,7 +7486,7 @@
       <c r="O356" s="8"/>
       <c r="P356" s="8"/>
     </row>
-    <row r="357" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A357" s="11"/>
       <c r="B357" s="7"/>
       <c r="C357" s="7"/>
@@ -7535,7 +7504,7 @@
       <c r="O357" s="8"/>
       <c r="P357" s="8"/>
     </row>
-    <row r="358" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A358" s="11"/>
       <c r="B358" s="7"/>
       <c r="C358" s="7"/>
@@ -7553,7 +7522,7 @@
       <c r="O358" s="8"/>
       <c r="P358" s="8"/>
     </row>
-    <row r="359" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A359" s="11"/>
       <c r="B359" s="7"/>
       <c r="C359" s="7"/>
@@ -7571,7 +7540,7 @@
       <c r="O359" s="8"/>
       <c r="P359" s="8"/>
     </row>
-    <row r="360" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="11"/>
       <c r="B360" s="7"/>
       <c r="C360" s="7"/>
@@ -7589,7 +7558,7 @@
       <c r="O360" s="8"/>
       <c r="P360" s="8"/>
     </row>
-    <row r="361" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="11"/>
       <c r="B361" s="7"/>
       <c r="C361" s="7"/>
@@ -7607,7 +7576,7 @@
       <c r="O361" s="8"/>
       <c r="P361" s="8"/>
     </row>
-    <row r="362" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A362" s="11"/>
       <c r="B362" s="7"/>
       <c r="C362" s="7"/>
@@ -7625,7 +7594,7 @@
       <c r="O362" s="8"/>
       <c r="P362" s="8"/>
     </row>
-    <row r="363" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A363" s="11"/>
       <c r="B363" s="7"/>
       <c r="C363" s="7"/>
@@ -7643,7 +7612,7 @@
       <c r="O363" s="8"/>
       <c r="P363" s="8"/>
     </row>
-    <row r="364" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A364" s="11"/>
       <c r="B364" s="7"/>
       <c r="C364" s="7"/>
@@ -7661,7 +7630,7 @@
       <c r="O364" s="8"/>
       <c r="P364" s="8"/>
     </row>
-    <row r="365" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A365" s="11"/>
       <c r="B365" s="7"/>
       <c r="C365" s="7"/>
@@ -7679,7 +7648,7 @@
       <c r="O365" s="8"/>
       <c r="P365" s="8"/>
     </row>
-    <row r="366" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A366" s="11"/>
       <c r="B366" s="7"/>
       <c r="C366" s="7"/>
@@ -7697,7 +7666,7 @@
       <c r="O366" s="8"/>
       <c r="P366" s="8"/>
     </row>
-    <row r="367" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A367" s="11"/>
       <c r="B367" s="7"/>
       <c r="C367" s="7"/>
@@ -7715,7 +7684,7 @@
       <c r="O367" s="8"/>
       <c r="P367" s="8"/>
     </row>
-    <row r="368" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A368" s="11"/>
       <c r="B368" s="7"/>
       <c r="C368" s="7"/>
@@ -7733,7 +7702,7 @@
       <c r="O368" s="8"/>
       <c r="P368" s="8"/>
     </row>
-    <row r="369" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A369" s="11"/>
       <c r="B369" s="7"/>
       <c r="C369" s="7"/>
@@ -7751,7 +7720,7 @@
       <c r="O369" s="8"/>
       <c r="P369" s="8"/>
     </row>
-    <row r="370" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A370" s="11"/>
       <c r="B370" s="7"/>
       <c r="C370" s="7"/>
@@ -7769,7 +7738,7 @@
       <c r="O370" s="8"/>
       <c r="P370" s="8"/>
     </row>
-    <row r="371" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A371" s="11"/>
       <c r="B371" s="7"/>
       <c r="C371" s="7"/>
@@ -7787,7 +7756,7 @@
       <c r="O371" s="8"/>
       <c r="P371" s="8"/>
     </row>
-    <row r="372" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A372" s="11"/>
       <c r="B372" s="7"/>
       <c r="C372" s="7"/>
@@ -7805,7 +7774,7 @@
       <c r="O372" s="8"/>
       <c r="P372" s="8"/>
     </row>
-    <row r="373" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A373" s="11"/>
       <c r="B373" s="7"/>
       <c r="C373" s="7"/>
@@ -7823,7 +7792,7 @@
       <c r="O373" s="8"/>
       <c r="P373" s="8"/>
     </row>
-    <row r="374" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A374" s="11"/>
       <c r="B374" s="7"/>
       <c r="C374" s="7"/>
@@ -7841,7 +7810,7 @@
       <c r="O374" s="8"/>
       <c r="P374" s="8"/>
     </row>
-    <row r="375" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A375" s="11"/>
       <c r="B375" s="7"/>
       <c r="C375" s="7"/>
@@ -7859,7 +7828,7 @@
       <c r="O375" s="8"/>
       <c r="P375" s="8"/>
     </row>
-    <row r="376" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="11"/>
       <c r="B376" s="7"/>
       <c r="C376" s="7"/>
@@ -7877,7 +7846,7 @@
       <c r="O376" s="8"/>
       <c r="P376" s="8"/>
     </row>
-    <row r="377" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="11"/>
       <c r="B377" s="7"/>
       <c r="C377" s="7"/>
@@ -7895,7 +7864,7 @@
       <c r="O377" s="8"/>
       <c r="P377" s="8"/>
     </row>
-    <row r="378" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A378" s="11"/>
       <c r="B378" s="7"/>
       <c r="C378" s="7"/>
@@ -7913,7 +7882,7 @@
       <c r="O378" s="8"/>
       <c r="P378" s="8"/>
     </row>
-    <row r="379" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A379" s="11"/>
       <c r="B379" s="7"/>
       <c r="C379" s="7"/>
@@ -7931,7 +7900,7 @@
       <c r="O379" s="8"/>
       <c r="P379" s="8"/>
     </row>
-    <row r="380" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A380" s="11"/>
       <c r="B380" s="7"/>
       <c r="C380" s="7"/>
@@ -7949,7 +7918,7 @@
       <c r="O380" s="8"/>
       <c r="P380" s="8"/>
     </row>
-    <row r="381" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A381" s="11"/>
       <c r="B381" s="7"/>
       <c r="C381" s="7"/>
@@ -7967,7 +7936,7 @@
       <c r="O381" s="8"/>
       <c r="P381" s="8"/>
     </row>
-    <row r="382" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A382" s="11"/>
       <c r="B382" s="7"/>
       <c r="C382" s="7"/>
@@ -7985,7 +7954,7 @@
       <c r="O382" s="8"/>
       <c r="P382" s="8"/>
     </row>
-    <row r="383" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="11"/>
       <c r="B383" s="7"/>
       <c r="C383" s="7"/>
@@ -8003,7 +7972,7 @@
       <c r="O383" s="8"/>
       <c r="P383" s="8"/>
     </row>
-    <row r="384" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="11"/>
       <c r="B384" s="7"/>
       <c r="C384" s="7"/>
@@ -8021,7 +7990,7 @@
       <c r="O384" s="8"/>
       <c r="P384" s="8"/>
     </row>
-    <row r="385" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A385" s="11"/>
       <c r="B385" s="7"/>
       <c r="C385" s="7"/>
@@ -8039,7 +8008,7 @@
       <c r="O385" s="8"/>
       <c r="P385" s="8"/>
     </row>
-    <row r="386" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A386" s="11"/>
       <c r="B386" s="7"/>
       <c r="C386" s="7"/>
@@ -8057,7 +8026,7 @@
       <c r="O386" s="8"/>
       <c r="P386" s="8"/>
     </row>
-    <row r="387" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="11"/>
       <c r="B387" s="7"/>
       <c r="C387" s="7"/>
@@ -8075,7 +8044,7 @@
       <c r="O387" s="8"/>
       <c r="P387" s="8"/>
     </row>
-    <row r="388" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="11"/>
       <c r="B388" s="7"/>
       <c r="C388" s="7"/>
@@ -8093,7 +8062,7 @@
       <c r="O388" s="8"/>
       <c r="P388" s="8"/>
     </row>
-    <row r="389" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="11"/>
       <c r="B389" s="7"/>
       <c r="C389" s="7"/>
@@ -8111,7 +8080,7 @@
       <c r="O389" s="8"/>
       <c r="P389" s="8"/>
     </row>
-    <row r="390" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="11"/>
       <c r="B390" s="7"/>
       <c r="C390" s="7"/>
@@ -8129,7 +8098,7 @@
       <c r="O390" s="8"/>
       <c r="P390" s="8"/>
     </row>
-    <row r="391" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A391" s="11"/>
       <c r="B391" s="7"/>
       <c r="C391" s="7"/>
@@ -8147,7 +8116,7 @@
       <c r="O391" s="8"/>
       <c r="P391" s="8"/>
     </row>
-    <row r="392" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A392" s="11"/>
       <c r="B392" s="7"/>
       <c r="C392" s="7"/>
@@ -8165,7 +8134,7 @@
       <c r="O392" s="8"/>
       <c r="P392" s="8"/>
     </row>
-    <row r="393" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A393" s="11"/>
       <c r="B393" s="7"/>
       <c r="C393" s="7"/>
@@ -8183,7 +8152,7 @@
       <c r="O393" s="8"/>
       <c r="P393" s="8"/>
     </row>
-    <row r="394" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="11"/>
       <c r="B394" s="7"/>
       <c r="C394" s="7"/>
@@ -8201,7 +8170,7 @@
       <c r="O394" s="8"/>
       <c r="P394" s="8"/>
     </row>
-    <row r="395" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="11"/>
       <c r="B395" s="7"/>
       <c r="C395" s="7"/>
@@ -8219,7 +8188,7 @@
       <c r="O395" s="8"/>
       <c r="P395" s="8"/>
     </row>
-    <row r="396" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A396" s="11"/>
       <c r="B396" s="7"/>
       <c r="C396" s="7"/>
@@ -8237,7 +8206,7 @@
       <c r="O396" s="8"/>
       <c r="P396" s="8"/>
     </row>
-    <row r="397" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A397" s="11"/>
       <c r="B397" s="7"/>
       <c r="C397" s="7"/>
@@ -8255,7 +8224,7 @@
       <c r="O397" s="8"/>
       <c r="P397" s="8"/>
     </row>
-    <row r="398" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A398" s="11"/>
       <c r="B398" s="7"/>
       <c r="C398" s="7"/>
@@ -8273,7 +8242,7 @@
       <c r="O398" s="8"/>
       <c r="P398" s="8"/>
     </row>
-    <row r="399" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A399" s="11"/>
       <c r="B399" s="7"/>
       <c r="C399" s="7"/>
@@ -8291,7 +8260,7 @@
       <c r="O399" s="8"/>
       <c r="P399" s="8"/>
     </row>
-    <row r="400" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="11"/>
       <c r="B400" s="7"/>
       <c r="C400" s="7"/>
@@ -8309,7 +8278,7 @@
       <c r="O400" s="8"/>
       <c r="P400" s="8"/>
     </row>
-    <row r="401" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="11"/>
       <c r="B401" s="7"/>
       <c r="C401" s="7"/>
@@ -8327,7 +8296,7 @@
       <c r="O401" s="8"/>
       <c r="P401" s="8"/>
     </row>
-    <row r="402" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A402" s="11"/>
       <c r="B402" s="7"/>
       <c r="C402" s="7"/>
@@ -8345,7 +8314,7 @@
       <c r="O402" s="8"/>
       <c r="P402" s="8"/>
     </row>
-    <row r="403" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A403" s="11"/>
       <c r="B403" s="7"/>
       <c r="C403" s="7"/>
@@ -8363,7 +8332,7 @@
       <c r="O403" s="8"/>
       <c r="P403" s="8"/>
     </row>
-    <row r="404" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A404" s="11"/>
       <c r="B404" s="7"/>
       <c r="C404" s="7"/>
@@ -8381,7 +8350,7 @@
       <c r="O404" s="8"/>
       <c r="P404" s="8"/>
     </row>
-    <row r="405" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A405" s="11"/>
       <c r="B405" s="7"/>
       <c r="C405" s="7"/>
@@ -8399,7 +8368,7 @@
       <c r="O405" s="8"/>
       <c r="P405" s="8"/>
     </row>
-    <row r="406" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A406" s="11"/>
       <c r="B406" s="7"/>
       <c r="C406" s="7"/>
@@ -8417,7 +8386,7 @@
       <c r="O406" s="8"/>
       <c r="P406" s="8"/>
     </row>
-    <row r="407" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A407" s="11"/>
       <c r="B407" s="7"/>
       <c r="C407" s="7"/>
@@ -8435,7 +8404,7 @@
       <c r="O407" s="8"/>
       <c r="P407" s="8"/>
     </row>
-    <row r="408" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="11"/>
       <c r="B408" s="7"/>
       <c r="C408" s="7"/>
@@ -8453,7 +8422,7 @@
       <c r="O408" s="8"/>
       <c r="P408" s="8"/>
     </row>
-    <row r="409" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="11"/>
       <c r="B409" s="7"/>
       <c r="C409" s="7"/>
@@ -8471,7 +8440,7 @@
       <c r="O409" s="8"/>
       <c r="P409" s="8"/>
     </row>
-    <row r="410" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A410" s="11"/>
       <c r="B410" s="7"/>
       <c r="C410" s="7"/>
@@ -8489,7 +8458,7 @@
       <c r="O410" s="8"/>
       <c r="P410" s="8"/>
     </row>
-    <row r="411" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="11"/>
       <c r="B411" s="7"/>
       <c r="C411" s="7"/>
@@ -8507,7 +8476,7 @@
       <c r="O411" s="8"/>
       <c r="P411" s="8"/>
     </row>
-    <row r="412" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="11"/>
       <c r="B412" s="7"/>
       <c r="C412" s="7"/>
@@ -8525,7 +8494,7 @@
       <c r="O412" s="8"/>
       <c r="P412" s="8"/>
     </row>
-    <row r="413" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A413" s="11"/>
       <c r="B413" s="7"/>
       <c r="C413" s="7"/>
@@ -8543,7 +8512,7 @@
       <c r="O413" s="8"/>
       <c r="P413" s="8"/>
     </row>
-    <row r="414" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A414" s="11"/>
       <c r="B414" s="7"/>
       <c r="C414" s="7"/>
@@ -8561,7 +8530,7 @@
       <c r="O414" s="8"/>
       <c r="P414" s="8"/>
     </row>
-    <row r="415" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="11"/>
       <c r="B415" s="7"/>
       <c r="C415" s="7"/>
@@ -8579,7 +8548,7 @@
       <c r="O415" s="8"/>
       <c r="P415" s="8"/>
     </row>
-    <row r="416" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="11"/>
       <c r="B416" s="7"/>
       <c r="C416" s="7"/>
@@ -8597,7 +8566,7 @@
       <c r="O416" s="8"/>
       <c r="P416" s="8"/>
     </row>
-    <row r="417" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="11"/>
       <c r="B417" s="7"/>
       <c r="C417" s="7"/>
@@ -8615,7 +8584,7 @@
       <c r="O417" s="8"/>
       <c r="P417" s="8"/>
     </row>
-    <row r="418" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="11"/>
       <c r="B418" s="7"/>
       <c r="C418" s="7"/>
@@ -8633,7 +8602,7 @@
       <c r="O418" s="8"/>
       <c r="P418" s="8"/>
     </row>
-    <row r="419" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A419" s="11"/>
       <c r="B419" s="7"/>
       <c r="C419" s="7"/>
@@ -8651,7 +8620,7 @@
       <c r="O419" s="8"/>
       <c r="P419" s="8"/>
     </row>
-    <row r="420" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A420" s="11"/>
       <c r="B420" s="7"/>
       <c r="C420" s="7"/>
@@ -8669,7 +8638,7 @@
       <c r="O420" s="8"/>
       <c r="P420" s="8"/>
     </row>
-    <row r="421" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A421" s="11"/>
       <c r="B421" s="7"/>
       <c r="C421" s="7"/>
@@ -8687,7 +8656,7 @@
       <c r="O421" s="8"/>
       <c r="P421" s="8"/>
     </row>
-    <row r="422" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="11"/>
       <c r="B422" s="7"/>
       <c r="C422" s="7"/>
@@ -8705,7 +8674,7 @@
       <c r="O422" s="8"/>
       <c r="P422" s="8"/>
     </row>
-    <row r="423" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="11"/>
       <c r="B423" s="7"/>
       <c r="C423" s="7"/>
@@ -8723,7 +8692,7 @@
       <c r="O423" s="8"/>
       <c r="P423" s="8"/>
     </row>
-    <row r="424" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A424" s="11"/>
       <c r="B424" s="7"/>
       <c r="C424" s="7"/>
@@ -8741,7 +8710,7 @@
       <c r="O424" s="8"/>
       <c r="P424" s="8"/>
     </row>
-    <row r="425" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A425" s="11"/>
       <c r="B425" s="7"/>
       <c r="C425" s="7"/>
@@ -8759,7 +8728,7 @@
       <c r="O425" s="8"/>
       <c r="P425" s="8"/>
     </row>
-    <row r="426" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A426" s="11"/>
       <c r="B426" s="7"/>
       <c r="C426" s="7"/>
@@ -8777,7 +8746,7 @@
       <c r="O426" s="8"/>
       <c r="P426" s="8"/>
     </row>
-    <row r="427" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A427" s="11"/>
       <c r="B427" s="7"/>
       <c r="C427" s="7"/>
@@ -8795,7 +8764,7 @@
       <c r="O427" s="8"/>
       <c r="P427" s="8"/>
     </row>
-    <row r="428" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A428" s="11"/>
       <c r="B428" s="7"/>
       <c r="C428" s="7"/>
@@ -8813,7 +8782,7 @@
       <c r="O428" s="8"/>
       <c r="P428" s="8"/>
     </row>
-    <row r="429" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="11"/>
       <c r="B429" s="7"/>
       <c r="C429" s="7"/>
@@ -8831,7 +8800,7 @@
       <c r="O429" s="8"/>
       <c r="P429" s="8"/>
     </row>
-    <row r="430" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="11"/>
       <c r="B430" s="7"/>
       <c r="C430" s="7"/>
@@ -8849,7 +8818,7 @@
       <c r="O430" s="8"/>
       <c r="P430" s="8"/>
     </row>
-    <row r="431" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A431" s="11"/>
       <c r="B431" s="7"/>
       <c r="C431" s="7"/>
@@ -8867,7 +8836,7 @@
       <c r="O431" s="8"/>
       <c r="P431" s="8"/>
     </row>
-    <row r="432" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A432" s="11"/>
       <c r="B432" s="7"/>
       <c r="C432" s="7"/>
@@ -8885,7 +8854,7 @@
       <c r="O432" s="8"/>
       <c r="P432" s="8"/>
     </row>
-    <row r="433" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A433" s="11"/>
       <c r="B433" s="7"/>
       <c r="C433" s="7"/>
@@ -8903,7 +8872,7 @@
       <c r="O433" s="8"/>
       <c r="P433" s="8"/>
     </row>
-    <row r="434" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A434" s="11"/>
       <c r="B434" s="7"/>
       <c r="C434" s="7"/>
@@ -8921,7 +8890,7 @@
       <c r="O434" s="8"/>
       <c r="P434" s="8"/>
     </row>
-    <row r="435" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A435" s="11"/>
       <c r="B435" s="7"/>
       <c r="C435" s="7"/>
@@ -8939,7 +8908,7 @@
       <c r="O435" s="8"/>
       <c r="P435" s="8"/>
     </row>
-    <row r="436" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A436" s="11"/>
       <c r="B436" s="7"/>
       <c r="C436" s="7"/>
@@ -8957,7 +8926,7 @@
       <c r="O436" s="8"/>
       <c r="P436" s="8"/>
     </row>
-    <row r="437" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A437" s="11"/>
       <c r="B437" s="7"/>
       <c r="C437" s="7"/>
@@ -8975,7 +8944,7 @@
       <c r="O437" s="8"/>
       <c r="P437" s="8"/>
     </row>
-    <row r="438" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A438" s="11"/>
       <c r="B438" s="7"/>
       <c r="C438" s="7"/>
@@ -8993,7 +8962,7 @@
       <c r="O438" s="8"/>
       <c r="P438" s="8"/>
     </row>
-    <row r="439" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A439" s="11"/>
       <c r="B439" s="7"/>
       <c r="C439" s="7"/>
@@ -9011,7 +8980,7 @@
       <c r="O439" s="8"/>
       <c r="P439" s="8"/>
     </row>
-    <row r="440" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="11"/>
       <c r="B440" s="7"/>
       <c r="C440" s="7"/>
@@ -9029,7 +8998,7 @@
       <c r="O440" s="8"/>
       <c r="P440" s="8"/>
     </row>
-    <row r="441" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="11"/>
       <c r="B441" s="7"/>
       <c r="C441" s="7"/>
@@ -9047,7 +9016,7 @@
       <c r="O441" s="8"/>
       <c r="P441" s="8"/>
     </row>
-    <row r="442" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="11"/>
       <c r="B442" s="7"/>
       <c r="C442" s="7"/>
@@ -9065,7 +9034,7 @@
       <c r="O442" s="8"/>
       <c r="P442" s="8"/>
     </row>
-    <row r="443" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="11"/>
       <c r="B443" s="7"/>
       <c r="C443" s="7"/>
@@ -9083,7 +9052,7 @@
       <c r="O443" s="8"/>
       <c r="P443" s="8"/>
     </row>
-    <row r="444" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A444" s="11"/>
       <c r="B444" s="7"/>
       <c r="C444" s="7"/>
@@ -9101,7 +9070,7 @@
       <c r="O444" s="8"/>
       <c r="P444" s="8"/>
     </row>
-    <row r="445" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A445" s="11"/>
       <c r="B445" s="7"/>
       <c r="C445" s="7"/>
@@ -9119,7 +9088,7 @@
       <c r="O445" s="8"/>
       <c r="P445" s="8"/>
     </row>
-    <row r="446" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A446" s="11"/>
       <c r="B446" s="7"/>
       <c r="C446" s="7"/>
@@ -9137,7 +9106,7 @@
       <c r="O446" s="8"/>
       <c r="P446" s="8"/>
     </row>
-    <row r="447" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="11"/>
       <c r="B447" s="7"/>
       <c r="C447" s="7"/>
@@ -9155,7 +9124,7 @@
       <c r="O447" s="8"/>
       <c r="P447" s="8"/>
     </row>
-    <row r="448" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="11"/>
       <c r="B448" s="7"/>
       <c r="C448" s="7"/>
@@ -9173,7 +9142,7 @@
       <c r="O448" s="8"/>
       <c r="P448" s="8"/>
     </row>
-    <row r="449" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A449" s="11"/>
       <c r="B449" s="7"/>
       <c r="C449" s="7"/>
@@ -9191,7 +9160,7 @@
       <c r="O449" s="8"/>
       <c r="P449" s="8"/>
     </row>
-    <row r="450" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A450" s="11"/>
       <c r="B450" s="7"/>
       <c r="C450" s="7"/>
@@ -9209,7 +9178,7 @@
       <c r="O450" s="8"/>
       <c r="P450" s="8"/>
     </row>
-    <row r="451" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="11"/>
       <c r="B451" s="7"/>
       <c r="C451" s="7"/>
@@ -9227,7 +9196,7 @@
       <c r="O451" s="8"/>
       <c r="P451" s="8"/>
     </row>
-    <row r="452" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="11"/>
       <c r="B452" s="7"/>
       <c r="C452" s="7"/>
@@ -9245,7 +9214,7 @@
       <c r="O452" s="8"/>
       <c r="P452" s="8"/>
     </row>
-    <row r="453" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A453" s="11"/>
       <c r="B453" s="7"/>
       <c r="C453" s="7"/>
@@ -9263,7 +9232,7 @@
       <c r="O453" s="8"/>
       <c r="P453" s="8"/>
     </row>
-    <row r="454" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A454" s="11"/>
       <c r="B454" s="7"/>
       <c r="C454" s="7"/>
@@ -9281,7 +9250,7 @@
       <c r="O454" s="8"/>
       <c r="P454" s="8"/>
     </row>
-    <row r="455" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A455" s="11"/>
       <c r="B455" s="7"/>
       <c r="C455" s="7"/>
@@ -9299,7 +9268,7 @@
       <c r="O455" s="8"/>
       <c r="P455" s="8"/>
     </row>
-    <row r="456" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A456" s="11"/>
       <c r="B456" s="7"/>
       <c r="C456" s="7"/>
@@ -9317,7 +9286,7 @@
       <c r="O456" s="8"/>
       <c r="P456" s="8"/>
     </row>
-    <row r="457" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="11"/>
       <c r="B457" s="7"/>
       <c r="C457" s="7"/>
@@ -9335,7 +9304,7 @@
       <c r="O457" s="8"/>
       <c r="P457" s="8"/>
     </row>
-    <row r="458" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="11"/>
       <c r="B458" s="7"/>
       <c r="C458" s="7"/>
@@ -9353,7 +9322,7 @@
       <c r="O458" s="8"/>
       <c r="P458" s="8"/>
     </row>
-    <row r="459" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A459" s="11"/>
       <c r="B459" s="7"/>
       <c r="C459" s="7"/>
@@ -9371,7 +9340,7 @@
       <c r="O459" s="8"/>
       <c r="P459" s="8"/>
     </row>
-    <row r="460" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="11"/>
       <c r="B460" s="7"/>
       <c r="C460" s="7"/>
@@ -9389,7 +9358,7 @@
       <c r="O460" s="8"/>
       <c r="P460" s="8"/>
     </row>
-    <row r="461" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="11"/>
       <c r="B461" s="7"/>
       <c r="C461" s="7"/>
@@ -9407,7 +9376,7 @@
       <c r="O461" s="8"/>
       <c r="P461" s="8"/>
     </row>
-    <row r="462" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A462" s="11"/>
       <c r="B462" s="7"/>
       <c r="C462" s="7"/>
@@ -9425,7 +9394,7 @@
       <c r="O462" s="8"/>
       <c r="P462" s="8"/>
     </row>
-    <row r="463" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A463" s="11"/>
       <c r="B463" s="7"/>
       <c r="C463" s="7"/>
@@ -9443,7 +9412,7 @@
       <c r="O463" s="8"/>
       <c r="P463" s="8"/>
     </row>
-    <row r="464" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A464" s="11"/>
       <c r="B464" s="7"/>
       <c r="C464" s="7"/>
@@ -9461,7 +9430,7 @@
       <c r="O464" s="8"/>
       <c r="P464" s="8"/>
     </row>
-    <row r="465" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A465" s="11"/>
       <c r="B465" s="7"/>
       <c r="C465" s="7"/>
@@ -9479,7 +9448,7 @@
       <c r="O465" s="8"/>
       <c r="P465" s="8"/>
     </row>
-    <row r="466" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A466" s="11"/>
       <c r="B466" s="7"/>
       <c r="C466" s="7"/>
@@ -9497,7 +9466,7 @@
       <c r="O466" s="8"/>
       <c r="P466" s="8"/>
     </row>
-    <row r="467" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A467" s="11"/>
       <c r="B467" s="7"/>
       <c r="C467" s="7"/>
@@ -9515,7 +9484,7 @@
       <c r="O467" s="8"/>
       <c r="P467" s="8"/>
     </row>
-    <row r="468" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A468" s="11"/>
       <c r="B468" s="7"/>
       <c r="C468" s="7"/>
@@ -9533,7 +9502,7 @@
       <c r="O468" s="8"/>
       <c r="P468" s="8"/>
     </row>
-    <row r="469" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A469" s="11"/>
       <c r="B469" s="7"/>
       <c r="C469" s="7"/>
@@ -9551,7 +9520,7 @@
       <c r="O469" s="8"/>
       <c r="P469" s="8"/>
     </row>
-    <row r="470" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="11"/>
       <c r="B470" s="7"/>
       <c r="C470" s="7"/>
@@ -9569,7 +9538,7 @@
       <c r="O470" s="8"/>
       <c r="P470" s="8"/>
     </row>
-    <row r="471" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="11"/>
       <c r="B471" s="7"/>
       <c r="C471" s="7"/>
@@ -9587,7 +9556,7 @@
       <c r="O471" s="8"/>
       <c r="P471" s="8"/>
     </row>
-    <row r="472" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A472" s="11"/>
       <c r="B472" s="7"/>
       <c r="C472" s="7"/>
@@ -9605,7 +9574,7 @@
       <c r="O472" s="8"/>
       <c r="P472" s="8"/>
     </row>
-    <row r="473" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A473" s="11"/>
       <c r="B473" s="7"/>
       <c r="C473" s="7"/>
@@ -9623,7 +9592,7 @@
       <c r="O473" s="8"/>
       <c r="P473" s="8"/>
     </row>
-    <row r="474" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A474" s="11"/>
       <c r="B474" s="7"/>
       <c r="C474" s="7"/>
@@ -9641,7 +9610,7 @@
       <c r="O474" s="8"/>
       <c r="P474" s="8"/>
     </row>
-    <row r="475" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="11"/>
       <c r="B475" s="7"/>
       <c r="C475" s="7"/>
@@ -9659,7 +9628,7 @@
       <c r="O475" s="8"/>
       <c r="P475" s="8"/>
     </row>
-    <row r="476" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="11"/>
       <c r="B476" s="7"/>
       <c r="C476" s="7"/>
@@ -9677,7 +9646,7 @@
       <c r="O476" s="8"/>
       <c r="P476" s="8"/>
     </row>
-    <row r="477" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A477" s="11"/>
       <c r="B477" s="7"/>
       <c r="C477" s="7"/>
@@ -9695,7 +9664,7 @@
       <c r="O477" s="8"/>
       <c r="P477" s="8"/>
     </row>
-    <row r="478" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A478" s="11"/>
       <c r="B478" s="7"/>
       <c r="C478" s="7"/>
@@ -9713,7 +9682,7 @@
       <c r="O478" s="8"/>
       <c r="P478" s="8"/>
     </row>
-    <row r="479" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A479" s="11"/>
       <c r="B479" s="7"/>
       <c r="C479" s="7"/>
@@ -9731,7 +9700,7 @@
       <c r="O479" s="8"/>
       <c r="P479" s="8"/>
     </row>
-    <row r="480" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A480" s="11"/>
       <c r="B480" s="7"/>
       <c r="C480" s="7"/>
@@ -9749,7 +9718,7 @@
       <c r="O480" s="8"/>
       <c r="P480" s="8"/>
     </row>
-    <row r="481" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A481" s="11"/>
       <c r="B481" s="7"/>
       <c r="C481" s="7"/>
@@ -9767,7 +9736,7 @@
       <c r="O481" s="8"/>
       <c r="P481" s="8"/>
     </row>
-    <row r="482" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A482" s="11"/>
       <c r="B482" s="7"/>
       <c r="C482" s="7"/>
@@ -9785,7 +9754,7 @@
       <c r="O482" s="8"/>
       <c r="P482" s="8"/>
     </row>
-    <row r="483" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A483" s="11"/>
       <c r="B483" s="7"/>
       <c r="C483" s="7"/>
@@ -9803,7 +9772,7 @@
       <c r="O483" s="8"/>
       <c r="P483" s="8"/>
     </row>
-    <row r="484" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="11"/>
       <c r="B484" s="7"/>
       <c r="C484" s="7"/>
@@ -9821,7 +9790,7 @@
       <c r="O484" s="8"/>
       <c r="P484" s="8"/>
     </row>
-    <row r="485" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="11"/>
       <c r="B485" s="7"/>
       <c r="C485" s="7"/>
@@ -9839,7 +9808,7 @@
       <c r="O485" s="8"/>
       <c r="P485" s="8"/>
     </row>
-    <row r="486" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A486" s="11"/>
       <c r="B486" s="7"/>
       <c r="C486" s="7"/>
@@ -9857,7 +9826,7 @@
       <c r="O486" s="8"/>
       <c r="P486" s="8"/>
     </row>
-    <row r="487" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A487" s="11"/>
       <c r="B487" s="7"/>
       <c r="C487" s="7"/>
@@ -9875,7 +9844,7 @@
       <c r="O487" s="8"/>
       <c r="P487" s="8"/>
     </row>
-    <row r="488" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A488" s="11"/>
       <c r="B488" s="7"/>
       <c r="C488" s="7"/>
@@ -9893,7 +9862,7 @@
       <c r="O488" s="8"/>
       <c r="P488" s="8"/>
     </row>
-    <row r="489" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A489" s="11"/>
       <c r="B489" s="7"/>
       <c r="C489" s="7"/>
@@ -9911,7 +9880,7 @@
       <c r="O489" s="8"/>
       <c r="P489" s="8"/>
     </row>
-    <row r="490" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A490" s="11"/>
       <c r="B490" s="7"/>
       <c r="C490" s="7"/>
@@ -9929,7 +9898,7 @@
       <c r="O490" s="8"/>
       <c r="P490" s="8"/>
     </row>
-    <row r="491" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A491" s="11"/>
       <c r="B491" s="7"/>
       <c r="C491" s="7"/>
@@ -9947,7 +9916,7 @@
       <c r="O491" s="8"/>
       <c r="P491" s="8"/>
     </row>
-    <row r="492" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A492" s="11"/>
       <c r="B492" s="7"/>
       <c r="C492" s="7"/>
@@ -9965,7 +9934,7 @@
       <c r="O492" s="8"/>
       <c r="P492" s="8"/>
     </row>
-    <row r="493" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A493" s="11"/>
       <c r="B493" s="7"/>
       <c r="C493" s="7"/>
@@ -9983,7 +9952,7 @@
       <c r="O493" s="8"/>
       <c r="P493" s="8"/>
     </row>
-    <row r="494" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A494" s="11"/>
       <c r="B494" s="7"/>
       <c r="C494" s="7"/>
@@ -10001,7 +9970,7 @@
       <c r="O494" s="8"/>
       <c r="P494" s="8"/>
     </row>
-    <row r="495" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A495" s="11"/>
       <c r="B495" s="7"/>
       <c r="C495" s="7"/>
@@ -10019,7 +9988,7 @@
       <c r="O495" s="8"/>
       <c r="P495" s="8"/>
     </row>
-    <row r="496" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="11"/>
       <c r="B496" s="7"/>
       <c r="C496" s="7"/>
@@ -10037,7 +10006,7 @@
       <c r="O496" s="8"/>
       <c r="P496" s="8"/>
     </row>
-    <row r="497" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="11"/>
       <c r="B497" s="7"/>
       <c r="C497" s="7"/>
@@ -10055,7 +10024,7 @@
       <c r="O497" s="8"/>
       <c r="P497" s="8"/>
     </row>
-    <row r="498" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A498" s="11"/>
       <c r="B498" s="7"/>
       <c r="C498" s="7"/>
@@ -10073,7 +10042,7 @@
       <c r="O498" s="8"/>
       <c r="P498" s="8"/>
     </row>
-    <row r="499" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="11"/>
       <c r="B499" s="7"/>
       <c r="C499" s="7"/>
@@ -10091,7 +10060,7 @@
       <c r="O499" s="8"/>
       <c r="P499" s="8"/>
     </row>
-    <row r="500" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="11"/>
       <c r="B500" s="7"/>
       <c r="C500" s="7"/>
@@ -10109,7 +10078,7 @@
       <c r="O500" s="8"/>
       <c r="P500" s="8"/>
     </row>
-    <row r="501" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="11"/>
       <c r="B501" s="7"/>
       <c r="C501" s="7"/>
@@ -10127,7 +10096,7 @@
       <c r="O501" s="8"/>
       <c r="P501" s="8"/>
     </row>
-    <row r="502" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="11"/>
       <c r="B502" s="7"/>
       <c r="C502" s="7"/>
@@ -10145,7 +10114,7 @@
       <c r="O502" s="8"/>
       <c r="P502" s="8"/>
     </row>
-    <row r="503" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A503" s="11"/>
       <c r="B503" s="7"/>
       <c r="C503" s="7"/>
@@ -10163,7 +10132,7 @@
       <c r="O503" s="8"/>
       <c r="P503" s="8"/>
     </row>
-    <row r="504" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A504" s="11"/>
       <c r="B504" s="7"/>
       <c r="C504" s="7"/>
@@ -10181,7 +10150,7 @@
       <c r="O504" s="8"/>
       <c r="P504" s="8"/>
     </row>
-    <row r="505" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A505" s="11"/>
       <c r="B505" s="7"/>
       <c r="C505" s="7"/>
@@ -10199,7 +10168,7 @@
       <c r="O505" s="8"/>
       <c r="P505" s="8"/>
     </row>
-    <row r="506" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A506" s="11"/>
       <c r="B506" s="7"/>
       <c r="C506" s="7"/>
@@ -10217,7 +10186,7 @@
       <c r="O506" s="8"/>
       <c r="P506" s="8"/>
     </row>
-    <row r="507" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A507" s="11"/>
       <c r="B507" s="7"/>
       <c r="C507" s="7"/>
@@ -10235,7 +10204,7 @@
       <c r="O507" s="8"/>
       <c r="P507" s="8"/>
     </row>
-    <row r="508" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A508" s="11"/>
       <c r="B508" s="7"/>
       <c r="C508" s="7"/>
@@ -10253,7 +10222,7 @@
       <c r="O508" s="8"/>
       <c r="P508" s="8"/>
     </row>
-    <row r="509" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A509" s="11"/>
       <c r="B509" s="7"/>
       <c r="C509" s="7"/>
@@ -10271,7 +10240,7 @@
       <c r="O509" s="8"/>
       <c r="P509" s="8"/>
     </row>
-    <row r="510" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A510" s="11"/>
       <c r="B510" s="7"/>
       <c r="C510" s="7"/>
@@ -10289,7 +10258,7 @@
       <c r="O510" s="8"/>
       <c r="P510" s="8"/>
     </row>
-    <row r="511" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A511" s="11"/>
       <c r="B511" s="7"/>
       <c r="C511" s="7"/>
@@ -10307,7 +10276,7 @@
       <c r="O511" s="8"/>
       <c r="P511" s="8"/>
     </row>
-    <row r="512" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A512" s="11"/>
       <c r="B512" s="7"/>
       <c r="C512" s="7"/>
@@ -10325,7 +10294,7 @@
       <c r="O512" s="8"/>
       <c r="P512" s="8"/>
     </row>
-    <row r="513" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A513" s="11"/>
       <c r="B513" s="7"/>
       <c r="C513" s="7"/>
@@ -10343,7 +10312,7 @@
       <c r="O513" s="8"/>
       <c r="P513" s="8"/>
     </row>
-    <row r="514" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A514" s="11"/>
       <c r="B514" s="7"/>
       <c r="C514" s="7"/>
@@ -10361,7 +10330,7 @@
       <c r="O514" s="8"/>
       <c r="P514" s="8"/>
     </row>
-    <row r="515" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A515" s="11"/>
       <c r="B515" s="7"/>
       <c r="C515" s="7"/>
@@ -10379,7 +10348,7 @@
       <c r="O515" s="8"/>
       <c r="P515" s="8"/>
     </row>
-    <row r="516" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A516" s="11"/>
       <c r="B516" s="7"/>
       <c r="C516" s="7"/>
@@ -10397,7 +10366,7 @@
       <c r="O516" s="8"/>
       <c r="P516" s="8"/>
     </row>
-    <row r="517" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A517" s="11"/>
       <c r="B517" s="7"/>
       <c r="C517" s="7"/>
@@ -10415,7 +10384,7 @@
       <c r="O517" s="8"/>
       <c r="P517" s="8"/>
     </row>
-    <row r="518" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A518" s="11"/>
       <c r="B518" s="7"/>
       <c r="C518" s="7"/>
@@ -10433,7 +10402,7 @@
       <c r="O518" s="8"/>
       <c r="P518" s="8"/>
     </row>
-    <row r="519" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A519" s="11"/>
       <c r="B519" s="7"/>
       <c r="C519" s="7"/>
@@ -10451,7 +10420,7 @@
       <c r="O519" s="8"/>
       <c r="P519" s="8"/>
     </row>
-    <row r="520" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A520" s="11"/>
       <c r="B520" s="7"/>
       <c r="C520" s="7"/>
@@ -10469,7 +10438,7 @@
       <c r="O520" s="8"/>
       <c r="P520" s="8"/>
     </row>
-    <row r="521" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A521" s="11"/>
       <c r="B521" s="7"/>
       <c r="C521" s="7"/>
@@ -10487,7 +10456,7 @@
       <c r="O521" s="8"/>
       <c r="P521" s="8"/>
     </row>
-    <row r="522" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A522" s="11"/>
       <c r="B522" s="7"/>
       <c r="C522" s="7"/>
@@ -10505,7 +10474,7 @@
       <c r="O522" s="8"/>
       <c r="P522" s="8"/>
     </row>
-    <row r="523" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A523" s="11"/>
       <c r="B523" s="7"/>
       <c r="C523" s="7"/>
@@ -10523,7 +10492,7 @@
       <c r="O523" s="8"/>
       <c r="P523" s="8"/>
     </row>
-    <row r="524" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A524" s="11"/>
       <c r="B524" s="7"/>
       <c r="C524" s="7"/>
@@ -10541,7 +10510,7 @@
       <c r="O524" s="8"/>
       <c r="P524" s="8"/>
     </row>
-    <row r="525" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A525" s="11"/>
       <c r="B525" s="7"/>
       <c r="C525" s="7"/>
@@ -10559,7 +10528,7 @@
       <c r="O525" s="8"/>
       <c r="P525" s="8"/>
     </row>
-    <row r="526" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A526" s="11"/>
       <c r="B526" s="7"/>
       <c r="C526" s="7"/>
@@ -10577,7 +10546,7 @@
       <c r="O526" s="8"/>
       <c r="P526" s="8"/>
     </row>
-    <row r="527" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A527" s="11"/>
       <c r="B527" s="7"/>
       <c r="C527" s="7"/>
@@ -10595,7 +10564,7 @@
       <c r="O527" s="8"/>
       <c r="P527" s="8"/>
     </row>
-    <row r="528" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A528" s="11"/>
       <c r="B528" s="7"/>
       <c r="C528" s="7"/>
@@ -10613,7 +10582,7 @@
       <c r="O528" s="8"/>
       <c r="P528" s="8"/>
     </row>
-    <row r="529" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A529" s="11"/>
       <c r="B529" s="7"/>
       <c r="C529" s="7"/>
@@ -10631,7 +10600,7 @@
       <c r="O529" s="8"/>
       <c r="P529" s="8"/>
     </row>
-    <row r="530" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A530" s="11"/>
       <c r="B530" s="7"/>
       <c r="C530" s="7"/>
@@ -10649,7 +10618,7 @@
       <c r="O530" s="8"/>
       <c r="P530" s="8"/>
     </row>
-    <row r="531" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A531" s="11"/>
       <c r="B531" s="7"/>
       <c r="C531" s="7"/>
@@ -10667,7 +10636,7 @@
       <c r="O531" s="8"/>
       <c r="P531" s="8"/>
     </row>
-    <row r="532" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A532" s="11"/>
       <c r="B532" s="7"/>
       <c r="C532" s="7"/>
@@ -10685,7 +10654,7 @@
       <c r="O532" s="8"/>
       <c r="P532" s="8"/>
     </row>
-    <row r="533" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A533" s="11"/>
       <c r="B533" s="7"/>
       <c r="C533" s="7"/>
@@ -10703,7 +10672,7 @@
       <c r="O533" s="8"/>
       <c r="P533" s="8"/>
     </row>
-    <row r="534" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A534" s="11"/>
       <c r="B534" s="7"/>
       <c r="C534" s="7"/>
@@ -10721,7 +10690,7 @@
       <c r="O534" s="8"/>
       <c r="P534" s="8"/>
     </row>
-    <row r="535" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A535" s="11"/>
       <c r="B535" s="7"/>
       <c r="C535" s="7"/>
@@ -10739,7 +10708,7 @@
       <c r="O535" s="8"/>
       <c r="P535" s="8"/>
     </row>
-    <row r="536" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A536" s="11"/>
       <c r="B536" s="7"/>
       <c r="C536" s="7"/>
@@ -10757,7 +10726,7 @@
       <c r="O536" s="8"/>
       <c r="P536" s="8"/>
     </row>
-    <row r="537" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A537" s="11"/>
       <c r="B537" s="7"/>
       <c r="C537" s="7"/>
@@ -10775,7 +10744,7 @@
       <c r="O537" s="8"/>
       <c r="P537" s="8"/>
     </row>
-    <row r="538" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A538" s="11"/>
       <c r="B538" s="7"/>
       <c r="C538" s="7"/>
@@ -10793,7 +10762,7 @@
       <c r="O538" s="8"/>
       <c r="P538" s="8"/>
     </row>
-    <row r="539" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A539" s="11"/>
       <c r="B539" s="7"/>
       <c r="C539" s="7"/>
@@ -10811,7 +10780,7 @@
       <c r="O539" s="8"/>
       <c r="P539" s="8"/>
     </row>
-    <row r="540" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A540" s="11"/>
       <c r="B540" s="7"/>
       <c r="C540" s="7"/>
@@ -10829,7 +10798,7 @@
       <c r="O540" s="8"/>
       <c r="P540" s="8"/>
     </row>
-    <row r="541" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A541" s="11"/>
       <c r="B541" s="7"/>
       <c r="C541" s="7"/>
@@ -10847,7 +10816,7 @@
       <c r="O541" s="8"/>
       <c r="P541" s="8"/>
     </row>
-    <row r="542" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A542" s="11"/>
       <c r="B542" s="7"/>
       <c r="C542" s="7"/>
@@ -10865,7 +10834,7 @@
       <c r="O542" s="8"/>
       <c r="P542" s="8"/>
     </row>
-    <row r="543" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A543" s="11"/>
       <c r="B543" s="7"/>
       <c r="C543" s="7"/>
@@ -10883,7 +10852,7 @@
       <c r="O543" s="8"/>
       <c r="P543" s="8"/>
     </row>
-    <row r="544" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A544" s="11"/>
       <c r="B544" s="7"/>
       <c r="C544" s="7"/>
@@ -10901,7 +10870,7 @@
       <c r="O544" s="8"/>
       <c r="P544" s="8"/>
     </row>
-    <row r="545" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A545" s="11"/>
       <c r="B545" s="7"/>
       <c r="C545" s="7"/>
@@ -10919,7 +10888,7 @@
       <c r="O545" s="8"/>
       <c r="P545" s="8"/>
     </row>
-    <row r="546" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A546" s="11"/>
       <c r="B546" s="7"/>
       <c r="C546" s="7"/>
@@ -10937,7 +10906,7 @@
       <c r="O546" s="8"/>
       <c r="P546" s="8"/>
     </row>
-    <row r="547" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A547" s="11"/>
       <c r="B547" s="7"/>
       <c r="C547" s="7"/>
@@ -10955,7 +10924,7 @@
       <c r="O547" s="8"/>
       <c r="P547" s="8"/>
     </row>
-    <row r="548" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A548" s="11"/>
       <c r="B548" s="7"/>
       <c r="C548" s="7"/>
@@ -10973,7 +10942,7 @@
       <c r="O548" s="8"/>
       <c r="P548" s="8"/>
     </row>
-    <row r="549" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A549" s="11"/>
       <c r="B549" s="7"/>
       <c r="C549" s="7"/>
@@ -10991,7 +10960,7 @@
       <c r="O549" s="8"/>
       <c r="P549" s="8"/>
     </row>
-    <row r="550" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A550" s="11"/>
       <c r="B550" s="7"/>
       <c r="C550" s="7"/>
@@ -11009,7 +10978,7 @@
       <c r="O550" s="8"/>
       <c r="P550" s="8"/>
     </row>
-    <row r="551" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A551" s="11"/>
       <c r="B551" s="7"/>
       <c r="C551" s="7"/>
@@ -11027,7 +10996,7 @@
       <c r="O551" s="8"/>
       <c r="P551" s="8"/>
     </row>
-    <row r="552" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A552" s="11"/>
       <c r="B552" s="7"/>
       <c r="C552" s="7"/>
@@ -11045,7 +11014,7 @@
       <c r="O552" s="8"/>
       <c r="P552" s="8"/>
     </row>
-    <row r="553" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A553" s="11"/>
       <c r="B553" s="7"/>
       <c r="C553" s="7"/>
@@ -11063,7 +11032,7 @@
       <c r="O553" s="8"/>
       <c r="P553" s="8"/>
     </row>
-    <row r="554" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A554" s="11"/>
       <c r="B554" s="7"/>
       <c r="C554" s="7"/>
@@ -11081,7 +11050,7 @@
       <c r="O554" s="8"/>
       <c r="P554" s="8"/>
     </row>
-    <row r="555" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A555" s="11"/>
       <c r="B555" s="7"/>
       <c r="C555" s="7"/>
@@ -11099,7 +11068,7 @@
       <c r="O555" s="8"/>
       <c r="P555" s="8"/>
     </row>
-    <row r="556" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A556" s="11"/>
       <c r="B556" s="7"/>
       <c r="C556" s="7"/>
@@ -11117,7 +11086,7 @@
       <c r="O556" s="8"/>
       <c r="P556" s="8"/>
     </row>
-    <row r="557" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A557" s="11"/>
       <c r="B557" s="7"/>
       <c r="C557" s="7"/>
@@ -11135,7 +11104,7 @@
       <c r="O557" s="8"/>
       <c r="P557" s="8"/>
     </row>
-    <row r="558" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A558" s="11"/>
       <c r="B558" s="7"/>
       <c r="C558" s="7"/>
@@ -11153,7 +11122,7 @@
       <c r="O558" s="8"/>
       <c r="P558" s="8"/>
     </row>
-    <row r="559" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A559" s="11"/>
       <c r="B559" s="7"/>
       <c r="C559" s="7"/>
@@ -11171,7 +11140,7 @@
       <c r="O559" s="8"/>
       <c r="P559" s="8"/>
     </row>
-    <row r="560" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A560" s="11"/>
       <c r="B560" s="7"/>
       <c r="C560" s="7"/>
@@ -11189,7 +11158,7 @@
       <c r="O560" s="8"/>
       <c r="P560" s="8"/>
     </row>
-    <row r="561" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A561" s="11"/>
       <c r="B561" s="7"/>
       <c r="C561" s="7"/>
@@ -11207,7 +11176,7 @@
       <c r="O561" s="8"/>
       <c r="P561" s="8"/>
     </row>
-    <row r="562" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A562" s="11"/>
       <c r="B562" s="7"/>
       <c r="C562" s="7"/>
@@ -11225,7 +11194,7 @@
       <c r="O562" s="8"/>
       <c r="P562" s="8"/>
     </row>
-    <row r="563" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A563" s="11"/>
       <c r="B563" s="7"/>
       <c r="C563" s="7"/>
@@ -11243,7 +11212,7 @@
       <c r="O563" s="8"/>
       <c r="P563" s="8"/>
     </row>
-    <row r="564" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A564" s="11"/>
       <c r="B564" s="7"/>
       <c r="C564" s="7"/>
@@ -11261,7 +11230,7 @@
       <c r="O564" s="8"/>
       <c r="P564" s="8"/>
     </row>
-    <row r="565" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A565" s="11"/>
       <c r="B565" s="7"/>
       <c r="C565" s="7"/>
@@ -11279,7 +11248,7 @@
       <c r="O565" s="8"/>
       <c r="P565" s="8"/>
     </row>
-    <row r="566" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A566" s="11"/>
       <c r="B566" s="7"/>
       <c r="C566" s="7"/>
@@ -11297,7 +11266,7 @@
       <c r="O566" s="8"/>
       <c r="P566" s="8"/>
     </row>
-    <row r="567" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A567" s="11"/>
       <c r="B567" s="7"/>
       <c r="C567" s="7"/>
@@ -11315,7 +11284,7 @@
       <c r="O567" s="8"/>
       <c r="P567" s="8"/>
     </row>
-    <row r="568" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A568" s="11"/>
       <c r="B568" s="7"/>
       <c r="C568" s="7"/>
@@ -11333,7 +11302,7 @@
       <c r="O568" s="8"/>
       <c r="P568" s="8"/>
     </row>
-    <row r="569" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A569" s="11"/>
       <c r="B569" s="7"/>
       <c r="C569" s="7"/>
@@ -11351,7 +11320,7 @@
       <c r="O569" s="8"/>
       <c r="P569" s="8"/>
     </row>
-    <row r="570" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A570" s="11"/>
       <c r="B570" s="7"/>
       <c r="C570" s="7"/>
@@ -11369,7 +11338,7 @@
       <c r="O570" s="8"/>
       <c r="P570" s="8"/>
     </row>
-    <row r="571" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A571" s="11"/>
       <c r="B571" s="7"/>
       <c r="C571" s="7"/>
@@ -11387,7 +11356,7 @@
       <c r="O571" s="8"/>
       <c r="P571" s="8"/>
     </row>
-    <row r="572" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A572" s="11"/>
       <c r="B572" s="7"/>
       <c r="C572" s="7"/>
@@ -11405,7 +11374,7 @@
       <c r="O572" s="8"/>
       <c r="P572" s="8"/>
     </row>
-    <row r="573" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A573" s="11"/>
       <c r="B573" s="7"/>
       <c r="C573" s="7"/>
@@ -11423,7 +11392,7 @@
       <c r="O573" s="8"/>
       <c r="P573" s="8"/>
     </row>
-    <row r="574" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A574" s="11"/>
       <c r="B574" s="7"/>
       <c r="C574" s="7"/>
@@ -11441,7 +11410,7 @@
       <c r="O574" s="8"/>
       <c r="P574" s="8"/>
     </row>
-    <row r="575" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A575" s="11"/>
       <c r="B575" s="7"/>
       <c r="C575" s="7"/>
@@ -11459,7 +11428,7 @@
       <c r="O575" s="8"/>
       <c r="P575" s="8"/>
     </row>
-    <row r="576" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A576" s="11"/>
       <c r="B576" s="7"/>
       <c r="C576" s="7"/>
@@ -11477,7 +11446,7 @@
       <c r="O576" s="8"/>
       <c r="P576" s="8"/>
     </row>
-    <row r="577" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A577" s="11"/>
       <c r="B577" s="7"/>
       <c r="C577" s="7"/>
@@ -11495,7 +11464,7 @@
       <c r="O577" s="8"/>
       <c r="P577" s="8"/>
     </row>
-    <row r="578" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A578" s="11"/>
       <c r="B578" s="7"/>
       <c r="C578" s="7"/>
@@ -11513,7 +11482,7 @@
       <c r="O578" s="8"/>
       <c r="P578" s="8"/>
     </row>
-    <row r="579" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A579" s="11"/>
       <c r="B579" s="7"/>
       <c r="C579" s="7"/>
@@ -11531,7 +11500,7 @@
       <c r="O579" s="8"/>
       <c r="P579" s="8"/>
     </row>
-    <row r="580" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A580" s="11"/>
       <c r="B580" s="7"/>
       <c r="C580" s="7"/>
@@ -11549,7 +11518,7 @@
       <c r="O580" s="8"/>
       <c r="P580" s="8"/>
     </row>
-    <row r="581" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A581" s="11"/>
       <c r="B581" s="7"/>
       <c r="C581" s="7"/>
@@ -11567,7 +11536,7 @@
       <c r="O581" s="8"/>
       <c r="P581" s="8"/>
     </row>
-    <row r="582" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A582" s="11"/>
       <c r="B582" s="7"/>
       <c r="C582" s="7"/>
@@ -11585,7 +11554,7 @@
       <c r="O582" s="8"/>
       <c r="P582" s="8"/>
     </row>
-    <row r="583" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A583" s="11"/>
       <c r="B583" s="7"/>
       <c r="C583" s="7"/>
@@ -11603,7 +11572,7 @@
       <c r="O583" s="8"/>
       <c r="P583" s="8"/>
     </row>
-    <row r="584" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A584" s="11"/>
       <c r="B584" s="7"/>
       <c r="C584" s="7"/>
@@ -11621,7 +11590,7 @@
       <c r="O584" s="8"/>
       <c r="P584" s="8"/>
     </row>
-    <row r="585" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A585" s="11"/>
       <c r="B585" s="7"/>
       <c r="C585" s="7"/>
@@ -11639,7 +11608,7 @@
       <c r="O585" s="8"/>
       <c r="P585" s="8"/>
     </row>
-    <row r="586" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A586" s="11"/>
       <c r="B586" s="7"/>
       <c r="C586" s="7"/>
@@ -11657,7 +11626,7 @@
       <c r="O586" s="8"/>
       <c r="P586" s="8"/>
     </row>
-    <row r="587" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A587" s="11"/>
       <c r="B587" s="7"/>
       <c r="C587" s="7"/>
@@ -11675,7 +11644,7 @@
       <c r="O587" s="8"/>
       <c r="P587" s="8"/>
     </row>
-    <row r="588" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A588" s="11"/>
       <c r="B588" s="7"/>
       <c r="C588" s="7"/>
@@ -11693,7 +11662,7 @@
       <c r="O588" s="8"/>
       <c r="P588" s="8"/>
     </row>
-    <row r="589" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A589" s="11"/>
       <c r="B589" s="7"/>
       <c r="C589" s="7"/>
@@ -11711,7 +11680,7 @@
       <c r="O589" s="8"/>
       <c r="P589" s="8"/>
     </row>
-    <row r="590" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A590" s="11"/>
       <c r="B590" s="7"/>
       <c r="C590" s="7"/>
@@ -11729,7 +11698,7 @@
       <c r="O590" s="8"/>
       <c r="P590" s="8"/>
     </row>
-    <row r="591" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A591" s="11"/>
       <c r="B591" s="7"/>
       <c r="C591" s="7"/>
@@ -11747,7 +11716,7 @@
       <c r="O591" s="8"/>
       <c r="P591" s="8"/>
     </row>
-    <row r="592" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A592" s="11"/>
       <c r="B592" s="7"/>
       <c r="C592" s="7"/>
@@ -11765,7 +11734,7 @@
       <c r="O592" s="8"/>
       <c r="P592" s="8"/>
     </row>
-    <row r="593" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A593" s="11"/>
       <c r="B593" s="7"/>
       <c r="C593" s="7"/>
@@ -11783,7 +11752,7 @@
       <c r="O593" s="8"/>
       <c r="P593" s="8"/>
     </row>
-    <row r="594" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A594" s="11"/>
       <c r="B594" s="7"/>
       <c r="C594" s="7"/>
@@ -11801,7 +11770,7 @@
       <c r="O594" s="8"/>
       <c r="P594" s="8"/>
     </row>
-    <row r="595" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A595" s="11"/>
       <c r="B595" s="7"/>
       <c r="C595" s="7"/>
@@ -11819,7 +11788,7 @@
       <c r="O595" s="8"/>
       <c r="P595" s="8"/>
     </row>
-    <row r="596" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A596" s="11"/>
       <c r="B596" s="7"/>
       <c r="C596" s="7"/>
@@ -11837,7 +11806,7 @@
       <c r="O596" s="8"/>
       <c r="P596" s="8"/>
     </row>
-    <row r="597" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A597" s="11"/>
       <c r="B597" s="7"/>
       <c r="C597" s="7"/>
@@ -11855,7 +11824,7 @@
       <c r="O597" s="8"/>
       <c r="P597" s="8"/>
     </row>
-    <row r="598" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A598" s="11"/>
       <c r="B598" s="7"/>
       <c r="C598" s="7"/>
@@ -11873,7 +11842,7 @@
       <c r="O598" s="8"/>
       <c r="P598" s="8"/>
     </row>
-    <row r="599" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A599" s="11"/>
       <c r="B599" s="7"/>
       <c r="C599" s="7"/>
@@ -11891,7 +11860,7 @@
       <c r="O599" s="8"/>
       <c r="P599" s="8"/>
     </row>
-    <row r="600" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A600" s="11"/>
       <c r="B600" s="7"/>
       <c r="C600" s="7"/>
@@ -11909,7 +11878,7 @@
       <c r="O600" s="8"/>
       <c r="P600" s="8"/>
     </row>
-    <row r="601" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A601" s="11"/>
       <c r="B601" s="7"/>
       <c r="C601" s="7"/>
@@ -11927,7 +11896,7 @@
       <c r="O601" s="8"/>
       <c r="P601" s="8"/>
     </row>
-    <row r="602" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A602" s="11"/>
       <c r="B602" s="7"/>
       <c r="C602" s="7"/>
@@ -11945,7 +11914,7 @@
       <c r="O602" s="8"/>
       <c r="P602" s="8"/>
     </row>
-    <row r="603" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A603" s="11"/>
       <c r="B603" s="7"/>
       <c r="C603" s="7"/>
@@ -11963,7 +11932,7 @@
       <c r="O603" s="8"/>
       <c r="P603" s="8"/>
     </row>
-    <row r="604" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A604" s="11"/>
       <c r="B604" s="7"/>
       <c r="C604" s="7"/>
@@ -11981,7 +11950,7 @@
       <c r="O604" s="8"/>
       <c r="P604" s="8"/>
     </row>
-    <row r="605" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A605" s="11"/>
       <c r="B605" s="7"/>
       <c r="C605" s="7"/>
@@ -11999,7 +11968,7 @@
       <c r="O605" s="8"/>
       <c r="P605" s="8"/>
     </row>
-    <row r="606" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A606" s="11"/>
       <c r="B606" s="7"/>
       <c r="C606" s="7"/>
@@ -12017,7 +11986,7 @@
       <c r="O606" s="8"/>
       <c r="P606" s="8"/>
     </row>
-    <row r="607" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A607" s="11"/>
       <c r="B607" s="7"/>
       <c r="C607" s="7"/>
@@ -12035,7 +12004,7 @@
       <c r="O607" s="8"/>
       <c r="P607" s="8"/>
     </row>
-    <row r="608" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A608" s="11"/>
       <c r="B608" s="7"/>
       <c r="C608" s="7"/>
@@ -12053,7 +12022,7 @@
       <c r="O608" s="8"/>
       <c r="P608" s="8"/>
     </row>
-    <row r="609" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A609" s="11"/>
       <c r="B609" s="7"/>
       <c r="C609" s="7"/>
@@ -12071,7 +12040,7 @@
       <c r="O609" s="8"/>
       <c r="P609" s="8"/>
     </row>
-    <row r="610" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A610" s="11"/>
       <c r="B610" s="7"/>
       <c r="C610" s="7"/>
@@ -12089,7 +12058,7 @@
       <c r="O610" s="8"/>
       <c r="P610" s="8"/>
     </row>
-    <row r="611" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A611" s="11"/>
       <c r="B611" s="7"/>
       <c r="C611" s="7"/>
@@ -12107,7 +12076,7 @@
       <c r="O611" s="8"/>
       <c r="P611" s="8"/>
     </row>
-    <row r="612" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A612" s="11"/>
       <c r="B612" s="7"/>
       <c r="C612" s="7"/>
@@ -12125,7 +12094,7 @@
       <c r="O612" s="8"/>
       <c r="P612" s="8"/>
     </row>
-    <row r="613" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A613" s="11"/>
       <c r="B613" s="7"/>
       <c r="C613" s="7"/>
@@ -12143,7 +12112,7 @@
       <c r="O613" s="8"/>
       <c r="P613" s="8"/>
     </row>
-    <row r="614" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A614" s="11"/>
       <c r="B614" s="7"/>
       <c r="C614" s="7"/>
@@ -12161,7 +12130,7 @@
       <c r="O614" s="8"/>
       <c r="P614" s="8"/>
     </row>
-    <row r="615" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A615" s="11"/>
       <c r="B615" s="7"/>
       <c r="C615" s="7"/>
@@ -12179,7 +12148,7 @@
       <c r="O615" s="8"/>
       <c r="P615" s="8"/>
     </row>
-    <row r="616" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A616" s="11"/>
       <c r="B616" s="7"/>
       <c r="C616" s="7"/>
@@ -12197,7 +12166,7 @@
       <c r="O616" s="8"/>
       <c r="P616" s="8"/>
     </row>
-    <row r="617" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A617" s="11"/>
       <c r="B617" s="7"/>
       <c r="C617" s="7"/>
@@ -12215,7 +12184,7 @@
       <c r="O617" s="8"/>
       <c r="P617" s="8"/>
     </row>
-    <row r="618" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A618" s="11"/>
       <c r="B618" s="7"/>
       <c r="C618" s="7"/>
@@ -12233,7 +12202,7 @@
       <c r="O618" s="8"/>
       <c r="P618" s="8"/>
     </row>
-    <row r="619" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A619" s="11"/>
       <c r="B619" s="7"/>
       <c r="C619" s="7"/>
@@ -12251,7 +12220,7 @@
       <c r="O619" s="8"/>
       <c r="P619" s="8"/>
     </row>
-    <row r="620" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A620" s="11"/>
       <c r="B620" s="7"/>
       <c r="C620" s="7"/>
@@ -12269,7 +12238,7 @@
       <c r="O620" s="8"/>
       <c r="P620" s="8"/>
     </row>
-    <row r="621" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A621" s="11"/>
       <c r="B621" s="7"/>
       <c r="C621" s="7"/>
@@ -12287,7 +12256,7 @@
       <c r="O621" s="8"/>
       <c r="P621" s="8"/>
     </row>
-    <row r="622" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A622" s="11"/>
       <c r="B622" s="7"/>
       <c r="C622" s="7"/>
@@ -12305,7 +12274,7 @@
       <c r="O622" s="8"/>
       <c r="P622" s="8"/>
     </row>
-    <row r="623" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A623" s="11"/>
       <c r="B623" s="7"/>
       <c r="C623" s="7"/>
@@ -12323,7 +12292,7 @@
       <c r="O623" s="8"/>
       <c r="P623" s="8"/>
     </row>
-    <row r="624" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A624" s="11"/>
       <c r="B624" s="7"/>
       <c r="C624" s="7"/>
@@ -12341,7 +12310,7 @@
       <c r="O624" s="8"/>
       <c r="P624" s="8"/>
     </row>
-    <row r="625" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A625" s="11"/>
       <c r="B625" s="7"/>
       <c r="C625" s="7"/>
@@ -12359,7 +12328,7 @@
       <c r="O625" s="8"/>
       <c r="P625" s="8"/>
     </row>
-    <row r="626" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A626" s="11"/>
       <c r="B626" s="7"/>
       <c r="C626" s="7"/>
@@ -12377,7 +12346,7 @@
       <c r="O626" s="8"/>
       <c r="P626" s="8"/>
     </row>
-    <row r="627" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A627" s="11"/>
       <c r="B627" s="7"/>
       <c r="C627" s="7"/>
@@ -12395,7 +12364,7 @@
       <c r="O627" s="8"/>
       <c r="P627" s="8"/>
     </row>
-    <row r="628" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A628" s="11"/>
       <c r="B628" s="7"/>
       <c r="C628" s="7"/>
@@ -12413,7 +12382,7 @@
       <c r="O628" s="8"/>
       <c r="P628" s="8"/>
     </row>
-    <row r="629" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A629" s="11"/>
       <c r="B629" s="7"/>
       <c r="C629" s="7"/>
@@ -12431,7 +12400,7 @@
       <c r="O629" s="8"/>
       <c r="P629" s="8"/>
     </row>
-    <row r="630" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A630" s="11"/>
       <c r="B630" s="7"/>
       <c r="C630" s="7"/>
@@ -12449,7 +12418,7 @@
       <c r="O630" s="8"/>
       <c r="P630" s="8"/>
     </row>
-    <row r="631" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A631" s="11"/>
       <c r="B631" s="7"/>
       <c r="C631" s="7"/>
@@ -12467,7 +12436,7 @@
       <c r="O631" s="8"/>
       <c r="P631" s="8"/>
     </row>
-    <row r="632" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A632" s="11"/>
       <c r="B632" s="7"/>
       <c r="C632" s="7"/>
@@ -12485,7 +12454,7 @@
       <c r="O632" s="8"/>
       <c r="P632" s="8"/>
     </row>
-    <row r="633" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A633" s="11"/>
       <c r="B633" s="7"/>
       <c r="C633" s="7"/>
@@ -12503,7 +12472,7 @@
       <c r="O633" s="8"/>
       <c r="P633" s="8"/>
     </row>
-    <row r="634" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A634" s="11"/>
       <c r="B634" s="7"/>
       <c r="C634" s="7"/>
@@ -12521,7 +12490,7 @@
       <c r="O634" s="8"/>
       <c r="P634" s="8"/>
     </row>
-    <row r="635" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A635" s="11"/>
       <c r="B635" s="7"/>
       <c r="C635" s="7"/>
@@ -12539,7 +12508,7 @@
       <c r="O635" s="8"/>
       <c r="P635" s="8"/>
     </row>
-    <row r="636" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A636" s="11"/>
       <c r="B636" s="7"/>
       <c r="C636" s="7"/>
@@ -12557,7 +12526,7 @@
       <c r="O636" s="8"/>
       <c r="P636" s="8"/>
     </row>
-    <row r="637" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A637" s="11"/>
       <c r="B637" s="7"/>
       <c r="C637" s="7"/>
@@ -12575,7 +12544,7 @@
       <c r="O637" s="8"/>
       <c r="P637" s="8"/>
     </row>
-    <row r="638" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A638" s="11"/>
       <c r="B638" s="7"/>
       <c r="C638" s="7"/>
@@ -12593,7 +12562,7 @@
       <c r="O638" s="8"/>
       <c r="P638" s="8"/>
     </row>
-    <row r="639" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A639" s="11"/>
       <c r="B639" s="7"/>
       <c r="C639" s="7"/>
@@ -12611,7 +12580,7 @@
       <c r="O639" s="8"/>
       <c r="P639" s="8"/>
     </row>
-    <row r="640" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A640" s="11"/>
       <c r="B640" s="7"/>
       <c r="C640" s="7"/>
@@ -12629,7 +12598,7 @@
       <c r="O640" s="8"/>
       <c r="P640" s="8"/>
     </row>
-    <row r="641" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A641" s="11"/>
       <c r="B641" s="7"/>
       <c r="C641" s="7"/>
@@ -12647,7 +12616,7 @@
       <c r="O641" s="8"/>
       <c r="P641" s="8"/>
     </row>
-    <row r="642" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A642" s="11"/>
       <c r="B642" s="7"/>
       <c r="C642" s="7"/>
@@ -12665,7 +12634,7 @@
       <c r="O642" s="8"/>
       <c r="P642" s="8"/>
     </row>
-    <row r="643" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A643" s="11"/>
       <c r="B643" s="7"/>
       <c r="C643" s="7"/>
@@ -12683,7 +12652,7 @@
       <c r="O643" s="8"/>
       <c r="P643" s="8"/>
     </row>
-    <row r="644" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A644" s="11"/>
       <c r="B644" s="7"/>
       <c r="C644" s="7"/>
@@ -12701,7 +12670,7 @@
       <c r="O644" s="8"/>
       <c r="P644" s="8"/>
     </row>
-    <row r="645" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A645" s="11"/>
       <c r="B645" s="7"/>
       <c r="C645" s="7"/>
@@ -12719,7 +12688,7 @@
       <c r="O645" s="8"/>
       <c r="P645" s="8"/>
     </row>
-    <row r="646" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A646" s="11"/>
       <c r="B646" s="7"/>
       <c r="C646" s="7"/>
@@ -12737,7 +12706,7 @@
       <c r="O646" s="8"/>
       <c r="P646" s="8"/>
     </row>
-    <row r="647" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A647" s="11"/>
       <c r="B647" s="7"/>
       <c r="C647" s="7"/>
@@ -12755,7 +12724,7 @@
       <c r="O647" s="8"/>
       <c r="P647" s="8"/>
     </row>
-    <row r="648" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A648" s="11"/>
       <c r="B648" s="7"/>
       <c r="C648" s="7"/>
@@ -12773,7 +12742,7 @@
       <c r="O648" s="8"/>
       <c r="P648" s="8"/>
     </row>
-    <row r="649" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A649" s="11"/>
       <c r="B649" s="7"/>
       <c r="C649" s="7"/>
@@ -12791,7 +12760,7 @@
       <c r="O649" s="8"/>
       <c r="P649" s="8"/>
     </row>
-    <row r="650" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A650" s="11"/>
       <c r="B650" s="7"/>
       <c r="C650" s="7"/>
@@ -12809,7 +12778,7 @@
       <c r="O650" s="8"/>
       <c r="P650" s="8"/>
     </row>
-    <row r="651" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A651" s="11"/>
       <c r="B651" s="7"/>
       <c r="C651" s="7"/>
@@ -12827,7 +12796,7 @@
       <c r="O651" s="8"/>
       <c r="P651" s="8"/>
     </row>
-    <row r="652" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A652" s="11"/>
       <c r="B652" s="7"/>
       <c r="C652" s="7"/>
@@ -12845,7 +12814,7 @@
       <c r="O652" s="8"/>
       <c r="P652" s="8"/>
     </row>
-    <row r="653" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A653" s="11"/>
       <c r="B653" s="7"/>
       <c r="C653" s="7"/>
@@ -12863,7 +12832,7 @@
       <c r="O653" s="8"/>
       <c r="P653" s="8"/>
     </row>
-    <row r="654" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A654" s="11"/>
       <c r="B654" s="7"/>
       <c r="C654" s="7"/>
@@ -12881,7 +12850,7 @@
       <c r="O654" s="8"/>
       <c r="P654" s="8"/>
     </row>
-    <row r="655" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A655" s="11"/>
       <c r="B655" s="7"/>
       <c r="C655" s="7"/>
@@ -12899,7 +12868,7 @@
       <c r="O655" s="8"/>
       <c r="P655" s="8"/>
     </row>
-    <row r="656" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A656" s="11"/>
       <c r="B656" s="7"/>
       <c r="C656" s="7"/>
@@ -12917,7 +12886,7 @@
       <c r="O656" s="8"/>
       <c r="P656" s="8"/>
     </row>
-    <row r="657" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A657" s="11"/>
       <c r="B657" s="7"/>
       <c r="C657" s="7"/>
@@ -12935,7 +12904,7 @@
       <c r="O657" s="8"/>
       <c r="P657" s="8"/>
     </row>
-    <row r="658" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A658" s="11"/>
       <c r="B658" s="7"/>
       <c r="C658" s="7"/>
@@ -12953,7 +12922,7 @@
       <c r="O658" s="8"/>
       <c r="P658" s="8"/>
     </row>
-    <row r="659" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A659" s="11"/>
       <c r="B659" s="7"/>
       <c r="C659" s="7"/>
@@ -12971,7 +12940,7 @@
       <c r="O659" s="8"/>
       <c r="P659" s="8"/>
     </row>
-    <row r="660" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A660" s="11"/>
       <c r="B660" s="7"/>
       <c r="C660" s="7"/>
@@ -12989,7 +12958,7 @@
       <c r="O660" s="8"/>
       <c r="P660" s="8"/>
     </row>
-    <row r="661" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A661" s="11"/>
       <c r="B661" s="7"/>
       <c r="C661" s="7"/>
@@ -13007,7 +12976,7 @@
       <c r="O661" s="8"/>
       <c r="P661" s="8"/>
     </row>
-    <row r="662" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A662" s="11"/>
       <c r="B662" s="7"/>
       <c r="C662" s="7"/>
@@ -13025,7 +12994,7 @@
       <c r="O662" s="8"/>
       <c r="P662" s="8"/>
     </row>
-    <row r="663" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A663" s="11"/>
       <c r="B663" s="7"/>
       <c r="C663" s="7"/>
@@ -13043,7 +13012,7 @@
       <c r="O663" s="8"/>
       <c r="P663" s="8"/>
     </row>
-    <row r="664" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A664" s="11"/>
       <c r="B664" s="7"/>
       <c r="C664" s="7"/>
@@ -13061,7 +13030,7 @@
       <c r="O664" s="8"/>
       <c r="P664" s="8"/>
     </row>
-    <row r="665" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A665" s="11"/>
       <c r="B665" s="7"/>
       <c r="C665" s="7"/>
@@ -13079,7 +13048,7 @@
       <c r="O665" s="8"/>
       <c r="P665" s="8"/>
     </row>
-    <row r="666" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A666" s="11"/>
       <c r="B666" s="7"/>
       <c r="C666" s="7"/>
@@ -13097,7 +13066,7 @@
       <c r="O666" s="8"/>
       <c r="P666" s="8"/>
     </row>
-    <row r="667" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A667" s="11"/>
       <c r="B667" s="7"/>
       <c r="C667" s="7"/>
@@ -13115,7 +13084,7 @@
       <c r="O667" s="8"/>
       <c r="P667" s="8"/>
     </row>
-    <row r="668" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A668" s="11"/>
       <c r="B668" s="7"/>
       <c r="C668" s="7"/>
@@ -13133,7 +13102,7 @@
       <c r="O668" s="8"/>
       <c r="P668" s="8"/>
     </row>
-    <row r="669" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A669" s="11"/>
       <c r="B669" s="7"/>
       <c r="C669" s="7"/>
@@ -13151,7 +13120,7 @@
       <c r="O669" s="8"/>
       <c r="P669" s="8"/>
     </row>
-    <row r="670" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A670" s="11"/>
       <c r="B670" s="7"/>
       <c r="C670" s="7"/>
@@ -13169,7 +13138,7 @@
       <c r="O670" s="8"/>
       <c r="P670" s="8"/>
     </row>
-    <row r="671" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A671" s="11"/>
       <c r="B671" s="7"/>
       <c r="C671" s="7"/>
@@ -13187,7 +13156,7 @@
       <c r="O671" s="8"/>
       <c r="P671" s="8"/>
     </row>
-    <row r="672" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A672" s="11"/>
       <c r="B672" s="7"/>
       <c r="C672" s="7"/>
@@ -13205,7 +13174,7 @@
       <c r="O672" s="8"/>
       <c r="P672" s="8"/>
     </row>
-    <row r="673" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A673" s="11"/>
       <c r="B673" s="7"/>
       <c r="C673" s="7"/>
@@ -13223,7 +13192,7 @@
       <c r="O673" s="8"/>
       <c r="P673" s="8"/>
     </row>
-    <row r="674" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A674" s="11"/>
       <c r="B674" s="7"/>
       <c r="C674" s="7"/>
@@ -13241,7 +13210,7 @@
       <c r="O674" s="8"/>
       <c r="P674" s="8"/>
     </row>
-    <row r="675" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A675" s="11"/>
       <c r="B675" s="7"/>
       <c r="C675" s="7"/>
@@ -13259,7 +13228,7 @@
       <c r="O675" s="8"/>
       <c r="P675" s="8"/>
     </row>
-    <row r="676" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A676" s="11"/>
       <c r="B676" s="7"/>
       <c r="C676" s="7"/>
@@ -13277,7 +13246,7 @@
       <c r="O676" s="8"/>
       <c r="P676" s="8"/>
     </row>
-    <row r="677" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A677" s="11"/>
       <c r="B677" s="7"/>
       <c r="C677" s="7"/>
@@ -13295,7 +13264,7 @@
       <c r="O677" s="8"/>
       <c r="P677" s="8"/>
     </row>
-    <row r="678" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A678" s="11"/>
       <c r="B678" s="7"/>
       <c r="C678" s="7"/>
@@ -13313,7 +13282,7 @@
       <c r="O678" s="8"/>
       <c r="P678" s="8"/>
     </row>
-    <row r="679" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A679" s="11"/>
       <c r="B679" s="7"/>
       <c r="C679" s="7"/>
@@ -13331,7 +13300,7 @@
       <c r="O679" s="8"/>
       <c r="P679" s="8"/>
     </row>
-    <row r="680" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="680" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A680" s="11"/>
       <c r="B680" s="7"/>
       <c r="C680" s="7"/>
@@ -13349,7 +13318,7 @@
       <c r="O680" s="8"/>
       <c r="P680" s="8"/>
     </row>
-    <row r="681" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A681" s="11"/>
       <c r="B681" s="7"/>
       <c r="C681" s="7"/>
@@ -13367,7 +13336,7 @@
       <c r="O681" s="8"/>
       <c r="P681" s="8"/>
     </row>
-    <row r="682" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A682" s="11"/>
       <c r="B682" s="7"/>
       <c r="C682" s="7"/>
@@ -13385,7 +13354,7 @@
       <c r="O682" s="8"/>
       <c r="P682" s="8"/>
     </row>
-    <row r="683" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A683" s="11"/>
       <c r="B683" s="7"/>
       <c r="C683" s="7"/>
@@ -13403,7 +13372,7 @@
       <c r="O683" s="8"/>
       <c r="P683" s="8"/>
     </row>
-    <row r="684" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A684" s="11"/>
       <c r="B684" s="7"/>
       <c r="C684" s="7"/>
@@ -13421,7 +13390,7 @@
       <c r="O684" s="8"/>
       <c r="P684" s="8"/>
     </row>
-    <row r="685" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A685" s="11"/>
       <c r="B685" s="7"/>
       <c r="C685" s="7"/>
@@ -13439,7 +13408,7 @@
       <c r="O685" s="8"/>
       <c r="P685" s="8"/>
     </row>
-    <row r="686" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A686" s="11"/>
       <c r="B686" s="7"/>
       <c r="C686" s="7"/>
@@ -13457,7 +13426,7 @@
       <c r="O686" s="8"/>
       <c r="P686" s="8"/>
     </row>
-    <row r="687" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A687" s="11"/>
       <c r="B687" s="7"/>
       <c r="C687" s="7"/>
@@ -13475,7 +13444,7 @@
       <c r="O687" s="8"/>
       <c r="P687" s="8"/>
     </row>
-    <row r="688" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A688" s="11"/>
       <c r="B688" s="7"/>
       <c r="C688" s="7"/>
@@ -13493,7 +13462,7 @@
       <c r="O688" s="8"/>
       <c r="P688" s="8"/>
     </row>
-    <row r="689" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A689" s="11"/>
       <c r="B689" s="7"/>
       <c r="C689" s="7"/>
@@ -13511,7 +13480,7 @@
       <c r="O689" s="8"/>
       <c r="P689" s="8"/>
     </row>
-    <row r="690" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A690" s="11"/>
       <c r="B690" s="7"/>
       <c r="C690" s="7"/>
@@ -13529,7 +13498,7 @@
       <c r="O690" s="8"/>
       <c r="P690" s="8"/>
     </row>
-    <row r="691" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A691" s="11"/>
       <c r="B691" s="7"/>
       <c r="C691" s="7"/>
@@ -13547,7 +13516,7 @@
       <c r="O691" s="8"/>
       <c r="P691" s="8"/>
     </row>
-    <row r="692" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A692" s="11"/>
       <c r="B692" s="7"/>
       <c r="C692" s="7"/>
@@ -13565,7 +13534,7 @@
       <c r="O692" s="8"/>
       <c r="P692" s="8"/>
     </row>
-    <row r="693" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A693" s="11"/>
       <c r="B693" s="7"/>
       <c r="C693" s="7"/>
@@ -13583,7 +13552,7 @@
       <c r="O693" s="8"/>
       <c r="P693" s="8"/>
     </row>
-    <row r="694" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A694" s="11"/>
       <c r="B694" s="7"/>
       <c r="C694" s="7"/>
@@ -13601,7 +13570,7 @@
       <c r="O694" s="8"/>
       <c r="P694" s="8"/>
     </row>
-    <row r="695" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A695" s="11"/>
       <c r="B695" s="7"/>
       <c r="C695" s="7"/>
@@ -13619,7 +13588,7 @@
       <c r="O695" s="8"/>
       <c r="P695" s="8"/>
     </row>
-    <row r="696" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A696" s="11"/>
       <c r="B696" s="7"/>
       <c r="C696" s="7"/>
@@ -13637,7 +13606,7 @@
       <c r="O696" s="8"/>
       <c r="P696" s="8"/>
     </row>
-    <row r="697" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A697" s="11"/>
       <c r="B697" s="7"/>
       <c r="C697" s="7"/>
@@ -13655,7 +13624,7 @@
       <c r="O697" s="8"/>
       <c r="P697" s="8"/>
     </row>
-    <row r="698" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A698" s="11"/>
       <c r="B698" s="7"/>
       <c r="C698" s="7"/>
@@ -13673,7 +13642,7 @@
       <c r="O698" s="8"/>
       <c r="P698" s="8"/>
     </row>
-    <row r="699" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A699" s="11"/>
       <c r="B699" s="7"/>
       <c r="C699" s="7"/>
@@ -13691,7 +13660,7 @@
       <c r="O699" s="8"/>
       <c r="P699" s="8"/>
     </row>
-    <row r="700" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A700" s="11"/>
       <c r="B700" s="7"/>
       <c r="C700" s="7"/>
@@ -13709,7 +13678,7 @@
       <c r="O700" s="8"/>
       <c r="P700" s="8"/>
     </row>
-    <row r="701" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A701" s="11"/>
       <c r="B701" s="7"/>
       <c r="C701" s="7"/>
@@ -13727,7 +13696,7 @@
       <c r="O701" s="8"/>
       <c r="P701" s="8"/>
     </row>
-    <row r="702" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A702" s="11"/>
       <c r="B702" s="7"/>
       <c r="C702" s="7"/>
@@ -13745,7 +13714,7 @@
       <c r="O702" s="8"/>
       <c r="P702" s="8"/>
     </row>
-    <row r="703" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A703" s="11"/>
       <c r="B703" s="7"/>
       <c r="C703" s="7"/>
@@ -13763,7 +13732,7 @@
       <c r="O703" s="8"/>
       <c r="P703" s="8"/>
     </row>
-    <row r="704" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A704" s="11"/>
       <c r="B704" s="7"/>
       <c r="C704" s="7"/>
@@ -13781,7 +13750,7 @@
       <c r="O704" s="8"/>
       <c r="P704" s="8"/>
     </row>
-    <row r="705" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A705" s="11"/>
       <c r="B705" s="7"/>
       <c r="C705" s="7"/>
@@ -13799,7 +13768,7 @@
       <c r="O705" s="8"/>
       <c r="P705" s="8"/>
     </row>
-    <row r="706" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A706" s="11"/>
       <c r="B706" s="7"/>
       <c r="C706" s="7"/>
@@ -13817,7 +13786,7 @@
       <c r="O706" s="8"/>
       <c r="P706" s="8"/>
     </row>
-    <row r="707" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A707" s="11"/>
       <c r="B707" s="7"/>
       <c r="C707" s="7"/>
@@ -13835,7 +13804,7 @@
       <c r="O707" s="8"/>
       <c r="P707" s="8"/>
     </row>
-    <row r="708" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A708" s="11"/>
       <c r="B708" s="7"/>
       <c r="C708" s="7"/>
@@ -13853,7 +13822,7 @@
       <c r="O708" s="8"/>
       <c r="P708" s="8"/>
     </row>
-    <row r="709" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A709" s="11"/>
       <c r="B709" s="7"/>
       <c r="C709" s="7"/>
@@ -13871,7 +13840,7 @@
       <c r="O709" s="8"/>
       <c r="P709" s="8"/>
     </row>
-    <row r="710" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="710" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A710" s="11"/>
       <c r="B710" s="7"/>
       <c r="C710" s="7"/>
@@ -13889,7 +13858,7 @@
       <c r="O710" s="8"/>
       <c r="P710" s="8"/>
     </row>
-    <row r="711" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="711" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A711" s="11"/>
       <c r="B711" s="7"/>
       <c r="C711" s="7"/>
@@ -13907,7 +13876,7 @@
       <c r="O711" s="8"/>
       <c r="P711" s="8"/>
     </row>
-    <row r="712" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="712" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A712" s="11"/>
       <c r="B712" s="7"/>
       <c r="C712" s="7"/>
@@ -13925,7 +13894,7 @@
       <c r="O712" s="8"/>
       <c r="P712" s="8"/>
     </row>
-    <row r="713" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="713" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A713" s="11"/>
       <c r="B713" s="7"/>
       <c r="C713" s="7"/>
@@ -13943,7 +13912,7 @@
       <c r="O713" s="8"/>
       <c r="P713" s="8"/>
     </row>
-    <row r="714" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="714" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A714" s="11"/>
       <c r="B714" s="7"/>
       <c r="C714" s="7"/>
@@ -13961,7 +13930,7 @@
       <c r="O714" s="8"/>
       <c r="P714" s="8"/>
     </row>
-    <row r="715" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="715" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A715" s="11"/>
       <c r="B715" s="7"/>
       <c r="C715" s="7"/>
@@ -13979,7 +13948,7 @@
       <c r="O715" s="8"/>
       <c r="P715" s="8"/>
     </row>
-    <row r="716" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="716" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A716" s="11"/>
       <c r="B716" s="7"/>
       <c r="C716" s="7"/>
@@ -13997,7 +13966,7 @@
       <c r="O716" s="8"/>
       <c r="P716" s="8"/>
     </row>
-    <row r="717" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="717" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A717" s="11"/>
       <c r="B717" s="7"/>
       <c r="C717" s="7"/>
@@ -14015,7 +13984,7 @@
       <c r="O717" s="8"/>
       <c r="P717" s="8"/>
     </row>
-    <row r="718" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="718" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A718" s="11"/>
       <c r="B718" s="7"/>
       <c r="C718" s="7"/>
@@ -14033,7 +14002,7 @@
       <c r="O718" s="8"/>
       <c r="P718" s="8"/>
     </row>
-    <row r="719" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="719" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A719" s="11"/>
       <c r="B719" s="7"/>
       <c r="C719" s="7"/>
@@ -14051,7 +14020,7 @@
       <c r="O719" s="8"/>
       <c r="P719" s="8"/>
     </row>
-    <row r="720" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="720" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A720" s="11"/>
       <c r="B720" s="7"/>
       <c r="C720" s="7"/>
@@ -14069,7 +14038,7 @@
       <c r="O720" s="8"/>
       <c r="P720" s="8"/>
     </row>
-    <row r="721" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="721" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A721" s="11"/>
       <c r="B721" s="7"/>
       <c r="C721" s="7"/>
@@ -14087,7 +14056,7 @@
       <c r="O721" s="8"/>
       <c r="P721" s="8"/>
     </row>
-    <row r="722" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="722" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A722" s="11"/>
       <c r="B722" s="7"/>
       <c r="C722" s="7"/>
@@ -14105,7 +14074,7 @@
       <c r="O722" s="8"/>
       <c r="P722" s="8"/>
     </row>
-    <row r="723" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="723" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A723" s="11"/>
       <c r="B723" s="7"/>
       <c r="C723" s="7"/>
@@ -14123,7 +14092,7 @@
       <c r="O723" s="8"/>
       <c r="P723" s="8"/>
     </row>
-    <row r="724" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="724" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A724" s="11"/>
       <c r="B724" s="7"/>
       <c r="C724" s="7"/>
@@ -14141,7 +14110,7 @@
       <c r="O724" s="8"/>
       <c r="P724" s="8"/>
     </row>
-    <row r="725" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="725" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A725" s="11"/>
       <c r="B725" s="7"/>
       <c r="C725" s="7"/>
@@ -14159,7 +14128,7 @@
       <c r="O725" s="8"/>
       <c r="P725" s="8"/>
     </row>
-    <row r="726" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="726" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A726" s="11"/>
       <c r="B726" s="7"/>
       <c r="C726" s="7"/>
@@ -14177,7 +14146,7 @@
       <c r="O726" s="8"/>
       <c r="P726" s="8"/>
     </row>
-    <row r="727" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="727" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A727" s="11"/>
       <c r="B727" s="7"/>
       <c r="C727" s="7"/>
@@ -14195,7 +14164,7 @@
       <c r="O727" s="8"/>
       <c r="P727" s="8"/>
     </row>
-    <row r="728" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="728" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A728" s="11"/>
       <c r="B728" s="7"/>
       <c r="C728" s="7"/>
@@ -14213,7 +14182,7 @@
       <c r="O728" s="8"/>
       <c r="P728" s="8"/>
     </row>
-    <row r="729" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="729" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A729" s="11"/>
       <c r="B729" s="7"/>
       <c r="C729" s="7"/>
@@ -14231,7 +14200,7 @@
       <c r="O729" s="8"/>
       <c r="P729" s="8"/>
     </row>
-    <row r="730" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="730" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A730" s="11"/>
       <c r="B730" s="7"/>
       <c r="C730" s="7"/>
@@ -14249,7 +14218,7 @@
       <c r="O730" s="8"/>
       <c r="P730" s="8"/>
     </row>
-    <row r="731" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="731" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A731" s="11"/>
       <c r="B731" s="7"/>
       <c r="C731" s="7"/>
@@ -14267,7 +14236,7 @@
       <c r="O731" s="8"/>
       <c r="P731" s="8"/>
     </row>
-    <row r="732" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="732" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A732" s="11"/>
       <c r="B732" s="7"/>
       <c r="C732" s="7"/>
@@ -14285,7 +14254,7 @@
       <c r="O732" s="8"/>
       <c r="P732" s="8"/>
     </row>
-    <row r="733" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="733" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A733" s="11"/>
       <c r="B733" s="7"/>
       <c r="C733" s="7"/>
@@ -14303,7 +14272,7 @@
       <c r="O733" s="8"/>
       <c r="P733" s="8"/>
     </row>
-    <row r="734" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="734" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A734" s="11"/>
       <c r="B734" s="7"/>
       <c r="C734" s="7"/>
@@ -14321,7 +14290,7 @@
       <c r="O734" s="8"/>
       <c r="P734" s="8"/>
     </row>
-    <row r="735" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="735" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A735" s="11"/>
       <c r="B735" s="7"/>
       <c r="C735" s="7"/>
@@ -14339,7 +14308,7 @@
       <c r="O735" s="8"/>
       <c r="P735" s="8"/>
     </row>
-    <row r="736" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="736" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A736" s="11"/>
       <c r="B736" s="7"/>
       <c r="C736" s="7"/>
@@ -14357,7 +14326,7 @@
       <c r="O736" s="8"/>
       <c r="P736" s="8"/>
     </row>
-    <row r="737" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="737" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A737" s="11"/>
       <c r="B737" s="7"/>
       <c r="C737" s="7"/>
@@ -14375,7 +14344,7 @@
       <c r="O737" s="8"/>
       <c r="P737" s="8"/>
     </row>
-    <row r="738" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="738" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A738" s="11"/>
       <c r="B738" s="7"/>
       <c r="C738" s="7"/>
@@ -14393,7 +14362,7 @@
       <c r="O738" s="8"/>
       <c r="P738" s="8"/>
     </row>
-    <row r="739" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="739" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A739" s="11"/>
       <c r="B739" s="7"/>
       <c r="C739" s="7"/>
@@ -14411,7 +14380,7 @@
       <c r="O739" s="8"/>
       <c r="P739" s="8"/>
     </row>
-    <row r="740" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="740" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A740" s="11"/>
       <c r="B740" s="7"/>
       <c r="C740" s="7"/>
@@ -14429,7 +14398,7 @@
       <c r="O740" s="8"/>
       <c r="P740" s="8"/>
     </row>
-    <row r="741" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="741" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A741" s="11"/>
       <c r="B741" s="7"/>
       <c r="C741" s="7"/>
@@ -14447,7 +14416,7 @@
       <c r="O741" s="8"/>
       <c r="P741" s="8"/>
     </row>
-    <row r="742" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="742" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A742" s="11"/>
       <c r="B742" s="7"/>
       <c r="C742" s="7"/>
@@ -14465,7 +14434,7 @@
       <c r="O742" s="8"/>
       <c r="P742" s="8"/>
     </row>
-    <row r="743" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A743" s="11"/>
       <c r="B743" s="7"/>
       <c r="C743" s="7"/>
@@ -14483,7 +14452,7 @@
       <c r="O743" s="8"/>
       <c r="P743" s="8"/>
     </row>
-    <row r="744" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A744" s="11"/>
       <c r="B744" s="7"/>
       <c r="C744" s="7"/>
@@ -14501,7 +14470,7 @@
       <c r="O744" s="8"/>
       <c r="P744" s="8"/>
     </row>
-    <row r="745" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A745" s="11"/>
       <c r="B745" s="7"/>
       <c r="C745" s="7"/>
@@ -14519,7 +14488,7 @@
       <c r="O745" s="8"/>
       <c r="P745" s="8"/>
     </row>
-    <row r="746" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A746" s="11"/>
       <c r="B746" s="7"/>
       <c r="C746" s="7"/>
@@ -14537,7 +14506,7 @@
       <c r="O746" s="8"/>
       <c r="P746" s="8"/>
     </row>
-    <row r="747" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A747" s="11"/>
       <c r="B747" s="7"/>
       <c r="C747" s="7"/>
@@ -14555,7 +14524,7 @@
       <c r="O747" s="8"/>
       <c r="P747" s="8"/>
     </row>
-    <row r="748" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A748" s="11"/>
       <c r="B748" s="7"/>
       <c r="C748" s="7"/>
@@ -14573,7 +14542,7 @@
       <c r="O748" s="8"/>
       <c r="P748" s="8"/>
     </row>
-    <row r="749" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A749" s="11"/>
       <c r="B749" s="7"/>
       <c r="C749" s="7"/>
@@ -14591,7 +14560,7 @@
       <c r="O749" s="8"/>
       <c r="P749" s="8"/>
     </row>
-    <row r="750" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A750" s="11"/>
       <c r="B750" s="7"/>
       <c r="C750" s="7"/>
@@ -14609,7 +14578,7 @@
       <c r="O750" s="8"/>
       <c r="P750" s="8"/>
     </row>
-    <row r="751" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A751" s="11"/>
       <c r="B751" s="7"/>
       <c r="C751" s="7"/>
@@ -14627,7 +14596,7 @@
       <c r="O751" s="8"/>
       <c r="P751" s="8"/>
     </row>
-    <row r="752" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A752" s="11"/>
       <c r="B752" s="7"/>
       <c r="C752" s="7"/>
@@ -14645,7 +14614,7 @@
       <c r="O752" s="8"/>
       <c r="P752" s="8"/>
     </row>
-    <row r="753" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="753" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A753" s="11"/>
       <c r="B753" s="7"/>
       <c r="C753" s="7"/>
@@ -14663,7 +14632,7 @@
       <c r="O753" s="8"/>
       <c r="P753" s="8"/>
     </row>
-    <row r="754" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="754" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A754" s="11"/>
       <c r="B754" s="7"/>
       <c r="C754" s="7"/>
@@ -14681,7 +14650,7 @@
       <c r="O754" s="8"/>
       <c r="P754" s="8"/>
     </row>
-    <row r="755" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="755" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A755" s="11"/>
       <c r="B755" s="7"/>
       <c r="C755" s="7"/>
@@ -14699,7 +14668,7 @@
       <c r="O755" s="8"/>
       <c r="P755" s="8"/>
     </row>
-    <row r="756" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="756" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A756" s="11"/>
       <c r="B756" s="7"/>
       <c r="C756" s="7"/>
@@ -14717,7 +14686,7 @@
       <c r="O756" s="8"/>
       <c r="P756" s="8"/>
     </row>
-    <row r="757" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="757" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A757" s="11"/>
       <c r="B757" s="7"/>
       <c r="C757" s="7"/>
@@ -14735,7 +14704,7 @@
       <c r="O757" s="8"/>
       <c r="P757" s="8"/>
     </row>
-    <row r="758" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="758" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A758" s="11"/>
       <c r="B758" s="7"/>
       <c r="C758" s="7"/>
@@ -14753,7 +14722,7 @@
       <c r="O758" s="8"/>
       <c r="P758" s="8"/>
     </row>
-    <row r="759" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="759" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A759" s="11"/>
       <c r="B759" s="7"/>
       <c r="C759" s="7"/>
@@ -14771,7 +14740,7 @@
       <c r="O759" s="8"/>
       <c r="P759" s="8"/>
     </row>
-    <row r="760" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="760" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A760" s="11"/>
       <c r="B760" s="7"/>
       <c r="C760" s="7"/>
@@ -14789,7 +14758,7 @@
       <c r="O760" s="8"/>
       <c r="P760" s="8"/>
     </row>
-    <row r="761" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="761" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A761" s="11"/>
       <c r="B761" s="7"/>
       <c r="C761" s="7"/>
@@ -14807,7 +14776,7 @@
       <c r="O761" s="8"/>
       <c r="P761" s="8"/>
     </row>
-    <row r="762" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="762" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A762" s="11"/>
       <c r="B762" s="7"/>
       <c r="C762" s="7"/>
@@ -14825,7 +14794,7 @@
       <c r="O762" s="8"/>
       <c r="P762" s="8"/>
     </row>
-    <row r="763" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="763" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A763" s="11"/>
       <c r="B763" s="7"/>
       <c r="C763" s="7"/>
@@ -14843,7 +14812,7 @@
       <c r="O763" s="8"/>
       <c r="P763" s="8"/>
     </row>
-    <row r="764" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="764" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A764" s="11"/>
       <c r="B764" s="7"/>
       <c r="C764" s="7"/>
@@ -14861,7 +14830,7 @@
       <c r="O764" s="8"/>
       <c r="P764" s="8"/>
     </row>
-    <row r="765" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="765" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A765" s="11"/>
       <c r="B765" s="7"/>
       <c r="C765" s="7"/>
@@ -14879,7 +14848,7 @@
       <c r="O765" s="8"/>
       <c r="P765" s="8"/>
     </row>
-    <row r="766" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="766" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A766" s="11"/>
       <c r="B766" s="7"/>
       <c r="C766" s="7"/>
@@ -14897,7 +14866,7 @@
       <c r="O766" s="8"/>
       <c r="P766" s="8"/>
     </row>
-    <row r="767" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="767" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A767" s="11"/>
       <c r="B767" s="7"/>
       <c r="C767" s="7"/>
@@ -14915,7 +14884,7 @@
       <c r="O767" s="8"/>
       <c r="P767" s="8"/>
     </row>
-    <row r="768" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="768" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A768" s="11"/>
       <c r="B768" s="7"/>
       <c r="C768" s="7"/>
@@ -14933,7 +14902,7 @@
       <c r="O768" s="8"/>
       <c r="P768" s="8"/>
     </row>
-    <row r="769" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="769" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A769" s="11"/>
       <c r="B769" s="7"/>
       <c r="C769" s="7"/>
@@ -14951,7 +14920,7 @@
       <c r="O769" s="8"/>
       <c r="P769" s="8"/>
     </row>
-    <row r="770" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="770" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A770" s="11"/>
       <c r="B770" s="7"/>
       <c r="C770" s="7"/>
@@ -14969,7 +14938,7 @@
       <c r="O770" s="8"/>
       <c r="P770" s="8"/>
     </row>
-    <row r="771" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="771" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A771" s="11"/>
       <c r="B771" s="7"/>
       <c r="C771" s="7"/>
@@ -14987,7 +14956,7 @@
       <c r="O771" s="8"/>
       <c r="P771" s="8"/>
     </row>
-    <row r="772" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="772" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A772" s="11"/>
       <c r="B772" s="7"/>
       <c r="C772" s="7"/>
@@ -15005,7 +14974,7 @@
       <c r="O772" s="8"/>
       <c r="P772" s="8"/>
     </row>
-    <row r="773" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="773" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A773" s="11"/>
       <c r="B773" s="7"/>
       <c r="C773" s="7"/>
@@ -15023,7 +14992,7 @@
       <c r="O773" s="8"/>
       <c r="P773" s="8"/>
     </row>
-    <row r="774" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="774" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A774" s="11"/>
       <c r="B774" s="7"/>
       <c r="C774" s="7"/>
@@ -15041,7 +15010,7 @@
       <c r="O774" s="8"/>
       <c r="P774" s="8"/>
     </row>
-    <row r="775" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="775" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A775" s="11"/>
       <c r="B775" s="7"/>
       <c r="C775" s="7"/>
@@ -15059,7 +15028,7 @@
       <c r="O775" s="8"/>
       <c r="P775" s="8"/>
     </row>
-    <row r="776" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="776" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A776" s="11"/>
       <c r="B776" s="7"/>
       <c r="C776" s="7"/>
@@ -15077,7 +15046,7 @@
       <c r="O776" s="8"/>
       <c r="P776" s="8"/>
     </row>
-    <row r="777" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="777" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A777" s="11"/>
       <c r="B777" s="7"/>
       <c r="C777" s="7"/>
@@ -15095,7 +15064,7 @@
       <c r="O777" s="8"/>
       <c r="P777" s="8"/>
     </row>
-    <row r="778" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="778" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A778" s="11"/>
       <c r="B778" s="7"/>
       <c r="C778" s="7"/>
@@ -15113,7 +15082,7 @@
       <c r="O778" s="8"/>
       <c r="P778" s="8"/>
     </row>
-    <row r="779" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="779" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A779" s="11"/>
       <c r="B779" s="7"/>
       <c r="C779" s="7"/>
@@ -15131,7 +15100,7 @@
       <c r="O779" s="8"/>
       <c r="P779" s="8"/>
     </row>
-    <row r="780" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="780" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A780" s="11"/>
       <c r="B780" s="7"/>
       <c r="C780" s="7"/>
@@ -15149,7 +15118,7 @@
       <c r="O780" s="8"/>
       <c r="P780" s="8"/>
     </row>
-    <row r="781" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="781" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A781" s="11"/>
       <c r="B781" s="7"/>
       <c r="C781" s="7"/>
@@ -15167,7 +15136,7 @@
       <c r="O781" s="8"/>
       <c r="P781" s="8"/>
     </row>
-    <row r="782" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="782" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A782" s="11"/>
       <c r="B782" s="7"/>
       <c r="C782" s="7"/>
@@ -15185,7 +15154,7 @@
       <c r="O782" s="8"/>
       <c r="P782" s="8"/>
     </row>
-    <row r="783" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="783" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A783" s="11"/>
       <c r="B783" s="7"/>
       <c r="C783" s="7"/>
@@ -15203,7 +15172,7 @@
       <c r="O783" s="8"/>
       <c r="P783" s="8"/>
     </row>
-    <row r="784" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="784" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A784" s="11"/>
       <c r="B784" s="7"/>
       <c r="C784" s="7"/>
@@ -15221,7 +15190,7 @@
       <c r="O784" s="8"/>
       <c r="P784" s="8"/>
     </row>
-    <row r="785" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="785" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A785" s="11"/>
       <c r="B785" s="7"/>
       <c r="C785" s="7"/>
@@ -15239,7 +15208,7 @@
       <c r="O785" s="8"/>
       <c r="P785" s="8"/>
     </row>
-    <row r="786" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="786" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A786" s="11"/>
       <c r="B786" s="7"/>
       <c r="C786" s="7"/>
@@ -15257,7 +15226,7 @@
       <c r="O786" s="8"/>
       <c r="P786" s="8"/>
     </row>
-    <row r="787" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="787" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A787" s="11"/>
       <c r="B787" s="7"/>
       <c r="C787" s="7"/>
@@ -15275,7 +15244,7 @@
       <c r="O787" s="8"/>
       <c r="P787" s="8"/>
     </row>
-    <row r="788" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="788" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A788" s="11"/>
       <c r="B788" s="7"/>
       <c r="C788" s="7"/>
@@ -15293,7 +15262,7 @@
       <c r="O788" s="8"/>
       <c r="P788" s="8"/>
     </row>
-    <row r="789" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="789" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A789" s="11"/>
       <c r="B789" s="7"/>
       <c r="C789" s="7"/>
@@ -15311,7 +15280,7 @@
       <c r="O789" s="8"/>
       <c r="P789" s="8"/>
     </row>
-    <row r="790" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="790" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A790" s="11"/>
       <c r="B790" s="7"/>
       <c r="C790" s="7"/>
@@ -15329,7 +15298,7 @@
       <c r="O790" s="8"/>
       <c r="P790" s="8"/>
     </row>
-    <row r="791" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="791" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A791" s="11"/>
       <c r="B791" s="7"/>
       <c r="C791" s="7"/>
@@ -15347,7 +15316,7 @@
       <c r="O791" s="8"/>
       <c r="P791" s="8"/>
     </row>
-    <row r="792" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="792" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A792" s="11"/>
       <c r="B792" s="7"/>
       <c r="C792" s="7"/>
@@ -15365,7 +15334,7 @@
       <c r="O792" s="8"/>
       <c r="P792" s="8"/>
     </row>
-    <row r="793" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="793" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A793" s="11"/>
       <c r="B793" s="7"/>
       <c r="C793" s="7"/>
@@ -15383,7 +15352,7 @@
       <c r="O793" s="8"/>
       <c r="P793" s="8"/>
     </row>
-    <row r="794" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="794" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A794" s="11"/>
       <c r="B794" s="7"/>
       <c r="C794" s="7"/>
@@ -15401,7 +15370,7 @@
       <c r="O794" s="8"/>
       <c r="P794" s="8"/>
     </row>
-    <row r="795" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="795" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A795" s="11"/>
       <c r="B795" s="7"/>
       <c r="C795" s="7"/>
@@ -15419,7 +15388,7 @@
       <c r="O795" s="8"/>
       <c r="P795" s="8"/>
     </row>
-    <row r="796" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="796" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A796" s="11"/>
       <c r="B796" s="7"/>
       <c r="C796" s="7"/>
@@ -15437,7 +15406,7 @@
       <c r="O796" s="8"/>
       <c r="P796" s="8"/>
     </row>
-    <row r="797" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="797" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A797" s="11"/>
       <c r="B797" s="7"/>
       <c r="C797" s="7"/>
@@ -15455,7 +15424,7 @@
       <c r="O797" s="8"/>
       <c r="P797" s="8"/>
     </row>
-    <row r="798" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="798" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A798" s="11"/>
       <c r="B798" s="7"/>
       <c r="C798" s="7"/>
@@ -15473,7 +15442,7 @@
       <c r="O798" s="8"/>
       <c r="P798" s="8"/>
     </row>
-    <row r="799" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="799" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A799" s="11"/>
       <c r="B799" s="7"/>
       <c r="C799" s="7"/>
@@ -15491,7 +15460,7 @@
       <c r="O799" s="8"/>
       <c r="P799" s="8"/>
     </row>
-    <row r="800" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="800" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A800" s="11"/>
       <c r="B800" s="7"/>
       <c r="C800" s="7"/>
@@ -15509,7 +15478,7 @@
       <c r="O800" s="8"/>
       <c r="P800" s="8"/>
     </row>
-    <row r="801" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="801" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A801" s="11"/>
       <c r="B801" s="7"/>
       <c r="C801" s="7"/>
@@ -15527,7 +15496,7 @@
       <c r="O801" s="8"/>
       <c r="P801" s="8"/>
     </row>
-    <row r="802" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="802" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A802" s="11"/>
       <c r="B802" s="7"/>
       <c r="C802" s="7"/>
@@ -15545,7 +15514,7 @@
       <c r="O802" s="8"/>
       <c r="P802" s="8"/>
     </row>
-    <row r="803" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="803" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A803" s="11"/>
       <c r="B803" s="7"/>
       <c r="C803" s="7"/>
@@ -15563,7 +15532,7 @@
       <c r="O803" s="8"/>
       <c r="P803" s="8"/>
     </row>
-    <row r="804" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="804" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A804" s="11"/>
       <c r="B804" s="7"/>
       <c r="C804" s="7"/>
@@ -15581,7 +15550,7 @@
       <c r="O804" s="8"/>
       <c r="P804" s="8"/>
     </row>
-    <row r="805" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="805" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A805" s="11"/>
       <c r="B805" s="7"/>
       <c r="C805" s="7"/>
@@ -15599,7 +15568,7 @@
       <c r="O805" s="8"/>
       <c r="P805" s="8"/>
     </row>
-    <row r="806" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="806" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A806" s="11"/>
       <c r="B806" s="7"/>
       <c r="C806" s="7"/>
@@ -15617,7 +15586,7 @@
       <c r="O806" s="8"/>
       <c r="P806" s="8"/>
     </row>
-    <row r="807" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="807" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A807" s="11"/>
       <c r="B807" s="7"/>
       <c r="C807" s="7"/>
@@ -15635,7 +15604,7 @@
       <c r="O807" s="8"/>
       <c r="P807" s="8"/>
     </row>
-    <row r="808" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="808" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A808" s="11"/>
       <c r="B808" s="7"/>
       <c r="C808" s="7"/>
@@ -15653,7 +15622,7 @@
       <c r="O808" s="8"/>
       <c r="P808" s="8"/>
     </row>
-    <row r="809" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="809" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A809" s="11"/>
       <c r="B809" s="7"/>
       <c r="C809" s="7"/>
@@ -15671,7 +15640,7 @@
       <c r="O809" s="8"/>
       <c r="P809" s="8"/>
     </row>
-    <row r="810" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="810" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A810" s="11"/>
       <c r="B810" s="7"/>
       <c r="C810" s="7"/>
@@ -15689,7 +15658,7 @@
       <c r="O810" s="8"/>
       <c r="P810" s="8"/>
     </row>
-    <row r="811" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="811" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A811" s="11"/>
       <c r="B811" s="7"/>
       <c r="C811" s="7"/>
@@ -15707,7 +15676,7 @@
       <c r="O811" s="8"/>
       <c r="P811" s="8"/>
     </row>
-    <row r="812" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="812" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A812" s="11"/>
       <c r="B812" s="7"/>
       <c r="C812" s="7"/>
@@ -15725,7 +15694,7 @@
       <c r="O812" s="8"/>
       <c r="P812" s="8"/>
     </row>
-    <row r="813" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="813" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A813" s="11"/>
       <c r="B813" s="7"/>
       <c r="C813" s="7"/>
@@ -15743,7 +15712,7 @@
       <c r="O813" s="8"/>
       <c r="P813" s="8"/>
     </row>
-    <row r="814" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="814" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A814" s="11"/>
       <c r="B814" s="7"/>
       <c r="C814" s="7"/>
@@ -15761,7 +15730,7 @@
       <c r="O814" s="8"/>
       <c r="P814" s="8"/>
     </row>
-    <row r="815" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="815" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A815" s="11"/>
       <c r="B815" s="7"/>
       <c r="C815" s="7"/>
@@ -15779,7 +15748,7 @@
       <c r="O815" s="8"/>
       <c r="P815" s="8"/>
     </row>
-    <row r="816" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="816" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A816" s="11"/>
       <c r="B816" s="7"/>
       <c r="C816" s="7"/>
@@ -15797,7 +15766,7 @@
       <c r="O816" s="8"/>
       <c r="P816" s="8"/>
     </row>
-    <row r="817" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="817" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A817" s="11"/>
       <c r="B817" s="7"/>
       <c r="C817" s="7"/>
@@ -15815,7 +15784,7 @@
       <c r="O817" s="8"/>
       <c r="P817" s="8"/>
     </row>
-    <row r="818" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="818" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A818" s="11"/>
       <c r="B818" s="7"/>
       <c r="C818" s="7"/>
@@ -15833,7 +15802,7 @@
       <c r="O818" s="8"/>
       <c r="P818" s="8"/>
     </row>
-    <row r="819" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="819" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A819" s="11"/>
       <c r="B819" s="7"/>
       <c r="C819" s="7"/>
@@ -15851,7 +15820,7 @@
       <c r="O819" s="8"/>
       <c r="P819" s="8"/>
     </row>
-    <row r="820" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="820" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A820" s="11"/>
       <c r="B820" s="7"/>
       <c r="C820" s="7"/>
@@ -15869,7 +15838,7 @@
       <c r="O820" s="8"/>
       <c r="P820" s="8"/>
     </row>
-    <row r="821" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="821" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A821" s="11"/>
       <c r="B821" s="7"/>
       <c r="C821" s="7"/>
@@ -15887,7 +15856,7 @@
       <c r="O821" s="8"/>
       <c r="P821" s="8"/>
     </row>
-    <row r="822" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="822" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A822" s="11"/>
       <c r="B822" s="7"/>
       <c r="C822" s="7"/>
@@ -15905,7 +15874,7 @@
       <c r="O822" s="8"/>
       <c r="P822" s="8"/>
     </row>
-    <row r="823" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="823" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A823" s="11"/>
       <c r="B823" s="7"/>
       <c r="C823" s="7"/>
@@ -15923,7 +15892,7 @@
       <c r="O823" s="8"/>
       <c r="P823" s="8"/>
     </row>
-    <row r="824" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="824" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A824" s="11"/>
       <c r="B824" s="7"/>
       <c r="C824" s="7"/>
@@ -15941,7 +15910,7 @@
       <c r="O824" s="8"/>
       <c r="P824" s="8"/>
     </row>
-    <row r="825" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="825" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A825" s="11"/>
       <c r="B825" s="7"/>
       <c r="C825" s="7"/>
@@ -15959,7 +15928,7 @@
       <c r="O825" s="8"/>
       <c r="P825" s="8"/>
     </row>
-    <row r="826" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="826" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A826" s="11"/>
       <c r="B826" s="7"/>
       <c r="C826" s="7"/>
@@ -15977,7 +15946,7 @@
       <c r="O826" s="8"/>
       <c r="P826" s="8"/>
     </row>
-    <row r="827" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="827" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A827" s="11"/>
       <c r="B827" s="7"/>
       <c r="C827" s="7"/>
@@ -15995,7 +15964,7 @@
       <c r="O827" s="8"/>
       <c r="P827" s="8"/>
     </row>
-    <row r="828" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="828" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A828" s="11"/>
       <c r="B828" s="7"/>
       <c r="C828" s="7"/>
@@ -16013,7 +15982,7 @@
       <c r="O828" s="8"/>
       <c r="P828" s="8"/>
     </row>
-    <row r="829" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="829" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A829" s="11"/>
       <c r="B829" s="7"/>
       <c r="C829" s="7"/>
@@ -16031,7 +16000,7 @@
       <c r="O829" s="8"/>
       <c r="P829" s="8"/>
     </row>
-    <row r="830" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="830" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A830" s="11"/>
       <c r="B830" s="7"/>
       <c r="C830" s="7"/>
@@ -16049,7 +16018,7 @@
       <c r="O830" s="8"/>
       <c r="P830" s="8"/>
     </row>
-    <row r="831" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="831" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A831" s="11"/>
       <c r="B831" s="7"/>
       <c r="C831" s="7"/>
@@ -16067,7 +16036,7 @@
       <c r="O831" s="8"/>
       <c r="P831" s="8"/>
     </row>
-    <row r="832" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="832" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A832" s="11"/>
       <c r="B832" s="7"/>
       <c r="C832" s="7"/>
@@ -16085,7 +16054,7 @@
       <c r="O832" s="8"/>
       <c r="P832" s="8"/>
     </row>
-    <row r="833" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="833" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A833" s="11"/>
       <c r="B833" s="7"/>
       <c r="C833" s="7"/>
@@ -16103,7 +16072,7 @@
       <c r="O833" s="8"/>
       <c r="P833" s="8"/>
     </row>
-    <row r="834" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="834" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A834" s="11"/>
       <c r="B834" s="7"/>
       <c r="C834" s="7"/>
@@ -16121,7 +16090,7 @@
       <c r="O834" s="8"/>
       <c r="P834" s="8"/>
     </row>
-    <row r="835" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="835" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A835" s="11"/>
       <c r="B835" s="7"/>
       <c r="C835" s="7"/>
@@ -16139,7 +16108,7 @@
       <c r="O835" s="8"/>
       <c r="P835" s="8"/>
     </row>
-    <row r="836" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="836" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A836" s="11"/>
       <c r="B836" s="7"/>
       <c r="C836" s="7"/>
@@ -16157,7 +16126,7 @@
       <c r="O836" s="8"/>
       <c r="P836" s="8"/>
     </row>
-    <row r="837" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="837" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A837" s="11"/>
       <c r="B837" s="7"/>
       <c r="C837" s="7"/>
@@ -16175,7 +16144,7 @@
       <c r="O837" s="8"/>
       <c r="P837" s="8"/>
     </row>
-    <row r="838" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="838" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A838" s="11"/>
       <c r="B838" s="7"/>
       <c r="C838" s="7"/>
@@ -16193,7 +16162,7 @@
       <c r="O838" s="8"/>
       <c r="P838" s="8"/>
     </row>
-    <row r="839" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="839" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A839" s="11"/>
       <c r="B839" s="7"/>
       <c r="C839" s="7"/>
@@ -16211,7 +16180,7 @@
       <c r="O839" s="8"/>
       <c r="P839" s="8"/>
     </row>
-    <row r="840" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="840" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A840" s="11"/>
       <c r="B840" s="7"/>
       <c r="C840" s="7"/>
@@ -16229,7 +16198,7 @@
       <c r="O840" s="8"/>
       <c r="P840" s="8"/>
     </row>
-    <row r="841" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="841" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A841" s="11"/>
       <c r="B841" s="7"/>
       <c r="C841" s="7"/>
@@ -16247,7 +16216,7 @@
       <c r="O841" s="8"/>
       <c r="P841" s="8"/>
     </row>
-    <row r="842" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="842" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A842" s="11"/>
       <c r="B842" s="7"/>
       <c r="C842" s="7"/>
@@ -16265,7 +16234,7 @@
       <c r="O842" s="8"/>
       <c r="P842" s="8"/>
     </row>
-    <row r="843" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="843" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A843" s="11"/>
       <c r="B843" s="7"/>
       <c r="C843" s="7"/>
@@ -16283,7 +16252,7 @@
       <c r="O843" s="8"/>
       <c r="P843" s="8"/>
     </row>
-    <row r="844" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="844" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A844" s="11"/>
       <c r="B844" s="7"/>
       <c r="C844" s="7"/>
@@ -16301,7 +16270,7 @@
       <c r="O844" s="8"/>
       <c r="P844" s="8"/>
     </row>
-    <row r="845" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="845" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A845" s="11"/>
       <c r="B845" s="7"/>
       <c r="C845" s="7"/>
@@ -16319,7 +16288,7 @@
       <c r="O845" s="8"/>
       <c r="P845" s="8"/>
     </row>
-    <row r="846" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="846" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A846" s="11"/>
       <c r="B846" s="7"/>
       <c r="C846" s="7"/>
@@ -16337,7 +16306,7 @@
       <c r="O846" s="8"/>
       <c r="P846" s="8"/>
     </row>
-    <row r="847" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="847" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A847" s="11"/>
       <c r="B847" s="7"/>
       <c r="C847" s="7"/>
@@ -16355,7 +16324,7 @@
       <c r="O847" s="8"/>
       <c r="P847" s="8"/>
     </row>
-    <row r="848" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="848" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A848" s="11"/>
       <c r="B848" s="7"/>
       <c r="C848" s="7"/>
@@ -16373,7 +16342,7 @@
       <c r="O848" s="8"/>
       <c r="P848" s="8"/>
     </row>
-    <row r="849" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="849" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A849" s="11"/>
       <c r="B849" s="7"/>
       <c r="C849" s="7"/>
@@ -16391,7 +16360,7 @@
       <c r="O849" s="8"/>
       <c r="P849" s="8"/>
     </row>
-    <row r="850" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="850" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A850" s="11"/>
       <c r="B850" s="7"/>
       <c r="C850" s="7"/>
@@ -16409,7 +16378,7 @@
       <c r="O850" s="8"/>
       <c r="P850" s="8"/>
     </row>
-    <row r="851" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="851" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A851" s="11"/>
       <c r="B851" s="7"/>
       <c r="C851" s="7"/>
@@ -16427,7 +16396,7 @@
       <c r="O851" s="8"/>
       <c r="P851" s="8"/>
     </row>
-    <row r="852" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="852" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A852" s="11"/>
       <c r="B852" s="7"/>
       <c r="C852" s="7"/>
@@ -16445,7 +16414,7 @@
       <c r="O852" s="8"/>
       <c r="P852" s="8"/>
     </row>
-    <row r="853" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="853" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A853" s="11"/>
       <c r="B853" s="7"/>
       <c r="C853" s="7"/>
@@ -16463,7 +16432,7 @@
       <c r="O853" s="8"/>
       <c r="P853" s="8"/>
     </row>
-    <row r="854" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="854" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A854" s="11"/>
       <c r="B854" s="7"/>
       <c r="C854" s="7"/>
@@ -16481,7 +16450,7 @@
       <c r="O854" s="8"/>
       <c r="P854" s="8"/>
     </row>
-    <row r="855" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="855" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A855" s="11"/>
       <c r="B855" s="7"/>
       <c r="C855" s="7"/>
@@ -16499,7 +16468,7 @@
       <c r="O855" s="8"/>
       <c r="P855" s="8"/>
     </row>
-    <row r="856" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="856" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A856" s="11"/>
       <c r="B856" s="7"/>
       <c r="C856" s="7"/>
@@ -16517,7 +16486,7 @@
       <c r="O856" s="8"/>
       <c r="P856" s="8"/>
     </row>
-    <row r="857" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="857" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A857" s="11"/>
       <c r="B857" s="7"/>
       <c r="C857" s="7"/>
@@ -16535,7 +16504,7 @@
       <c r="O857" s="8"/>
       <c r="P857" s="8"/>
     </row>
-    <row r="858" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="858" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A858" s="11"/>
       <c r="B858" s="7"/>
       <c r="C858" s="7"/>
@@ -16553,7 +16522,7 @@
       <c r="O858" s="8"/>
       <c r="P858" s="8"/>
     </row>
-    <row r="859" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="859" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A859" s="11"/>
       <c r="B859" s="7"/>
       <c r="C859" s="7"/>
@@ -16571,7 +16540,7 @@
       <c r="O859" s="8"/>
       <c r="P859" s="8"/>
     </row>
-    <row r="860" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="860" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A860" s="11"/>
       <c r="B860" s="7"/>
       <c r="C860" s="7"/>
@@ -16589,7 +16558,7 @@
       <c r="O860" s="8"/>
       <c r="P860" s="8"/>
     </row>
-    <row r="861" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="861" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A861" s="11"/>
       <c r="B861" s="7"/>
       <c r="C861" s="7"/>
@@ -16607,7 +16576,7 @@
       <c r="O861" s="8"/>
       <c r="P861" s="8"/>
     </row>
-    <row r="862" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="862" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A862" s="11"/>
       <c r="B862" s="7"/>
       <c r="C862" s="7"/>
@@ -16625,7 +16594,7 @@
       <c r="O862" s="8"/>
       <c r="P862" s="8"/>
     </row>
-    <row r="863" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="863" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A863" s="11"/>
       <c r="B863" s="7"/>
       <c r="C863" s="7"/>
@@ -16643,7 +16612,7 @@
       <c r="O863" s="8"/>
       <c r="P863" s="8"/>
     </row>
-    <row r="864" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="864" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A864" s="11"/>
       <c r="B864" s="7"/>
       <c r="C864" s="7"/>
@@ -16661,7 +16630,7 @@
       <c r="O864" s="8"/>
       <c r="P864" s="8"/>
     </row>
-    <row r="865" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="865" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A865" s="11"/>
       <c r="B865" s="7"/>
       <c r="C865" s="7"/>
@@ -16679,7 +16648,7 @@
       <c r="O865" s="8"/>
       <c r="P865" s="8"/>
     </row>
-    <row r="866" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="866" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A866" s="11"/>
       <c r="B866" s="7"/>
       <c r="C866" s="7"/>
@@ -16697,7 +16666,7 @@
       <c r="O866" s="8"/>
       <c r="P866" s="8"/>
     </row>
-    <row r="867" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="867" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A867" s="11"/>
       <c r="B867" s="7"/>
       <c r="C867" s="7"/>
@@ -16715,7 +16684,7 @@
       <c r="O867" s="8"/>
       <c r="P867" s="8"/>
     </row>
-    <row r="868" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="868" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A868" s="11"/>
       <c r="B868" s="7"/>
       <c r="C868" s="7"/>
@@ -16733,7 +16702,7 @@
       <c r="O868" s="8"/>
       <c r="P868" s="8"/>
     </row>
-    <row r="869" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="869" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A869" s="11"/>
       <c r="B869" s="7"/>
       <c r="C869" s="7"/>
@@ -16751,7 +16720,7 @@
       <c r="O869" s="8"/>
       <c r="P869" s="8"/>
     </row>
-    <row r="870" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="870" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A870" s="11"/>
       <c r="B870" s="7"/>
       <c r="C870" s="7"/>
@@ -16769,7 +16738,7 @@
       <c r="O870" s="8"/>
       <c r="P870" s="8"/>
     </row>
-    <row r="871" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="871" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A871" s="11"/>
       <c r="B871" s="7"/>
       <c r="C871" s="7"/>
@@ -16787,7 +16756,7 @@
       <c r="O871" s="8"/>
       <c r="P871" s="8"/>
     </row>
-    <row r="872" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="872" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A872" s="11"/>
       <c r="B872" s="7"/>
       <c r="C872" s="7"/>
@@ -16805,7 +16774,7 @@
       <c r="O872" s="8"/>
       <c r="P872" s="8"/>
     </row>
-    <row r="873" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="873" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A873" s="11"/>
       <c r="B873" s="7"/>
       <c r="C873" s="7"/>
@@ -16823,7 +16792,7 @@
       <c r="O873" s="8"/>
       <c r="P873" s="8"/>
     </row>
-    <row r="874" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="874" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A874" s="11"/>
       <c r="B874" s="7"/>
       <c r="C874" s="7"/>
@@ -16841,7 +16810,7 @@
       <c r="O874" s="8"/>
       <c r="P874" s="8"/>
     </row>
-    <row r="875" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="875" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A875" s="11"/>
       <c r="B875" s="7"/>
       <c r="C875" s="7"/>
@@ -16859,7 +16828,7 @@
       <c r="O875" s="8"/>
       <c r="P875" s="8"/>
     </row>
-    <row r="876" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="876" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A876" s="11"/>
       <c r="B876" s="7"/>
       <c r="C876" s="7"/>
@@ -16877,7 +16846,7 @@
       <c r="O876" s="8"/>
       <c r="P876" s="8"/>
     </row>
-    <row r="877" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="877" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A877" s="11"/>
       <c r="B877" s="7"/>
       <c r="C877" s="7"/>
@@ -16895,7 +16864,7 @@
       <c r="O877" s="8"/>
       <c r="P877" s="8"/>
     </row>
-    <row r="878" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="878" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A878" s="11"/>
       <c r="B878" s="7"/>
       <c r="C878" s="7"/>
@@ -16913,7 +16882,7 @@
       <c r="O878" s="8"/>
       <c r="P878" s="8"/>
     </row>
-    <row r="879" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="879" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A879" s="11"/>
       <c r="B879" s="7"/>
       <c r="C879" s="7"/>
@@ -16931,7 +16900,7 @@
       <c r="O879" s="8"/>
       <c r="P879" s="8"/>
     </row>
-    <row r="880" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="880" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A880" s="11"/>
       <c r="B880" s="7"/>
       <c r="C880" s="7"/>
@@ -16949,7 +16918,7 @@
       <c r="O880" s="8"/>
       <c r="P880" s="8"/>
     </row>
-    <row r="881" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="881" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A881" s="11"/>
       <c r="B881" s="7"/>
       <c r="C881" s="7"/>
@@ -16967,7 +16936,7 @@
       <c r="O881" s="8"/>
       <c r="P881" s="8"/>
     </row>
-    <row r="882" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="882" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A882" s="11"/>
       <c r="B882" s="7"/>
       <c r="C882" s="7"/>
@@ -16985,7 +16954,7 @@
       <c r="O882" s="8"/>
       <c r="P882" s="8"/>
     </row>
-    <row r="883" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="883" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A883" s="11"/>
       <c r="B883" s="7"/>
       <c r="C883" s="7"/>
@@ -17003,7 +16972,7 @@
       <c r="O883" s="8"/>
       <c r="P883" s="8"/>
     </row>
-    <row r="884" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="884" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A884" s="11"/>
       <c r="B884" s="7"/>
       <c r="C884" s="7"/>
@@ -17021,7 +16990,7 @@
       <c r="O884" s="8"/>
       <c r="P884" s="8"/>
     </row>
-    <row r="885" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="885" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A885" s="11"/>
       <c r="B885" s="7"/>
       <c r="C885" s="7"/>
@@ -17039,7 +17008,7 @@
       <c r="O885" s="8"/>
       <c r="P885" s="8"/>
     </row>
-    <row r="886" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="886" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A886" s="11"/>
       <c r="B886" s="7"/>
       <c r="C886" s="7"/>
@@ -17057,7 +17026,7 @@
       <c r="O886" s="8"/>
       <c r="P886" s="8"/>
     </row>
-    <row r="887" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="887" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A887" s="11"/>
       <c r="B887" s="7"/>
       <c r="C887" s="7"/>
@@ -17075,7 +17044,7 @@
       <c r="O887" s="8"/>
       <c r="P887" s="8"/>
     </row>
-    <row r="888" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="888" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A888" s="11"/>
       <c r="B888" s="7"/>
       <c r="C888" s="7"/>
@@ -17093,7 +17062,7 @@
       <c r="O888" s="8"/>
       <c r="P888" s="8"/>
     </row>
-    <row r="889" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="889" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A889" s="11"/>
       <c r="B889" s="7"/>
       <c r="C889" s="7"/>
@@ -17111,7 +17080,7 @@
       <c r="O889" s="8"/>
       <c r="P889" s="8"/>
     </row>
-    <row r="890" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="890" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A890" s="11"/>
       <c r="B890" s="7"/>
       <c r="C890" s="7"/>
@@ -17129,7 +17098,7 @@
       <c r="O890" s="8"/>
       <c r="P890" s="8"/>
     </row>
-    <row r="891" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="891" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A891" s="11"/>
       <c r="B891" s="7"/>
       <c r="C891" s="7"/>
@@ -17147,7 +17116,7 @@
       <c r="O891" s="8"/>
       <c r="P891" s="8"/>
     </row>
-    <row r="892" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="892" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A892" s="11"/>
       <c r="B892" s="7"/>
       <c r="C892" s="7"/>
@@ -17165,7 +17134,7 @@
       <c r="O892" s="8"/>
       <c r="P892" s="8"/>
     </row>
-    <row r="893" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="893" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A893" s="11"/>
       <c r="B893" s="7"/>
       <c r="C893" s="7"/>
@@ -17183,7 +17152,7 @@
       <c r="O893" s="8"/>
       <c r="P893" s="8"/>
     </row>
-    <row r="894" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="894" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A894" s="11"/>
       <c r="B894" s="7"/>
       <c r="C894" s="7"/>
@@ -17201,7 +17170,7 @@
       <c r="O894" s="8"/>
       <c r="P894" s="8"/>
     </row>
-    <row r="895" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="895" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A895" s="11"/>
       <c r="B895" s="7"/>
       <c r="C895" s="7"/>
@@ -17219,7 +17188,7 @@
       <c r="O895" s="8"/>
       <c r="P895" s="8"/>
     </row>
-    <row r="896" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="896" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A896" s="11"/>
       <c r="B896" s="7"/>
       <c r="C896" s="7"/>
@@ -17237,7 +17206,7 @@
       <c r="O896" s="8"/>
       <c r="P896" s="8"/>
     </row>
-    <row r="897" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="897" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A897" s="11"/>
       <c r="B897" s="7"/>
       <c r="C897" s="7"/>
@@ -17255,7 +17224,7 @@
       <c r="O897" s="8"/>
       <c r="P897" s="8"/>
     </row>
-    <row r="898" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="898" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A898" s="11"/>
       <c r="B898" s="7"/>
       <c r="C898" s="7"/>
@@ -17273,7 +17242,7 @@
       <c r="O898" s="8"/>
       <c r="P898" s="8"/>
     </row>
-    <row r="899" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="899" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A899" s="11"/>
       <c r="B899" s="7"/>
       <c r="C899" s="7"/>
@@ -17291,7 +17260,7 @@
       <c r="O899" s="8"/>
       <c r="P899" s="8"/>
     </row>
-    <row r="900" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="900" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A900" s="11"/>
       <c r="B900" s="7"/>
       <c r="C900" s="7"/>
@@ -17309,7 +17278,7 @@
       <c r="O900" s="8"/>
       <c r="P900" s="8"/>
     </row>
-    <row r="901" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="901" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A901" s="11"/>
       <c r="B901" s="7"/>
       <c r="C901" s="7"/>
@@ -17327,7 +17296,7 @@
       <c r="O901" s="8"/>
       <c r="P901" s="8"/>
     </row>
-    <row r="902" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="902" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A902" s="11"/>
       <c r="B902" s="7"/>
       <c r="C902" s="7"/>
@@ -17345,7 +17314,7 @@
       <c r="O902" s="8"/>
       <c r="P902" s="8"/>
     </row>
-    <row r="903" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="903" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A903" s="11"/>
       <c r="B903" s="7"/>
       <c r="C903" s="7"/>
@@ -17363,7 +17332,7 @@
       <c r="O903" s="8"/>
       <c r="P903" s="8"/>
     </row>
-    <row r="904" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="904" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A904" s="11"/>
       <c r="B904" s="7"/>
       <c r="C904" s="7"/>
@@ -17381,7 +17350,7 @@
       <c r="O904" s="8"/>
       <c r="P904" s="8"/>
     </row>
-    <row r="905" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="905" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A905" s="11"/>
       <c r="B905" s="7"/>
       <c r="C905" s="7"/>
@@ -17399,7 +17368,7 @@
       <c r="O905" s="8"/>
       <c r="P905" s="8"/>
     </row>
-    <row r="906" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="906" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A906" s="11"/>
       <c r="B906" s="7"/>
       <c r="C906" s="7"/>
@@ -17417,7 +17386,7 @@
       <c r="O906" s="8"/>
       <c r="P906" s="8"/>
     </row>
-    <row r="907" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="907" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A907" s="11"/>
       <c r="B907" s="7"/>
       <c r="C907" s="7"/>
@@ -17435,7 +17404,7 @@
       <c r="O907" s="8"/>
       <c r="P907" s="8"/>
     </row>
-    <row r="908" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="908" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A908" s="11"/>
       <c r="B908" s="7"/>
       <c r="C908" s="7"/>
@@ -17453,7 +17422,7 @@
       <c r="O908" s="8"/>
       <c r="P908" s="8"/>
     </row>
-    <row r="909" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="909" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A909" s="11"/>
       <c r="B909" s="7"/>
       <c r="C909" s="7"/>
@@ -17471,7 +17440,7 @@
       <c r="O909" s="8"/>
       <c r="P909" s="8"/>
     </row>
-    <row r="910" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="910" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A910" s="11"/>
       <c r="B910" s="7"/>
       <c r="C910" s="7"/>
@@ -17489,7 +17458,7 @@
       <c r="O910" s="8"/>
       <c r="P910" s="8"/>
     </row>
-    <row r="911" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="911" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A911" s="11"/>
       <c r="B911" s="7"/>
       <c r="C911" s="7"/>
@@ -17507,7 +17476,7 @@
       <c r="O911" s="8"/>
       <c r="P911" s="8"/>
     </row>
-    <row r="912" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="912" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A912" s="11"/>
       <c r="B912" s="7"/>
       <c r="C912" s="7"/>
@@ -17525,7 +17494,7 @@
       <c r="O912" s="8"/>
       <c r="P912" s="8"/>
     </row>
-    <row r="913" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="913" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A913" s="11"/>
       <c r="B913" s="7"/>
       <c r="C913" s="7"/>
@@ -17543,7 +17512,7 @@
       <c r="O913" s="8"/>
       <c r="P913" s="8"/>
     </row>
-    <row r="914" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="914" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A914" s="11"/>
       <c r="B914" s="7"/>
       <c r="C914" s="7"/>
@@ -17561,7 +17530,7 @@
       <c r="O914" s="8"/>
       <c r="P914" s="8"/>
     </row>
-    <row r="915" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="915" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A915" s="11"/>
       <c r="B915" s="7"/>
       <c r="C915" s="7"/>
@@ -17579,7 +17548,7 @@
       <c r="O915" s="8"/>
       <c r="P915" s="8"/>
     </row>
-    <row r="916" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="916" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A916" s="11"/>
       <c r="B916" s="7"/>
       <c r="C916" s="7"/>
@@ -17597,7 +17566,7 @@
       <c r="O916" s="8"/>
       <c r="P916" s="8"/>
     </row>
-    <row r="917" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="917" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A917" s="11"/>
       <c r="B917" s="7"/>
       <c r="C917" s="7"/>
@@ -17615,7 +17584,7 @@
       <c r="O917" s="8"/>
       <c r="P917" s="8"/>
     </row>
-    <row r="918" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="918" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A918" s="11"/>
       <c r="B918" s="7"/>
       <c r="C918" s="7"/>
@@ -17633,7 +17602,7 @@
       <c r="O918" s="8"/>
       <c r="P918" s="8"/>
     </row>
-    <row r="919" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="919" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A919" s="11"/>
       <c r="B919" s="7"/>
       <c r="C919" s="7"/>
@@ -17651,7 +17620,7 @@
       <c r="O919" s="8"/>
       <c r="P919" s="8"/>
     </row>
-    <row r="920" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="920" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A920" s="11"/>
       <c r="B920" s="7"/>
       <c r="C920" s="7"/>
@@ -17669,7 +17638,7 @@
       <c r="O920" s="8"/>
       <c r="P920" s="8"/>
     </row>
-    <row r="921" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="921" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A921" s="11"/>
       <c r="B921" s="7"/>
       <c r="C921" s="7"/>
@@ -17687,7 +17656,7 @@
       <c r="O921" s="8"/>
       <c r="P921" s="8"/>
     </row>
-    <row r="922" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="922" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A922" s="11"/>
       <c r="B922" s="7"/>
       <c r="C922" s="7"/>
@@ -17705,7 +17674,7 @@
       <c r="O922" s="8"/>
       <c r="P922" s="8"/>
     </row>
-    <row r="923" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="923" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A923" s="11"/>
       <c r="B923" s="7"/>
       <c r="C923" s="7"/>
@@ -17723,7 +17692,7 @@
       <c r="O923" s="8"/>
       <c r="P923" s="8"/>
     </row>
-    <row r="924" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="924" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A924" s="11"/>
       <c r="B924" s="7"/>
       <c r="C924" s="7"/>
@@ -17741,7 +17710,7 @@
       <c r="O924" s="8"/>
       <c r="P924" s="8"/>
     </row>
-    <row r="925" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="925" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A925" s="11"/>
       <c r="B925" s="7"/>
       <c r="C925" s="7"/>
@@ -17759,7 +17728,7 @@
       <c r="O925" s="8"/>
       <c r="P925" s="8"/>
     </row>
-    <row r="926" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="926" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A926" s="11"/>
       <c r="B926" s="7"/>
       <c r="C926" s="7"/>
@@ -17777,7 +17746,7 @@
       <c r="O926" s="8"/>
       <c r="P926" s="8"/>
     </row>
-    <row r="927" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="927" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A927" s="11"/>
       <c r="B927" s="7"/>
       <c r="C927" s="7"/>
@@ -17795,7 +17764,7 @@
       <c r="O927" s="8"/>
       <c r="P927" s="8"/>
     </row>
-    <row r="928" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="928" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A928" s="11"/>
       <c r="B928" s="7"/>
       <c r="C928" s="7"/>
@@ -17813,7 +17782,7 @@
       <c r="O928" s="8"/>
       <c r="P928" s="8"/>
     </row>
-    <row r="929" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="929" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A929" s="11"/>
       <c r="B929" s="7"/>
       <c r="C929" s="7"/>
@@ -17831,7 +17800,7 @@
       <c r="O929" s="8"/>
       <c r="P929" s="8"/>
     </row>
-    <row r="930" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="930" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A930" s="11"/>
       <c r="B930" s="7"/>
       <c r="C930" s="7"/>
@@ -17849,7 +17818,7 @@
       <c r="O930" s="8"/>
       <c r="P930" s="8"/>
     </row>
-    <row r="931" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="931" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A931" s="11"/>
       <c r="B931" s="7"/>
       <c r="C931" s="7"/>
@@ -17867,7 +17836,7 @@
       <c r="O931" s="8"/>
       <c r="P931" s="8"/>
     </row>
-    <row r="932" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="932" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A932" s="11"/>
       <c r="B932" s="7"/>
       <c r="C932" s="7"/>
@@ -17885,7 +17854,7 @@
       <c r="O932" s="8"/>
       <c r="P932" s="8"/>
     </row>
-    <row r="933" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="933" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A933" s="11"/>
       <c r="B933" s="7"/>
       <c r="C933" s="7"/>
@@ -17903,7 +17872,7 @@
       <c r="O933" s="8"/>
       <c r="P933" s="8"/>
     </row>
-    <row r="934" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="934" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A934" s="11"/>
       <c r="B934" s="7"/>
       <c r="C934" s="7"/>
@@ -17921,7 +17890,7 @@
       <c r="O934" s="8"/>
       <c r="P934" s="8"/>
     </row>
-    <row r="935" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="935" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A935" s="11"/>
       <c r="B935" s="7"/>
       <c r="C935" s="7"/>
@@ -17939,7 +17908,7 @@
       <c r="O935" s="8"/>
       <c r="P935" s="8"/>
     </row>
-    <row r="936" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="936" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A936" s="11"/>
       <c r="B936" s="7"/>
       <c r="C936" s="7"/>
@@ -17957,7 +17926,7 @@
       <c r="O936" s="8"/>
       <c r="P936" s="8"/>
     </row>
-    <row r="937" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="937" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A937" s="11"/>
       <c r="B937" s="7"/>
       <c r="C937" s="7"/>
@@ -17975,7 +17944,7 @@
       <c r="O937" s="8"/>
       <c r="P937" s="8"/>
     </row>
-    <row r="938" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="938" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A938" s="11"/>
       <c r="B938" s="7"/>
       <c r="C938" s="7"/>
@@ -17993,7 +17962,7 @@
       <c r="O938" s="8"/>
       <c r="P938" s="8"/>
     </row>
-    <row r="939" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="939" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A939" s="11"/>
       <c r="B939" s="7"/>
       <c r="C939" s="7"/>
@@ -18011,7 +17980,7 @@
       <c r="O939" s="8"/>
       <c r="P939" s="8"/>
     </row>
-    <row r="940" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="940" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A940" s="11"/>
       <c r="B940" s="7"/>
       <c r="C940" s="7"/>
@@ -18029,7 +17998,7 @@
       <c r="O940" s="8"/>
       <c r="P940" s="8"/>
     </row>
-    <row r="941" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="941" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A941" s="11"/>
       <c r="B941" s="7"/>
       <c r="C941" s="7"/>
@@ -18047,7 +18016,7 @@
       <c r="O941" s="8"/>
       <c r="P941" s="8"/>
     </row>
-    <row r="942" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="942" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A942" s="11"/>
       <c r="B942" s="7"/>
       <c r="C942" s="7"/>
@@ -18065,7 +18034,7 @@
       <c r="O942" s="8"/>
       <c r="P942" s="8"/>
     </row>
-    <row r="943" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="943" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A943" s="11"/>
       <c r="B943" s="7"/>
       <c r="C943" s="7"/>
@@ -18083,7 +18052,7 @@
       <c r="O943" s="8"/>
       <c r="P943" s="8"/>
     </row>
-    <row r="944" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="944" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A944" s="11"/>
       <c r="B944" s="7"/>
       <c r="C944" s="7"/>
@@ -18101,7 +18070,7 @@
       <c r="O944" s="8"/>
       <c r="P944" s="8"/>
     </row>
-    <row r="945" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="945" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A945" s="11"/>
       <c r="B945" s="7"/>
       <c r="C945" s="7"/>
@@ -18119,7 +18088,7 @@
       <c r="O945" s="8"/>
       <c r="P945" s="8"/>
     </row>
-    <row r="946" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="946" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A946" s="11"/>
       <c r="B946" s="7"/>
       <c r="C946" s="7"/>
@@ -18137,7 +18106,7 @@
       <c r="O946" s="8"/>
       <c r="P946" s="8"/>
     </row>
-    <row r="947" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="947" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A947" s="11"/>
       <c r="B947" s="7"/>
       <c r="C947" s="7"/>
@@ -18155,7 +18124,7 @@
       <c r="O947" s="8"/>
       <c r="P947" s="8"/>
     </row>
-    <row r="948" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="948" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A948" s="11"/>
       <c r="B948" s="7"/>
       <c r="C948" s="7"/>
@@ -18173,7 +18142,7 @@
       <c r="O948" s="8"/>
       <c r="P948" s="8"/>
     </row>
-    <row r="949" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="949" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A949" s="11"/>
       <c r="B949" s="7"/>
       <c r="C949" s="7"/>
@@ -18191,7 +18160,7 @@
       <c r="O949" s="8"/>
       <c r="P949" s="8"/>
     </row>
-    <row r="950" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="950" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A950" s="11"/>
       <c r="B950" s="7"/>
       <c r="C950" s="7"/>
@@ -18209,7 +18178,7 @@
       <c r="O950" s="8"/>
       <c r="P950" s="8"/>
     </row>
-    <row r="951" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="951" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A951" s="11"/>
       <c r="B951" s="7"/>
       <c r="C951" s="7"/>
@@ -18227,7 +18196,7 @@
       <c r="O951" s="8"/>
       <c r="P951" s="8"/>
     </row>
-    <row r="952" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="952" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A952" s="11"/>
       <c r="B952" s="7"/>
       <c r="C952" s="7"/>
@@ -18245,7 +18214,7 @@
       <c r="O952" s="8"/>
       <c r="P952" s="8"/>
     </row>
-    <row r="953" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="953" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A953" s="11"/>
       <c r="B953" s="7"/>
       <c r="C953" s="7"/>
@@ -18263,7 +18232,7 @@
       <c r="O953" s="8"/>
       <c r="P953" s="8"/>
     </row>
-    <row r="954" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="954" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A954" s="11"/>
       <c r="B954" s="7"/>
       <c r="C954" s="7"/>
@@ -18281,7 +18250,7 @@
       <c r="O954" s="8"/>
       <c r="P954" s="8"/>
     </row>
-    <row r="955" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="955" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A955" s="11"/>
       <c r="B955" s="7"/>
       <c r="C955" s="7"/>
@@ -18299,7 +18268,7 @@
       <c r="O955" s="8"/>
       <c r="P955" s="8"/>
     </row>
-    <row r="956" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="956" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A956" s="11"/>
       <c r="B956" s="7"/>
       <c r="C956" s="7"/>
@@ -18317,7 +18286,7 @@
       <c r="O956" s="8"/>
       <c r="P956" s="8"/>
     </row>
-    <row r="957" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="957" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A957" s="11"/>
       <c r="B957" s="7"/>
       <c r="C957" s="7"/>
@@ -18335,7 +18304,7 @@
       <c r="O957" s="8"/>
       <c r="P957" s="8"/>
     </row>
-    <row r="958" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="958" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A958" s="11"/>
       <c r="B958" s="7"/>
       <c r="C958" s="7"/>
@@ -18353,7 +18322,7 @@
       <c r="O958" s="8"/>
       <c r="P958" s="8"/>
     </row>
-    <row r="959" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="959" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A959" s="11"/>
       <c r="B959" s="7"/>
       <c r="C959" s="7"/>
@@ -18371,7 +18340,7 @@
       <c r="O959" s="8"/>
       <c r="P959" s="8"/>
     </row>
-    <row r="960" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="960" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A960" s="11"/>
       <c r="B960" s="7"/>
       <c r="C960" s="7"/>
@@ -18389,7 +18358,7 @@
       <c r="O960" s="8"/>
       <c r="P960" s="8"/>
     </row>
-    <row r="961" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="961" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A961" s="11"/>
       <c r="B961" s="7"/>
       <c r="C961" s="7"/>
@@ -18407,7 +18376,7 @@
       <c r="O961" s="8"/>
       <c r="P961" s="8"/>
     </row>
-    <row r="962" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="962" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A962" s="11"/>
       <c r="B962" s="7"/>
       <c r="C962" s="7"/>
@@ -18425,7 +18394,7 @@
       <c r="O962" s="8"/>
       <c r="P962" s="8"/>
     </row>
-    <row r="963" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="963" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A963" s="11"/>
       <c r="B963" s="7"/>
       <c r="C963" s="7"/>
@@ -18443,7 +18412,7 @@
       <c r="O963" s="8"/>
       <c r="P963" s="8"/>
     </row>
-    <row r="964" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="964" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A964" s="11"/>
       <c r="B964" s="7"/>
       <c r="C964" s="7"/>
@@ -18461,7 +18430,7 @@
       <c r="O964" s="8"/>
       <c r="P964" s="8"/>
     </row>
-    <row r="965" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="965" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A965" s="11"/>
       <c r="B965" s="7"/>
       <c r="C965" s="7"/>
@@ -18479,7 +18448,7 @@
       <c r="O965" s="8"/>
       <c r="P965" s="8"/>
     </row>
-    <row r="966" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="966" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A966" s="11"/>
       <c r="B966" s="7"/>
       <c r="C966" s="7"/>
@@ -18497,7 +18466,7 @@
       <c r="O966" s="8"/>
       <c r="P966" s="8"/>
     </row>
-    <row r="967" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="967" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A967" s="11"/>
       <c r="B967" s="7"/>
       <c r="C967" s="7"/>
@@ -18515,7 +18484,7 @@
       <c r="O967" s="8"/>
       <c r="P967" s="8"/>
     </row>
-    <row r="968" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="968" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A968" s="11"/>
       <c r="B968" s="7"/>
       <c r="C968" s="7"/>
@@ -18533,7 +18502,7 @@
       <c r="O968" s="8"/>
       <c r="P968" s="8"/>
     </row>
-    <row r="969" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="969" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A969" s="11"/>
       <c r="B969" s="7"/>
       <c r="C969" s="7"/>
@@ -18551,7 +18520,7 @@
       <c r="O969" s="8"/>
       <c r="P969" s="8"/>
     </row>
-    <row r="970" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="970" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A970" s="11"/>
       <c r="B970" s="7"/>
       <c r="C970" s="7"/>
@@ -18569,7 +18538,7 @@
       <c r="O970" s="8"/>
       <c r="P970" s="8"/>
     </row>
-    <row r="971" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="971" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A971" s="11"/>
       <c r="B971" s="7"/>
       <c r="C971" s="7"/>
@@ -18587,7 +18556,7 @@
       <c r="O971" s="8"/>
       <c r="P971" s="8"/>
     </row>
-    <row r="972" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="972" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A972" s="11"/>
       <c r="B972" s="7"/>
       <c r="C972" s="7"/>
@@ -18605,7 +18574,7 @@
       <c r="O972" s="8"/>
       <c r="P972" s="8"/>
     </row>
-    <row r="973" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="973" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A973" s="11"/>
       <c r="B973" s="7"/>
       <c r="C973" s="7"/>
@@ -18623,7 +18592,7 @@
       <c r="O973" s="8"/>
       <c r="P973" s="8"/>
     </row>
-    <row r="974" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="974" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A974" s="11"/>
       <c r="B974" s="7"/>
       <c r="C974" s="7"/>
@@ -18641,7 +18610,7 @@
       <c r="O974" s="8"/>
       <c r="P974" s="8"/>
     </row>
-    <row r="975" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="975" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A975" s="11"/>
       <c r="B975" s="7"/>
       <c r="C975" s="7"/>
@@ -18659,7 +18628,7 @@
       <c r="O975" s="8"/>
       <c r="P975" s="8"/>
     </row>
-    <row r="976" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="976" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A976" s="11"/>
       <c r="B976" s="7"/>
       <c r="C976" s="7"/>
@@ -18677,7 +18646,7 @@
       <c r="O976" s="8"/>
       <c r="P976" s="8"/>
     </row>
-    <row r="977" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="977" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A977" s="11"/>
       <c r="B977" s="7"/>
       <c r="C977" s="7"/>
@@ -18695,7 +18664,7 @@
       <c r="O977" s="8"/>
       <c r="P977" s="8"/>
     </row>
-    <row r="978" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="978" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A978" s="11"/>
       <c r="B978" s="7"/>
       <c r="C978" s="7"/>
@@ -18713,7 +18682,7 @@
       <c r="O978" s="8"/>
       <c r="P978" s="8"/>
     </row>
-    <row r="979" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="979" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A979" s="11"/>
       <c r="B979" s="7"/>
       <c r="C979" s="7"/>
@@ -18731,7 +18700,7 @@
       <c r="O979" s="8"/>
       <c r="P979" s="8"/>
     </row>
-    <row r="980" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="980" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A980" s="11"/>
       <c r="B980" s="7"/>
       <c r="C980" s="7"/>
@@ -18749,7 +18718,7 @@
       <c r="O980" s="8"/>
       <c r="P980" s="8"/>
     </row>
-    <row r="981" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="981" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A981" s="11"/>
       <c r="B981" s="7"/>
       <c r="C981" s="7"/>
@@ -18767,7 +18736,7 @@
       <c r="O981" s="8"/>
       <c r="P981" s="8"/>
     </row>
-    <row r="982" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="982" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A982" s="11"/>
       <c r="B982" s="7"/>
       <c r="C982" s="7"/>
@@ -18785,7 +18754,7 @@
       <c r="O982" s="8"/>
       <c r="P982" s="8"/>
     </row>
-    <row r="983" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="983" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A983" s="11"/>
       <c r="B983" s="7"/>
       <c r="C983" s="7"/>
@@ -18803,7 +18772,7 @@
       <c r="O983" s="8"/>
       <c r="P983" s="8"/>
     </row>
-    <row r="984" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="984" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A984" s="11"/>
       <c r="B984" s="7"/>
       <c r="C984" s="7"/>
@@ -18821,7 +18790,7 @@
       <c r="O984" s="8"/>
       <c r="P984" s="8"/>
     </row>
-    <row r="985" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="985" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A985" s="11"/>
       <c r="B985" s="7"/>
       <c r="C985" s="7"/>
@@ -18839,7 +18808,7 @@
       <c r="O985" s="8"/>
       <c r="P985" s="8"/>
     </row>
-    <row r="986" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="986" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A986" s="11"/>
       <c r="B986" s="7"/>
       <c r="C986" s="7"/>
@@ -18857,7 +18826,7 @@
       <c r="O986" s="8"/>
       <c r="P986" s="8"/>
     </row>
-    <row r="987" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="987" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A987" s="11"/>
       <c r="B987" s="7"/>
       <c r="C987" s="7"/>
@@ -18875,7 +18844,7 @@
       <c r="O987" s="8"/>
       <c r="P987" s="8"/>
     </row>
-    <row r="988" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="988" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A988" s="11"/>
       <c r="B988" s="7"/>
       <c r="C988" s="7"/>
@@ -18893,7 +18862,7 @@
       <c r="O988" s="8"/>
       <c r="P988" s="8"/>
     </row>
-    <row r="989" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="989" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A989" s="11"/>
       <c r="B989" s="7"/>
       <c r="C989" s="7"/>
@@ -18911,7 +18880,7 @@
       <c r="O989" s="8"/>
       <c r="P989" s="8"/>
     </row>
-    <row r="990" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="990" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A990" s="11"/>
       <c r="B990" s="7"/>
       <c r="C990" s="7"/>
@@ -18929,7 +18898,7 @@
       <c r="O990" s="8"/>
       <c r="P990" s="8"/>
     </row>
-    <row r="991" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="991" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A991" s="11"/>
       <c r="B991" s="7"/>
       <c r="C991" s="7"/>
@@ -18947,7 +18916,7 @@
       <c r="O991" s="8"/>
       <c r="P991" s="8"/>
     </row>
-    <row r="992" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="992" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A992" s="11"/>
       <c r="B992" s="7"/>
       <c r="C992" s="7"/>
@@ -18965,7 +18934,7 @@
       <c r="O992" s="8"/>
       <c r="P992" s="8"/>
     </row>
-    <row r="993" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="993" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A993" s="11"/>
       <c r="B993" s="7"/>
       <c r="C993" s="7"/>
@@ -18983,7 +18952,7 @@
       <c r="O993" s="8"/>
       <c r="P993" s="8"/>
     </row>
-    <row r="994" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="994" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A994" s="11"/>
       <c r="B994" s="7"/>
       <c r="C994" s="7"/>
@@ -19001,7 +18970,7 @@
       <c r="O994" s="8"/>
       <c r="P994" s="8"/>
     </row>
-    <row r="995" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="995" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A995" s="11"/>
       <c r="B995" s="7"/>
       <c r="C995" s="7"/>
@@ -19019,7 +18988,7 @@
       <c r="O995" s="8"/>
       <c r="P995" s="8"/>
     </row>
-    <row r="996" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="996" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A996" s="11"/>
       <c r="B996" s="7"/>
       <c r="C996" s="7"/>
@@ -19037,7 +19006,7 @@
       <c r="O996" s="8"/>
       <c r="P996" s="8"/>
     </row>
-    <row r="997" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="997" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A997" s="11"/>
       <c r="B997" s="7"/>
       <c r="C997" s="7"/>
@@ -19055,7 +19024,7 @@
       <c r="O997" s="8"/>
       <c r="P997" s="8"/>
     </row>
-    <row r="998" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="998" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A998" s="11"/>
       <c r="B998" s="7"/>
       <c r="C998" s="7"/>
@@ -19073,7 +19042,7 @@
       <c r="O998" s="8"/>
       <c r="P998" s="8"/>
     </row>
-    <row r="999" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="999" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A999" s="11"/>
       <c r="B999" s="7"/>
       <c r="C999" s="7"/>
@@ -19091,24 +19060,6 @@
       <c r="O999" s="8"/>
       <c r="P999" s="8"/>
     </row>
-    <row r="1000" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1000" s="11"/>
-      <c r="B1000" s="7"/>
-      <c r="C1000" s="7"/>
-      <c r="D1000" s="7"/>
-      <c r="E1000" s="7"/>
-      <c r="F1000" s="7"/>
-      <c r="G1000" s="7"/>
-      <c r="H1000" s="7"/>
-      <c r="I1000" s="7"/>
-      <c r="J1000" s="7"/>
-      <c r="K1000" s="7"/>
-      <c r="L1000" s="8"/>
-      <c r="M1000" s="8"/>
-      <c r="N1000" s="7"/>
-      <c r="O1000" s="8"/>
-      <c r="P1000" s="8"/>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19123,7 +19074,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -19138,7 +19089,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
